--- a/AAII_Financials/Quarterly/LX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LX_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>LX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>457400</v>
+        <v>440600</v>
       </c>
       <c r="E8" s="3">
-        <v>357700</v>
+        <v>446200</v>
       </c>
       <c r="F8" s="3">
-        <v>254600</v>
+        <v>348900</v>
       </c>
       <c r="G8" s="3">
-        <v>365700</v>
+        <v>248400</v>
       </c>
       <c r="H8" s="3">
-        <v>265500</v>
+        <v>356700</v>
       </c>
       <c r="I8" s="3">
-        <v>292600</v>
+        <v>258900</v>
       </c>
       <c r="J8" s="3">
+        <v>285400</v>
+      </c>
+      <c r="K8" s="3">
         <v>231500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>236500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>215600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>195500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>177200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>202100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>155000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>213400</v>
+        <v>233800</v>
       </c>
       <c r="E9" s="3">
-        <v>200000</v>
+        <v>208200</v>
       </c>
       <c r="F9" s="3">
-        <v>151800</v>
+        <v>195100</v>
       </c>
       <c r="G9" s="3">
-        <v>170900</v>
+        <v>148000</v>
       </c>
       <c r="H9" s="3">
-        <v>155300</v>
+        <v>166700</v>
       </c>
       <c r="I9" s="3">
-        <v>168100</v>
+        <v>151500</v>
       </c>
       <c r="J9" s="3">
+        <v>164000</v>
+      </c>
+      <c r="K9" s="3">
         <v>166700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>182200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>165500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>154200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>137800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>167000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>125700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>244000</v>
+        <v>206800</v>
       </c>
       <c r="E10" s="3">
-        <v>157700</v>
+        <v>238000</v>
       </c>
       <c r="F10" s="3">
-        <v>102800</v>
+        <v>153800</v>
       </c>
       <c r="G10" s="3">
-        <v>194800</v>
+        <v>100300</v>
       </c>
       <c r="H10" s="3">
-        <v>110100</v>
+        <v>190000</v>
       </c>
       <c r="I10" s="3">
-        <v>124500</v>
+        <v>107400</v>
       </c>
       <c r="J10" s="3">
+        <v>121500</v>
+      </c>
+      <c r="K10" s="3">
         <v>64800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>54300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>50100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>41200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>39400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>35200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +893,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>17400</v>
+        <v>14200</v>
       </c>
       <c r="E12" s="3">
-        <v>14300</v>
+        <v>17000</v>
       </c>
       <c r="F12" s="3">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="G12" s="3">
-        <v>11500</v>
+        <v>13100</v>
       </c>
       <c r="H12" s="3">
-        <v>13400</v>
+        <v>11200</v>
       </c>
       <c r="I12" s="3">
-        <v>11300</v>
+        <v>13100</v>
       </c>
       <c r="J12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K12" s="3">
         <v>9800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>19900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -984,23 +1003,23 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1500</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1008,13 +1027,16 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>800</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>319600</v>
+        <v>337500</v>
       </c>
       <c r="E17" s="3">
-        <v>273100</v>
+        <v>311700</v>
       </c>
       <c r="F17" s="3">
-        <v>205700</v>
+        <v>266400</v>
       </c>
       <c r="G17" s="3">
-        <v>225200</v>
+        <v>200700</v>
       </c>
       <c r="H17" s="3">
-        <v>198600</v>
+        <v>219700</v>
       </c>
       <c r="I17" s="3">
-        <v>210800</v>
+        <v>193700</v>
       </c>
       <c r="J17" s="3">
+        <v>205600</v>
+      </c>
+      <c r="K17" s="3">
         <v>199500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>206600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>199300</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17" s="3">
         <v>163100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>195600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>147300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>137800</v>
+        <v>103100</v>
       </c>
       <c r="E18" s="3">
-        <v>84600</v>
+        <v>134400</v>
       </c>
       <c r="F18" s="3">
-        <v>48900</v>
+        <v>82500</v>
       </c>
       <c r="G18" s="3">
-        <v>140500</v>
+        <v>47700</v>
       </c>
       <c r="H18" s="3">
-        <v>66900</v>
+        <v>137100</v>
       </c>
       <c r="I18" s="3">
-        <v>81800</v>
+        <v>65200</v>
       </c>
       <c r="J18" s="3">
+        <v>79800</v>
+      </c>
+      <c r="K18" s="3">
         <v>32000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>29900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16300</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18" s="3">
         <v>14100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,52 +1210,56 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-16100</v>
+        <v>-17200</v>
       </c>
       <c r="E20" s="3">
-        <v>20800</v>
+        <v>-15700</v>
       </c>
       <c r="F20" s="3">
-        <v>24600</v>
+        <v>20300</v>
       </c>
       <c r="G20" s="3">
-        <v>41100</v>
+        <v>24000</v>
       </c>
       <c r="H20" s="3">
-        <v>9200</v>
+        <v>40000</v>
       </c>
       <c r="I20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7600</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="3">
         <v>2100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1248,26 +1284,29 @@
       <c r="J21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="3">
         <v>33000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="3">
         <v>6600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1277,129 +1316,138 @@
       <c r="E22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="3">
-        <v>400</v>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>121700</v>
+        <v>85900</v>
       </c>
       <c r="E23" s="3">
-        <v>105400</v>
+        <v>118700</v>
       </c>
       <c r="F23" s="3">
-        <v>73200</v>
+        <v>102800</v>
       </c>
       <c r="G23" s="3">
-        <v>180900</v>
+        <v>71400</v>
       </c>
       <c r="H23" s="3">
-        <v>74900</v>
+        <v>176500</v>
       </c>
       <c r="I23" s="3">
-        <v>80100</v>
+        <v>73000</v>
       </c>
       <c r="J23" s="3">
+        <v>78200</v>
+      </c>
+      <c r="K23" s="3">
         <v>31500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>31100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>20400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>13100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>17800</v>
+        <v>13400</v>
       </c>
       <c r="E24" s="3">
-        <v>15300</v>
+        <v>17300</v>
       </c>
       <c r="F24" s="3">
-        <v>12300</v>
+        <v>14900</v>
       </c>
       <c r="G24" s="3">
-        <v>30300</v>
+        <v>12000</v>
       </c>
       <c r="H24" s="3">
-        <v>10700</v>
+        <v>29600</v>
       </c>
       <c r="I24" s="3">
-        <v>-15100</v>
+        <v>10500</v>
       </c>
       <c r="J24" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="K24" s="3">
         <v>5900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4900</v>
-      </c>
-      <c r="O24" s="3">
-        <v>4700</v>
       </c>
       <c r="P24" s="3">
         <v>4700</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>103900</v>
+        <v>72500</v>
       </c>
       <c r="E26" s="3">
-        <v>90100</v>
+        <v>101400</v>
       </c>
       <c r="F26" s="3">
-        <v>60900</v>
+        <v>87900</v>
       </c>
       <c r="G26" s="3">
-        <v>150600</v>
+        <v>59400</v>
       </c>
       <c r="H26" s="3">
-        <v>64200</v>
+        <v>146900</v>
       </c>
       <c r="I26" s="3">
-        <v>95200</v>
+        <v>62600</v>
       </c>
       <c r="J26" s="3">
+        <v>92900</v>
+      </c>
+      <c r="K26" s="3">
         <v>25500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>14900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O26" s="3">
         <v>8200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>103900</v>
+        <v>72500</v>
       </c>
       <c r="E27" s="3">
-        <v>90100</v>
+        <v>101400</v>
       </c>
       <c r="F27" s="3">
-        <v>60900</v>
+        <v>87900</v>
       </c>
       <c r="G27" s="3">
-        <v>150600</v>
+        <v>59400</v>
       </c>
       <c r="H27" s="3">
-        <v>64200</v>
+        <v>146900</v>
       </c>
       <c r="I27" s="3">
-        <v>95200</v>
+        <v>62600</v>
       </c>
       <c r="J27" s="3">
+        <v>92900</v>
+      </c>
+      <c r="K27" s="3">
         <v>25500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>800</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O27" s="3">
         <v>800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>16100</v>
+        <v>17200</v>
       </c>
       <c r="E32" s="3">
-        <v>-20800</v>
+        <v>15700</v>
       </c>
       <c r="F32" s="3">
-        <v>-24600</v>
+        <v>-20300</v>
       </c>
       <c r="G32" s="3">
-        <v>-41100</v>
+        <v>-24000</v>
       </c>
       <c r="H32" s="3">
-        <v>-9200</v>
+        <v>-40000</v>
       </c>
       <c r="I32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7600</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O32" s="3">
         <v>-2100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>103900</v>
+        <v>72500</v>
       </c>
       <c r="E33" s="3">
-        <v>90100</v>
+        <v>101400</v>
       </c>
       <c r="F33" s="3">
-        <v>60900</v>
+        <v>87900</v>
       </c>
       <c r="G33" s="3">
-        <v>150600</v>
+        <v>59400</v>
       </c>
       <c r="H33" s="3">
-        <v>64200</v>
+        <v>146900</v>
       </c>
       <c r="I33" s="3">
-        <v>95200</v>
+        <v>62600</v>
       </c>
       <c r="J33" s="3">
+        <v>92900</v>
+      </c>
+      <c r="K33" s="3">
         <v>25500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>800</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O33" s="3">
         <v>800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>103900</v>
+        <v>72500</v>
       </c>
       <c r="E35" s="3">
-        <v>90100</v>
+        <v>101400</v>
       </c>
       <c r="F35" s="3">
-        <v>60900</v>
+        <v>87900</v>
       </c>
       <c r="G35" s="3">
-        <v>150600</v>
+        <v>59400</v>
       </c>
       <c r="H35" s="3">
-        <v>64200</v>
+        <v>146900</v>
       </c>
       <c r="I35" s="3">
-        <v>95200</v>
+        <v>62600</v>
       </c>
       <c r="J35" s="3">
+        <v>92900</v>
+      </c>
+      <c r="K35" s="3">
         <v>25500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>800</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O35" s="3">
         <v>800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2052,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>401700</v>
+        <v>291800</v>
       </c>
       <c r="E41" s="3">
-        <v>152100</v>
+        <v>391800</v>
       </c>
       <c r="F41" s="3">
-        <v>192500</v>
+        <v>148300</v>
       </c>
       <c r="G41" s="3">
-        <v>164800</v>
+        <v>187700</v>
       </c>
       <c r="H41" s="3">
-        <v>63300</v>
+        <v>160700</v>
       </c>
       <c r="I41" s="3">
-        <v>63100</v>
+        <v>61700</v>
       </c>
       <c r="J41" s="3">
+        <v>61600</v>
+      </c>
+      <c r="K41" s="3">
         <v>88000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>167200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>74900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>145700</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,272 +2144,293 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>932800</v>
+        <v>1114400</v>
       </c>
       <c r="E43" s="3">
-        <v>828000</v>
+        <v>909900</v>
       </c>
       <c r="F43" s="3">
-        <v>825500</v>
+        <v>807700</v>
       </c>
       <c r="G43" s="3">
-        <v>941900</v>
+        <v>805300</v>
       </c>
       <c r="H43" s="3">
-        <v>981100</v>
+        <v>918800</v>
       </c>
       <c r="I43" s="3">
-        <v>1425300</v>
+        <v>957000</v>
       </c>
       <c r="J43" s="3">
+        <v>1390300</v>
+      </c>
+      <c r="K43" s="3">
         <v>1719200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1509000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1421400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1287700</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>19900</v>
+        <v>14900</v>
       </c>
       <c r="E44" s="3">
-        <v>14500</v>
+        <v>19400</v>
       </c>
       <c r="F44" s="3">
-        <v>8100</v>
+        <v>14100</v>
       </c>
       <c r="G44" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="H44" s="3">
-        <v>13700</v>
+        <v>8000</v>
       </c>
       <c r="I44" s="3">
-        <v>10900</v>
+        <v>13300</v>
       </c>
       <c r="J44" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K44" s="3">
         <v>13600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>15100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>18900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>18500</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>662000</v>
+        <v>889000</v>
       </c>
       <c r="E45" s="3">
-        <v>534800</v>
+        <v>645700</v>
       </c>
       <c r="F45" s="3">
-        <v>397600</v>
+        <v>521600</v>
       </c>
       <c r="G45" s="3">
-        <v>363700</v>
+        <v>387900</v>
       </c>
       <c r="H45" s="3">
-        <v>420100</v>
+        <v>354700</v>
       </c>
       <c r="I45" s="3">
-        <v>293500</v>
+        <v>409800</v>
       </c>
       <c r="J45" s="3">
+        <v>286300</v>
+      </c>
+      <c r="K45" s="3">
         <v>266700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>199200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>111500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>70400</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2016300</v>
+        <v>2310200</v>
       </c>
       <c r="E46" s="3">
-        <v>1529300</v>
+        <v>1966900</v>
       </c>
       <c r="F46" s="3">
-        <v>1423700</v>
+        <v>1491800</v>
       </c>
       <c r="G46" s="3">
-        <v>1478600</v>
+        <v>1388800</v>
       </c>
       <c r="H46" s="3">
-        <v>1478100</v>
+        <v>1442300</v>
       </c>
       <c r="I46" s="3">
-        <v>1792800</v>
+        <v>1441900</v>
       </c>
       <c r="J46" s="3">
+        <v>1748800</v>
+      </c>
+      <c r="K46" s="3">
         <v>2087400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1890500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1626700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1522300</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>288900</v>
+        <v>270800</v>
       </c>
       <c r="E47" s="3">
-        <v>237500</v>
+        <v>281800</v>
       </c>
       <c r="F47" s="3">
-        <v>234800</v>
+        <v>231700</v>
       </c>
       <c r="G47" s="3">
-        <v>269300</v>
+        <v>229000</v>
       </c>
       <c r="H47" s="3">
-        <v>260200</v>
+        <v>262700</v>
       </c>
       <c r="I47" s="3">
-        <v>322800</v>
+        <v>253800</v>
       </c>
       <c r="J47" s="3">
+        <v>314900</v>
+      </c>
+      <c r="K47" s="3">
         <v>349900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>268400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>218800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>194900</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F48" s="3">
         <v>12900</v>
       </c>
-      <c r="E48" s="3">
-        <v>13200</v>
-      </c>
-      <c r="F48" s="3">
-        <v>13300</v>
-      </c>
       <c r="G48" s="3">
-        <v>11800</v>
+        <v>13000</v>
       </c>
       <c r="H48" s="3">
-        <v>11300</v>
+        <v>11500</v>
       </c>
       <c r="I48" s="3">
         <v>11000</v>
       </c>
       <c r="J48" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K48" s="3">
         <v>10200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8700</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>91600</v>
+        <v>98300</v>
       </c>
       <c r="E52" s="3">
-        <v>62300</v>
+        <v>89400</v>
       </c>
       <c r="F52" s="3">
-        <v>50900</v>
+        <v>60800</v>
       </c>
       <c r="G52" s="3">
-        <v>29600</v>
+        <v>49600</v>
       </c>
       <c r="H52" s="3">
-        <v>44000</v>
+        <v>28800</v>
       </c>
       <c r="I52" s="3">
-        <v>39800</v>
+        <v>42900</v>
       </c>
       <c r="J52" s="3">
+        <v>38800</v>
+      </c>
+      <c r="K52" s="3">
         <v>18600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8400</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2409700</v>
+        <v>2692300</v>
       </c>
       <c r="E54" s="3">
-        <v>1842300</v>
+        <v>2350600</v>
       </c>
       <c r="F54" s="3">
-        <v>1722700</v>
+        <v>1797200</v>
       </c>
       <c r="G54" s="3">
-        <v>1789300</v>
+        <v>1680400</v>
       </c>
       <c r="H54" s="3">
-        <v>1793600</v>
+        <v>1745400</v>
       </c>
       <c r="I54" s="3">
-        <v>2166300</v>
+        <v>1749600</v>
       </c>
       <c r="J54" s="3">
+        <v>2113200</v>
+      </c>
+      <c r="K54" s="3">
         <v>2466200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2186000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1866600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1734300</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,245 +2748,261 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>29700</v>
+        <v>28200</v>
       </c>
       <c r="E57" s="3">
-        <v>35700</v>
+        <v>28900</v>
       </c>
       <c r="F57" s="3">
-        <v>20700</v>
+        <v>34900</v>
       </c>
       <c r="G57" s="3">
-        <v>19500</v>
+        <v>20200</v>
       </c>
       <c r="H57" s="3">
-        <v>30600</v>
+        <v>19000</v>
       </c>
       <c r="I57" s="3">
-        <v>27800</v>
+        <v>29800</v>
       </c>
       <c r="J57" s="3">
+        <v>27100</v>
+      </c>
+      <c r="K57" s="3">
         <v>18600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>29400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11700</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>654100</v>
+        <v>802400</v>
       </c>
       <c r="E58" s="3">
-        <v>604900</v>
+        <v>638000</v>
       </c>
       <c r="F58" s="3">
-        <v>571500</v>
+        <v>590100</v>
       </c>
       <c r="G58" s="3">
-        <v>729500</v>
+        <v>557500</v>
       </c>
       <c r="H58" s="3">
-        <v>975500</v>
+        <v>711600</v>
       </c>
       <c r="I58" s="3">
-        <v>1437400</v>
+        <v>951600</v>
       </c>
       <c r="J58" s="3">
+        <v>1402200</v>
+      </c>
+      <c r="K58" s="3">
         <v>1893600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1587100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1618800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1541700</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>498700</v>
+        <v>541300</v>
       </c>
       <c r="E59" s="3">
-        <v>406800</v>
+        <v>486500</v>
       </c>
       <c r="F59" s="3">
-        <v>391600</v>
+        <v>396800</v>
       </c>
       <c r="G59" s="3">
-        <v>401600</v>
+        <v>382000</v>
       </c>
       <c r="H59" s="3">
-        <v>329800</v>
+        <v>391700</v>
       </c>
       <c r="I59" s="3">
-        <v>301100</v>
+        <v>321700</v>
       </c>
       <c r="J59" s="3">
+        <v>293700</v>
+      </c>
+      <c r="K59" s="3">
         <v>242300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>292200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>186800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>158000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1182400</v>
+        <v>1372000</v>
       </c>
       <c r="E60" s="3">
-        <v>1047400</v>
+        <v>1153400</v>
       </c>
       <c r="F60" s="3">
-        <v>983800</v>
+        <v>1021700</v>
       </c>
       <c r="G60" s="3">
-        <v>1150500</v>
+        <v>959600</v>
       </c>
       <c r="H60" s="3">
-        <v>1335900</v>
+        <v>1122300</v>
       </c>
       <c r="I60" s="3">
-        <v>1766300</v>
+        <v>1303200</v>
       </c>
       <c r="J60" s="3">
+        <v>1723000</v>
+      </c>
+      <c r="K60" s="3">
         <v>2154400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1908700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1815300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1711400</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>315000</v>
+        <v>349400</v>
       </c>
       <c r="E61" s="3">
-        <v>3700</v>
+        <v>307200</v>
       </c>
       <c r="F61" s="3">
-        <v>30300</v>
+        <v>3600</v>
       </c>
       <c r="G61" s="3">
-        <v>22700</v>
+        <v>29500</v>
       </c>
       <c r="H61" s="3">
-        <v>53600</v>
+        <v>22100</v>
       </c>
       <c r="I61" s="3">
-        <v>48500</v>
+        <v>52200</v>
       </c>
       <c r="J61" s="3">
+        <v>47300</v>
+      </c>
+      <c r="K61" s="3">
         <v>35300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>24800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>48200</v>
+        <v>47200</v>
       </c>
       <c r="E62" s="3">
-        <v>39200</v>
+        <v>47000</v>
       </c>
       <c r="F62" s="3">
-        <v>31500</v>
+        <v>38200</v>
       </c>
       <c r="G62" s="3">
-        <v>26900</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>10</v>
+        <v>30700</v>
+      </c>
+      <c r="H62" s="3">
+        <v>26200</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>10</v>
@@ -2874,8 +3019,8 @@
       <c r="M62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1545600</v>
+        <v>1768600</v>
       </c>
       <c r="E66" s="3">
-        <v>1090300</v>
+        <v>1507700</v>
       </c>
       <c r="F66" s="3">
-        <v>1045500</v>
+        <v>1063500</v>
       </c>
       <c r="G66" s="3">
-        <v>1200000</v>
+        <v>1019800</v>
       </c>
       <c r="H66" s="3">
-        <v>1389500</v>
+        <v>1170600</v>
       </c>
       <c r="I66" s="3">
-        <v>1814800</v>
+        <v>1355400</v>
       </c>
       <c r="J66" s="3">
+        <v>1770300</v>
+      </c>
+      <c r="K66" s="3">
         <v>2189700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1933500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1835100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1716400</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3195,22 +3362,25 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>100100</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>97600</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>512000</v>
+        <v>572000</v>
       </c>
       <c r="E72" s="3">
-        <v>408100</v>
+        <v>499500</v>
       </c>
       <c r="F72" s="3">
-        <v>340800</v>
+        <v>398100</v>
       </c>
       <c r="G72" s="3">
-        <v>257100</v>
+        <v>332400</v>
       </c>
       <c r="H72" s="3">
-        <v>76500</v>
+        <v>250800</v>
       </c>
       <c r="I72" s="3">
-        <v>31100</v>
+        <v>74600</v>
       </c>
       <c r="J72" s="3">
+        <v>30400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-35600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-58600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-72800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-82900</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>864100</v>
+        <v>923700</v>
       </c>
       <c r="E76" s="3">
-        <v>752100</v>
+        <v>842900</v>
       </c>
       <c r="F76" s="3">
-        <v>677200</v>
+        <v>733600</v>
       </c>
       <c r="G76" s="3">
-        <v>589200</v>
+        <v>660600</v>
       </c>
       <c r="H76" s="3">
-        <v>404100</v>
+        <v>574800</v>
       </c>
       <c r="I76" s="3">
-        <v>351500</v>
+        <v>394200</v>
       </c>
       <c r="J76" s="3">
+        <v>342900</v>
+      </c>
+      <c r="K76" s="3">
         <v>276500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>252500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-68600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-79700</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>103900</v>
+        <v>72500</v>
       </c>
       <c r="E81" s="3">
-        <v>90100</v>
+        <v>101400</v>
       </c>
       <c r="F81" s="3">
-        <v>60900</v>
+        <v>87900</v>
       </c>
       <c r="G81" s="3">
-        <v>150600</v>
+        <v>59400</v>
       </c>
       <c r="H81" s="3">
-        <v>64200</v>
+        <v>146900</v>
       </c>
       <c r="I81" s="3">
-        <v>95200</v>
+        <v>62600</v>
       </c>
       <c r="J81" s="3">
+        <v>92900</v>
+      </c>
+      <c r="K81" s="3">
         <v>25500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>800</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O81" s="3">
         <v>800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3655,11 +3853,11 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>800</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>10</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4105,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3919,11 +4135,11 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>99300</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>10</v>
       </c>
@@ -3936,8 +4152,11 @@
       <c r="P89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3981,11 +4201,11 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>10</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4113,11 +4342,11 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-187300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>10</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4351,11 +4596,11 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>180500</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>10</v>
       </c>
@@ -4368,8 +4613,11 @@
       <c r="P100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4395,11 +4643,11 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>10</v>
       </c>
@@ -4412,8 +4660,11 @@
       <c r="P101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4439,11 +4690,11 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>92300</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>10</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>10</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>LX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,244 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>440600</v>
+        <v>429600</v>
       </c>
       <c r="E8" s="3">
-        <v>446200</v>
+        <v>363100</v>
       </c>
       <c r="F8" s="3">
-        <v>348900</v>
+        <v>457200</v>
       </c>
       <c r="G8" s="3">
-        <v>248400</v>
+        <v>463000</v>
       </c>
       <c r="H8" s="3">
-        <v>356700</v>
+        <v>362000</v>
       </c>
       <c r="I8" s="3">
+        <v>257700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>370200</v>
+      </c>
+      <c r="K8" s="3">
         <v>258900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>285400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>231500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>236500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>215600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>195500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>177200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>202100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>155000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>233800</v>
+        <v>289000</v>
       </c>
       <c r="E9" s="3">
-        <v>208200</v>
+        <v>338800</v>
       </c>
       <c r="F9" s="3">
-        <v>195100</v>
+        <v>242600</v>
       </c>
       <c r="G9" s="3">
-        <v>148000</v>
+        <v>216000</v>
       </c>
       <c r="H9" s="3">
+        <v>202500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>153600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>173000</v>
+      </c>
+      <c r="K9" s="3">
+        <v>151500</v>
+      </c>
+      <c r="L9" s="3">
+        <v>164000</v>
+      </c>
+      <c r="M9" s="3">
         <v>166700</v>
       </c>
-      <c r="I9" s="3">
-        <v>151500</v>
-      </c>
-      <c r="J9" s="3">
-        <v>164000</v>
-      </c>
-      <c r="K9" s="3">
-        <v>166700</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>182200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>165500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>154200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>137800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>167000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>125700</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>206800</v>
+        <v>140600</v>
       </c>
       <c r="E10" s="3">
-        <v>238000</v>
+        <v>24200</v>
       </c>
       <c r="F10" s="3">
-        <v>153800</v>
+        <v>214600</v>
       </c>
       <c r="G10" s="3">
-        <v>100300</v>
+        <v>247000</v>
       </c>
       <c r="H10" s="3">
-        <v>190000</v>
+        <v>159600</v>
       </c>
       <c r="I10" s="3">
+        <v>104100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>197200</v>
+      </c>
+      <c r="K10" s="3">
         <v>107400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>121500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>64800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>54300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>50100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>41200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>39400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>35200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,55 +920,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>14200</v>
+        <v>19500</v>
       </c>
       <c r="E12" s="3">
-        <v>17000</v>
+        <v>18300</v>
       </c>
       <c r="F12" s="3">
-        <v>14000</v>
+        <v>14700</v>
       </c>
       <c r="G12" s="3">
+        <v>17600</v>
+      </c>
+      <c r="H12" s="3">
+        <v>14500</v>
+      </c>
+      <c r="I12" s="3">
+        <v>13600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K12" s="3">
         <v>13100</v>
       </c>
-      <c r="H12" s="3">
-        <v>11200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>13100</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>11000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>9800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>19900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>10000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>8500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>6400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>6600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,16 +1022,22 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1006,37 +1046,43 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1500</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>800</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>337500</v>
+        <v>372700</v>
       </c>
       <c r="E17" s="3">
-        <v>311700</v>
+        <v>408500</v>
       </c>
       <c r="F17" s="3">
-        <v>266400</v>
+        <v>350200</v>
       </c>
       <c r="G17" s="3">
-        <v>200700</v>
+        <v>323500</v>
       </c>
       <c r="H17" s="3">
-        <v>219700</v>
+        <v>276400</v>
       </c>
       <c r="I17" s="3">
+        <v>208300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>227900</v>
+      </c>
+      <c r="K17" s="3">
         <v>193700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>205600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>199500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>206600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>199300</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="3">
         <v>163100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>195600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>147300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>103100</v>
+        <v>56900</v>
       </c>
       <c r="E18" s="3">
-        <v>134400</v>
+        <v>-45400</v>
       </c>
       <c r="F18" s="3">
-        <v>82500</v>
+        <v>107000</v>
       </c>
       <c r="G18" s="3">
-        <v>47700</v>
+        <v>139500</v>
       </c>
       <c r="H18" s="3">
-        <v>137100</v>
+        <v>85600</v>
       </c>
       <c r="I18" s="3">
+        <v>49500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>142200</v>
+      </c>
+      <c r="K18" s="3">
         <v>65200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>79800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>32000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>29900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>16300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="3">
         <v>14100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>6500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,55 +1277,63 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-17200</v>
+        <v>15100</v>
       </c>
       <c r="E20" s="3">
-        <v>-15700</v>
+        <v>-71300</v>
       </c>
       <c r="F20" s="3">
-        <v>20300</v>
+        <v>-17800</v>
       </c>
       <c r="G20" s="3">
-        <v>24000</v>
+        <v>-16300</v>
       </c>
       <c r="H20" s="3">
-        <v>40000</v>
+        <v>21000</v>
       </c>
       <c r="I20" s="3">
+        <v>24900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>41600</v>
+      </c>
+      <c r="K20" s="3">
         <v>9000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>7600</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="3">
         <v>2100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1287,26 +1361,32 @@
       <c r="K21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="3">
         <v>33000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R21" s="3">
         <v>6600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1319,135 +1399,153 @@
       <c r="F22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="3">
-        <v>300</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="3">
+        <v>400</v>
+      </c>
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>3600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>3300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>3200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>3000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>85900</v>
+        <v>72000</v>
       </c>
       <c r="E23" s="3">
-        <v>118700</v>
+        <v>-116700</v>
       </c>
       <c r="F23" s="3">
-        <v>102800</v>
+        <v>89200</v>
       </c>
       <c r="G23" s="3">
-        <v>71400</v>
+        <v>123200</v>
       </c>
       <c r="H23" s="3">
-        <v>176500</v>
+        <v>106700</v>
       </c>
       <c r="I23" s="3">
+        <v>74000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>183200</v>
+      </c>
+      <c r="K23" s="3">
         <v>73000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>78200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>31500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>31100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>20400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>5600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>13100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>13400</v>
+        <v>11100</v>
       </c>
       <c r="E24" s="3">
-        <v>17300</v>
+        <v>-18100</v>
       </c>
       <c r="F24" s="3">
-        <v>14900</v>
+        <v>14000</v>
       </c>
       <c r="G24" s="3">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="H24" s="3">
-        <v>29600</v>
+        <v>15500</v>
       </c>
       <c r="I24" s="3">
+        <v>12400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>30700</v>
+      </c>
+      <c r="K24" s="3">
         <v>10500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-14700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>5900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>16200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>10300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>3300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>4900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>4700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>72500</v>
+        <v>60900</v>
       </c>
       <c r="E26" s="3">
-        <v>101400</v>
+        <v>-98500</v>
       </c>
       <c r="F26" s="3">
-        <v>87900</v>
+        <v>75200</v>
       </c>
       <c r="G26" s="3">
-        <v>59400</v>
+        <v>105200</v>
       </c>
       <c r="H26" s="3">
-        <v>146900</v>
+        <v>91200</v>
       </c>
       <c r="I26" s="3">
+        <v>61600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>152400</v>
+      </c>
+      <c r="K26" s="3">
         <v>62600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>92900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>25500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>14900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>10100</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="3">
         <v>8200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>72500</v>
+        <v>60900</v>
       </c>
       <c r="E27" s="3">
-        <v>101400</v>
+        <v>-98500</v>
       </c>
       <c r="F27" s="3">
-        <v>87900</v>
+        <v>75200</v>
       </c>
       <c r="G27" s="3">
-        <v>59400</v>
+        <v>105200</v>
       </c>
       <c r="H27" s="3">
-        <v>146900</v>
+        <v>91200</v>
       </c>
       <c r="I27" s="3">
+        <v>61600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>152400</v>
+      </c>
+      <c r="K27" s="3">
         <v>62600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>92900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>25500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>3200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>800</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O27" s="3">
         <v>800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>800</v>
+      </c>
+      <c r="R27" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>17200</v>
+        <v>-15100</v>
       </c>
       <c r="E32" s="3">
-        <v>15700</v>
+        <v>71300</v>
       </c>
       <c r="F32" s="3">
-        <v>-20300</v>
+        <v>17800</v>
       </c>
       <c r="G32" s="3">
-        <v>-24000</v>
+        <v>16300</v>
       </c>
       <c r="H32" s="3">
-        <v>-40000</v>
+        <v>-21000</v>
       </c>
       <c r="I32" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-41600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-9000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-7600</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-2100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>72500</v>
+        <v>60900</v>
       </c>
       <c r="E33" s="3">
-        <v>101400</v>
+        <v>-98500</v>
       </c>
       <c r="F33" s="3">
-        <v>87900</v>
+        <v>75200</v>
       </c>
       <c r="G33" s="3">
-        <v>59400</v>
+        <v>105200</v>
       </c>
       <c r="H33" s="3">
-        <v>146900</v>
+        <v>91200</v>
       </c>
       <c r="I33" s="3">
+        <v>61600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>152400</v>
+      </c>
+      <c r="K33" s="3">
         <v>62600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>92900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>25500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>3200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>800</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O33" s="3">
         <v>800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>800</v>
+      </c>
+      <c r="R33" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>72500</v>
+        <v>60900</v>
       </c>
       <c r="E35" s="3">
-        <v>101400</v>
+        <v>-98500</v>
       </c>
       <c r="F35" s="3">
-        <v>87900</v>
+        <v>75200</v>
       </c>
       <c r="G35" s="3">
-        <v>59400</v>
+        <v>105200</v>
       </c>
       <c r="H35" s="3">
-        <v>146900</v>
+        <v>91200</v>
       </c>
       <c r="I35" s="3">
+        <v>61600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>152400</v>
+      </c>
+      <c r="K35" s="3">
         <v>62600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>92900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>25500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>3200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>800</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O35" s="3">
         <v>800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>800</v>
+      </c>
+      <c r="R35" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>291800</v>
+        <v>169200</v>
       </c>
       <c r="E41" s="3">
-        <v>391800</v>
+        <v>187900</v>
       </c>
       <c r="F41" s="3">
-        <v>148300</v>
+        <v>302800</v>
       </c>
       <c r="G41" s="3">
-        <v>187700</v>
+        <v>406600</v>
       </c>
       <c r="H41" s="3">
-        <v>160700</v>
+        <v>153900</v>
       </c>
       <c r="I41" s="3">
+        <v>194800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>166800</v>
+      </c>
+      <c r="K41" s="3">
         <v>61700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>61600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>88000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>167200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>74900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>145700</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,313 +2327,355 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1114400</v>
+        <v>1364300</v>
       </c>
       <c r="E43" s="3">
-        <v>909900</v>
+        <v>1249200</v>
       </c>
       <c r="F43" s="3">
-        <v>807700</v>
+        <v>1156400</v>
       </c>
       <c r="G43" s="3">
-        <v>805300</v>
+        <v>944200</v>
       </c>
       <c r="H43" s="3">
-        <v>918800</v>
+        <v>838100</v>
       </c>
       <c r="I43" s="3">
+        <v>835600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>953400</v>
+      </c>
+      <c r="K43" s="3">
         <v>957000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1390300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1719200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1509000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1421400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1287700</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>14900</v>
+        <v>8100</v>
       </c>
       <c r="E44" s="3">
-        <v>19400</v>
+        <v>8000</v>
       </c>
       <c r="F44" s="3">
-        <v>14100</v>
+        <v>15500</v>
       </c>
       <c r="G44" s="3">
-        <v>7900</v>
+        <v>20100</v>
       </c>
       <c r="H44" s="3">
-        <v>8000</v>
+        <v>14700</v>
       </c>
       <c r="I44" s="3">
+        <v>8200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K44" s="3">
         <v>13300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>10600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>13600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>15100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>18900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>18500</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>889000</v>
+        <v>1094700</v>
       </c>
       <c r="E45" s="3">
-        <v>645700</v>
+        <v>937300</v>
       </c>
       <c r="F45" s="3">
-        <v>521600</v>
+        <v>922500</v>
       </c>
       <c r="G45" s="3">
-        <v>387900</v>
+        <v>670000</v>
       </c>
       <c r="H45" s="3">
-        <v>354700</v>
+        <v>541300</v>
       </c>
       <c r="I45" s="3">
+        <v>402500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>368100</v>
+      </c>
+      <c r="K45" s="3">
         <v>409800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>286300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>266700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>199200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>111500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>70400</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2310200</v>
+        <v>2636300</v>
       </c>
       <c r="E46" s="3">
-        <v>1966900</v>
+        <v>2382400</v>
       </c>
       <c r="F46" s="3">
-        <v>1491800</v>
+        <v>2397200</v>
       </c>
       <c r="G46" s="3">
-        <v>1388800</v>
+        <v>2040900</v>
       </c>
       <c r="H46" s="3">
-        <v>1442300</v>
+        <v>1547900</v>
       </c>
       <c r="I46" s="3">
+        <v>1441100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1496600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1441900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1748800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2087400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1890500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1626700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1522300</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>270800</v>
+        <v>209400</v>
       </c>
       <c r="E47" s="3">
-        <v>281800</v>
+        <v>229300</v>
       </c>
       <c r="F47" s="3">
-        <v>231700</v>
+        <v>281000</v>
       </c>
       <c r="G47" s="3">
-        <v>229000</v>
+        <v>292400</v>
       </c>
       <c r="H47" s="3">
-        <v>262700</v>
+        <v>240400</v>
       </c>
       <c r="I47" s="3">
+        <v>237700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>272600</v>
+      </c>
+      <c r="K47" s="3">
         <v>253800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>314900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>349900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>268400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>218800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>194900</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13000</v>
+        <v>15400</v>
       </c>
       <c r="E48" s="3">
-        <v>12600</v>
+        <v>14700</v>
       </c>
       <c r="F48" s="3">
-        <v>12900</v>
+        <v>13400</v>
       </c>
       <c r="G48" s="3">
         <v>13000</v>
       </c>
       <c r="H48" s="3">
-        <v>11500</v>
+        <v>13400</v>
       </c>
       <c r="I48" s="3">
+        <v>13400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K48" s="3">
         <v>11000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>10700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>10200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>9400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>8600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>8700</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>147800</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>149000</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2804,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>98300</v>
+        <v>174100</v>
       </c>
       <c r="E52" s="3">
-        <v>89400</v>
+        <v>163300</v>
       </c>
       <c r="F52" s="3">
-        <v>60800</v>
+        <v>102000</v>
       </c>
       <c r="G52" s="3">
-        <v>49600</v>
+        <v>92700</v>
       </c>
       <c r="H52" s="3">
-        <v>28800</v>
+        <v>63100</v>
       </c>
       <c r="I52" s="3">
+        <v>51500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>29900</v>
+      </c>
+      <c r="K52" s="3">
         <v>42900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>38800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>18600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>17700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>12400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>8400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2692300</v>
+        <v>3183100</v>
       </c>
       <c r="E54" s="3">
-        <v>2350600</v>
+        <v>2938800</v>
       </c>
       <c r="F54" s="3">
-        <v>1797200</v>
+        <v>2793700</v>
       </c>
       <c r="G54" s="3">
-        <v>1680400</v>
+        <v>2439100</v>
       </c>
       <c r="H54" s="3">
-        <v>1745400</v>
+        <v>1864800</v>
       </c>
       <c r="I54" s="3">
+        <v>1743700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1811100</v>
+      </c>
+      <c r="K54" s="3">
         <v>1749600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2113200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2466200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2186000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1866600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1734300</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,266 +3009,298 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>28200</v>
+        <v>8600</v>
       </c>
       <c r="E57" s="3">
-        <v>28900</v>
+        <v>13600</v>
       </c>
       <c r="F57" s="3">
-        <v>34900</v>
+        <v>29300</v>
       </c>
       <c r="G57" s="3">
-        <v>20200</v>
+        <v>30000</v>
       </c>
       <c r="H57" s="3">
-        <v>19000</v>
+        <v>36200</v>
       </c>
       <c r="I57" s="3">
+        <v>20900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>19700</v>
+      </c>
+      <c r="K57" s="3">
         <v>29800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>27100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>18600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>29400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>9700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>11700</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>802400</v>
+        <v>1030200</v>
       </c>
       <c r="E58" s="3">
-        <v>638000</v>
+        <v>927500</v>
       </c>
       <c r="F58" s="3">
-        <v>590100</v>
+        <v>832600</v>
       </c>
       <c r="G58" s="3">
-        <v>557500</v>
+        <v>662000</v>
       </c>
       <c r="H58" s="3">
-        <v>711600</v>
+        <v>612300</v>
       </c>
       <c r="I58" s="3">
+        <v>578500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>738400</v>
+      </c>
+      <c r="K58" s="3">
         <v>951600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1402200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1893600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1587100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1618800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1541700</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>541300</v>
+        <v>1040500</v>
       </c>
       <c r="E59" s="3">
-        <v>486500</v>
+        <v>992300</v>
       </c>
       <c r="F59" s="3">
-        <v>396800</v>
+        <v>561700</v>
       </c>
       <c r="G59" s="3">
-        <v>382000</v>
+        <v>504800</v>
       </c>
       <c r="H59" s="3">
-        <v>391700</v>
+        <v>411700</v>
       </c>
       <c r="I59" s="3">
+        <v>396400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>406500</v>
+      </c>
+      <c r="K59" s="3">
         <v>321700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>293700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>242300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>292200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>186800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>158000</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1372000</v>
+        <v>2079300</v>
       </c>
       <c r="E60" s="3">
-        <v>1153400</v>
+        <v>1933400</v>
       </c>
       <c r="F60" s="3">
-        <v>1021700</v>
+        <v>1423600</v>
       </c>
       <c r="G60" s="3">
-        <v>959600</v>
+        <v>1196900</v>
       </c>
       <c r="H60" s="3">
-        <v>1122300</v>
+        <v>1060200</v>
       </c>
       <c r="I60" s="3">
+        <v>995800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1164600</v>
+      </c>
+      <c r="K60" s="3">
         <v>1303200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1723000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2154400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1908700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1815300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1711400</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>349400</v>
+        <v>434400</v>
       </c>
       <c r="E61" s="3">
-        <v>307200</v>
+        <v>406500</v>
       </c>
       <c r="F61" s="3">
-        <v>3600</v>
+        <v>362600</v>
       </c>
       <c r="G61" s="3">
-        <v>29500</v>
+        <v>318800</v>
       </c>
       <c r="H61" s="3">
-        <v>22100</v>
+        <v>3700</v>
       </c>
       <c r="I61" s="3">
+        <v>30600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>22900</v>
+      </c>
+      <c r="K61" s="3">
         <v>52200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>47300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>35300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>24800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>19900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>5000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>47200</v>
+        <v>11500</v>
       </c>
       <c r="E62" s="3">
-        <v>47000</v>
+        <v>9200</v>
       </c>
       <c r="F62" s="3">
-        <v>38200</v>
+        <v>49000</v>
       </c>
       <c r="G62" s="3">
-        <v>30700</v>
+        <v>48800</v>
       </c>
       <c r="H62" s="3">
-        <v>26200</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>10</v>
+        <v>39600</v>
+      </c>
+      <c r="I62" s="3">
+        <v>31800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>27200</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>10</v>
@@ -3022,17 +3314,23 @@
       <c r="N62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1768600</v>
+        <v>2525200</v>
       </c>
       <c r="E66" s="3">
-        <v>1507700</v>
+        <v>2349200</v>
       </c>
       <c r="F66" s="3">
-        <v>1063500</v>
+        <v>1835200</v>
       </c>
       <c r="G66" s="3">
-        <v>1019800</v>
+        <v>1564400</v>
       </c>
       <c r="H66" s="3">
-        <v>1170600</v>
+        <v>1103600</v>
       </c>
       <c r="I66" s="3">
+        <v>1058200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1214700</v>
+      </c>
+      <c r="K66" s="3">
         <v>1355400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1770300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2189700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1933500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1835100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1716400</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3365,22 +3701,28 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>100100</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>97600</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>572000</v>
+        <v>277200</v>
       </c>
       <c r="E72" s="3">
-        <v>499500</v>
+        <v>216400</v>
       </c>
       <c r="F72" s="3">
-        <v>398100</v>
+        <v>593500</v>
       </c>
       <c r="G72" s="3">
-        <v>332400</v>
+        <v>518300</v>
       </c>
       <c r="H72" s="3">
-        <v>250800</v>
+        <v>413100</v>
       </c>
       <c r="I72" s="3">
+        <v>344900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>260300</v>
+      </c>
+      <c r="K72" s="3">
         <v>74600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>30400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-35600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-58600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-72800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-82900</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>923700</v>
+        <v>657900</v>
       </c>
       <c r="E76" s="3">
-        <v>842900</v>
+        <v>589600</v>
       </c>
       <c r="F76" s="3">
-        <v>733600</v>
+        <v>958500</v>
       </c>
       <c r="G76" s="3">
-        <v>660600</v>
+        <v>874700</v>
       </c>
       <c r="H76" s="3">
-        <v>574800</v>
+        <v>761200</v>
       </c>
       <c r="I76" s="3">
+        <v>685400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>596400</v>
+      </c>
+      <c r="K76" s="3">
         <v>394200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>342900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>276500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>252500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-68600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-79700</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>72500</v>
+        <v>60900</v>
       </c>
       <c r="E81" s="3">
-        <v>101400</v>
+        <v>-98500</v>
       </c>
       <c r="F81" s="3">
-        <v>87900</v>
+        <v>75200</v>
       </c>
       <c r="G81" s="3">
-        <v>59400</v>
+        <v>105200</v>
       </c>
       <c r="H81" s="3">
-        <v>146900</v>
+        <v>91200</v>
       </c>
       <c r="I81" s="3">
+        <v>61600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>152400</v>
+      </c>
+      <c r="K81" s="3">
         <v>62600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>92900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>25500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>3200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>800</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O81" s="3">
         <v>800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>800</v>
+      </c>
+      <c r="R81" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3856,14 +4254,14 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>800</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>10</v>
       </c>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4536,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4138,14 +4572,14 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>99300</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>10</v>
       </c>
@@ -4155,8 +4589,14 @@
       <c r="Q89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4204,14 +4646,14 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>10</v>
       </c>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4345,14 +4805,14 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-187300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>10</v>
       </c>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4599,14 +5091,14 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>180500</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>10</v>
       </c>
@@ -4616,8 +5108,14 @@
       <c r="Q100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4646,14 +5144,14 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>10</v>
       </c>
@@ -4663,8 +5161,14 @@
       <c r="Q101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4693,14 +5197,14 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>92300</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>10</v>
       </c>
@@ -4708,6 +5212,12 @@
         <v>10</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>LX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>429600</v>
+        <v>479800</v>
       </c>
       <c r="E8" s="3">
-        <v>363100</v>
+        <v>450000</v>
       </c>
       <c r="F8" s="3">
-        <v>457200</v>
+        <v>380300</v>
       </c>
       <c r="G8" s="3">
-        <v>463000</v>
+        <v>478900</v>
       </c>
       <c r="H8" s="3">
-        <v>362000</v>
+        <v>485000</v>
       </c>
       <c r="I8" s="3">
-        <v>257700</v>
+        <v>379200</v>
       </c>
       <c r="J8" s="3">
+        <v>269900</v>
+      </c>
+      <c r="K8" s="3">
         <v>370200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>258900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>285400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>231500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>236500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>215600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>195500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>177200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>202100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>155000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>289000</v>
+        <v>331000</v>
       </c>
       <c r="E9" s="3">
-        <v>338800</v>
+        <v>302700</v>
       </c>
       <c r="F9" s="3">
-        <v>242600</v>
+        <v>354900</v>
       </c>
       <c r="G9" s="3">
-        <v>216000</v>
+        <v>254100</v>
       </c>
       <c r="H9" s="3">
-        <v>202500</v>
+        <v>226200</v>
       </c>
       <c r="I9" s="3">
-        <v>153600</v>
+        <v>212100</v>
       </c>
       <c r="J9" s="3">
+        <v>160900</v>
+      </c>
+      <c r="K9" s="3">
         <v>173000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>151500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>164000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>166700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>182200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>165500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>154200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>137800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>167000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>125700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>140600</v>
+        <v>148800</v>
       </c>
       <c r="E10" s="3">
-        <v>24200</v>
+        <v>147200</v>
       </c>
       <c r="F10" s="3">
-        <v>214600</v>
+        <v>25400</v>
       </c>
       <c r="G10" s="3">
-        <v>247000</v>
+        <v>224800</v>
       </c>
       <c r="H10" s="3">
-        <v>159600</v>
+        <v>258700</v>
       </c>
       <c r="I10" s="3">
-        <v>104100</v>
+        <v>167200</v>
       </c>
       <c r="J10" s="3">
+        <v>109000</v>
+      </c>
+      <c r="K10" s="3">
         <v>197200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>107400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>121500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>64800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>54300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>50100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>41200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>39400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>35200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="E12" s="3">
-        <v>18300</v>
+        <v>20500</v>
       </c>
       <c r="F12" s="3">
-        <v>14700</v>
+        <v>19200</v>
       </c>
       <c r="G12" s="3">
-        <v>17600</v>
+        <v>15400</v>
       </c>
       <c r="H12" s="3">
-        <v>14500</v>
+        <v>18400</v>
       </c>
       <c r="I12" s="3">
-        <v>13600</v>
+        <v>15200</v>
       </c>
       <c r="J12" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K12" s="3">
         <v>11600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>19900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>10000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,19 +1045,22 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>5400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1052,23 +1072,23 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1500</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>700</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1076,13 +1096,16 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>800</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>372700</v>
+        <v>424700</v>
       </c>
       <c r="E17" s="3">
-        <v>408500</v>
+        <v>390300</v>
       </c>
       <c r="F17" s="3">
-        <v>350200</v>
+        <v>427900</v>
       </c>
       <c r="G17" s="3">
-        <v>323500</v>
+        <v>366800</v>
       </c>
       <c r="H17" s="3">
-        <v>276400</v>
+        <v>338800</v>
       </c>
       <c r="I17" s="3">
-        <v>208300</v>
+        <v>289500</v>
       </c>
       <c r="J17" s="3">
+        <v>218100</v>
+      </c>
+      <c r="K17" s="3">
         <v>227900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>193700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>205600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>199500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>206600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>199300</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R17" s="3">
         <v>163100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>195600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>147300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>56900</v>
+        <v>55100</v>
       </c>
       <c r="E18" s="3">
-        <v>-45400</v>
+        <v>59600</v>
       </c>
       <c r="F18" s="3">
-        <v>107000</v>
+        <v>-47600</v>
       </c>
       <c r="G18" s="3">
-        <v>139500</v>
+        <v>112100</v>
       </c>
       <c r="H18" s="3">
-        <v>85600</v>
+        <v>146100</v>
       </c>
       <c r="I18" s="3">
-        <v>49500</v>
+        <v>89700</v>
       </c>
       <c r="J18" s="3">
+        <v>51800</v>
+      </c>
+      <c r="K18" s="3">
         <v>142200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>65200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>79800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>32000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>29900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>16300</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R18" s="3">
         <v>14100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,61 +1312,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15100</v>
+        <v>4100</v>
       </c>
       <c r="E20" s="3">
-        <v>-71300</v>
+        <v>15800</v>
       </c>
       <c r="F20" s="3">
-        <v>-17800</v>
+        <v>-74600</v>
       </c>
       <c r="G20" s="3">
-        <v>-16300</v>
+        <v>-18700</v>
       </c>
       <c r="H20" s="3">
-        <v>21000</v>
+        <v>-17100</v>
       </c>
       <c r="I20" s="3">
-        <v>24900</v>
+        <v>22000</v>
       </c>
       <c r="J20" s="3">
+        <v>26100</v>
+      </c>
+      <c r="K20" s="3">
         <v>41600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7600</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R20" s="3">
         <v>2100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1367,26 +1404,29 @@
       <c r="M21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" s="3">
         <v>33000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S21" s="3">
         <v>6600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1405,147 +1445,156 @@
       <c r="H22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>72000</v>
+        <v>59200</v>
       </c>
       <c r="E23" s="3">
-        <v>-116700</v>
+        <v>75400</v>
       </c>
       <c r="F23" s="3">
-        <v>89200</v>
+        <v>-122200</v>
       </c>
       <c r="G23" s="3">
-        <v>123200</v>
+        <v>93400</v>
       </c>
       <c r="H23" s="3">
-        <v>106700</v>
+        <v>129000</v>
       </c>
       <c r="I23" s="3">
-        <v>74000</v>
+        <v>111700</v>
       </c>
       <c r="J23" s="3">
+        <v>77600</v>
+      </c>
+      <c r="K23" s="3">
         <v>183200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>73000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>78200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>31500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>31100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>20400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>13100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11100</v>
+        <v>6800</v>
       </c>
       <c r="E24" s="3">
-        <v>-18100</v>
+        <v>11700</v>
       </c>
       <c r="F24" s="3">
-        <v>14000</v>
+        <v>-19000</v>
       </c>
       <c r="G24" s="3">
-        <v>18000</v>
+        <v>14600</v>
       </c>
       <c r="H24" s="3">
-        <v>15500</v>
+        <v>18900</v>
       </c>
       <c r="I24" s="3">
-        <v>12400</v>
+        <v>16200</v>
       </c>
       <c r="J24" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K24" s="3">
         <v>30700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-14700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>16200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4900</v>
-      </c>
-      <c r="R24" s="3">
-        <v>4700</v>
       </c>
       <c r="S24" s="3">
         <v>4700</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>60900</v>
+        <v>52400</v>
       </c>
       <c r="E26" s="3">
-        <v>-98500</v>
+        <v>63700</v>
       </c>
       <c r="F26" s="3">
-        <v>75200</v>
+        <v>-103200</v>
       </c>
       <c r="G26" s="3">
-        <v>105200</v>
+        <v>78800</v>
       </c>
       <c r="H26" s="3">
-        <v>91200</v>
+        <v>110200</v>
       </c>
       <c r="I26" s="3">
-        <v>61600</v>
+        <v>95500</v>
       </c>
       <c r="J26" s="3">
+        <v>64500</v>
+      </c>
+      <c r="K26" s="3">
         <v>152400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>62600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>92900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>25500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>14900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>10100</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R26" s="3">
         <v>8200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>60900</v>
+        <v>52400</v>
       </c>
       <c r="E27" s="3">
-        <v>-98500</v>
+        <v>63700</v>
       </c>
       <c r="F27" s="3">
-        <v>75200</v>
+        <v>-103200</v>
       </c>
       <c r="G27" s="3">
-        <v>105200</v>
+        <v>78800</v>
       </c>
       <c r="H27" s="3">
-        <v>91200</v>
+        <v>110200</v>
       </c>
       <c r="I27" s="3">
-        <v>61600</v>
+        <v>95500</v>
       </c>
       <c r="J27" s="3">
+        <v>64500</v>
+      </c>
+      <c r="K27" s="3">
         <v>152400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>62600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>92900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>25500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>800</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R27" s="3">
         <v>800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15100</v>
+        <v>-4100</v>
       </c>
       <c r="E32" s="3">
-        <v>71300</v>
+        <v>-15800</v>
       </c>
       <c r="F32" s="3">
-        <v>17800</v>
+        <v>74600</v>
       </c>
       <c r="G32" s="3">
-        <v>16300</v>
+        <v>18700</v>
       </c>
       <c r="H32" s="3">
-        <v>-21000</v>
+        <v>17100</v>
       </c>
       <c r="I32" s="3">
-        <v>-24900</v>
+        <v>-22000</v>
       </c>
       <c r="J32" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-41600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7600</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R32" s="3">
         <v>-2100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>60900</v>
+        <v>52400</v>
       </c>
       <c r="E33" s="3">
-        <v>-98500</v>
+        <v>63700</v>
       </c>
       <c r="F33" s="3">
-        <v>75200</v>
+        <v>-103200</v>
       </c>
       <c r="G33" s="3">
-        <v>105200</v>
+        <v>78800</v>
       </c>
       <c r="H33" s="3">
-        <v>91200</v>
+        <v>110200</v>
       </c>
       <c r="I33" s="3">
-        <v>61600</v>
+        <v>95500</v>
       </c>
       <c r="J33" s="3">
+        <v>64500</v>
+      </c>
+      <c r="K33" s="3">
         <v>152400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>62600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>92900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>25500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>800</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R33" s="3">
         <v>800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>60900</v>
+        <v>52400</v>
       </c>
       <c r="E35" s="3">
-        <v>-98500</v>
+        <v>63700</v>
       </c>
       <c r="F35" s="3">
-        <v>75200</v>
+        <v>-103200</v>
       </c>
       <c r="G35" s="3">
-        <v>105200</v>
+        <v>78800</v>
       </c>
       <c r="H35" s="3">
-        <v>91200</v>
+        <v>110200</v>
       </c>
       <c r="I35" s="3">
-        <v>61600</v>
+        <v>95500</v>
       </c>
       <c r="J35" s="3">
+        <v>64500</v>
+      </c>
+      <c r="K35" s="3">
         <v>152400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>62600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>92900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>25500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>800</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R35" s="3">
         <v>800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>169200</v>
+        <v>242400</v>
       </c>
       <c r="E41" s="3">
-        <v>187900</v>
+        <v>177200</v>
       </c>
       <c r="F41" s="3">
-        <v>302800</v>
+        <v>196800</v>
       </c>
       <c r="G41" s="3">
-        <v>406600</v>
+        <v>317200</v>
       </c>
       <c r="H41" s="3">
-        <v>153900</v>
+        <v>425900</v>
       </c>
       <c r="I41" s="3">
-        <v>194800</v>
+        <v>161200</v>
       </c>
       <c r="J41" s="3">
+        <v>204100</v>
+      </c>
+      <c r="K41" s="3">
         <v>166800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>61700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>61600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>88000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>167200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>74900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>145700</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>10</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,337 +2423,358 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1364300</v>
+        <v>1521200</v>
       </c>
       <c r="E43" s="3">
-        <v>1249200</v>
+        <v>1429000</v>
       </c>
       <c r="F43" s="3">
-        <v>1156400</v>
+        <v>1308500</v>
       </c>
       <c r="G43" s="3">
-        <v>944200</v>
+        <v>1211200</v>
       </c>
       <c r="H43" s="3">
-        <v>838100</v>
+        <v>988900</v>
       </c>
       <c r="I43" s="3">
-        <v>835600</v>
+        <v>877800</v>
       </c>
       <c r="J43" s="3">
+        <v>875300</v>
+      </c>
+      <c r="K43" s="3">
         <v>953400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>957000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1390300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1719200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1509000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1421400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1287700</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>10</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8100</v>
+        <v>9000</v>
       </c>
       <c r="E44" s="3">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="F44" s="3">
-        <v>15500</v>
+        <v>8400</v>
       </c>
       <c r="G44" s="3">
-        <v>20100</v>
+        <v>16200</v>
       </c>
       <c r="H44" s="3">
-        <v>14700</v>
+        <v>21100</v>
       </c>
       <c r="I44" s="3">
-        <v>8200</v>
+        <v>15400</v>
       </c>
       <c r="J44" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K44" s="3">
         <v>8300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>13600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>15100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>18900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>18500</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>10</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1094700</v>
+        <v>1033600</v>
       </c>
       <c r="E45" s="3">
-        <v>937300</v>
+        <v>1146700</v>
       </c>
       <c r="F45" s="3">
-        <v>922500</v>
+        <v>981800</v>
       </c>
       <c r="G45" s="3">
-        <v>670000</v>
+        <v>966300</v>
       </c>
       <c r="H45" s="3">
-        <v>541300</v>
+        <v>701800</v>
       </c>
       <c r="I45" s="3">
-        <v>402500</v>
+        <v>567000</v>
       </c>
       <c r="J45" s="3">
+        <v>421600</v>
+      </c>
+      <c r="K45" s="3">
         <v>368100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>409800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>286300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>266700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>199200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>111500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>70400</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>10</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2636300</v>
+        <v>2806200</v>
       </c>
       <c r="E46" s="3">
-        <v>2382400</v>
+        <v>2761400</v>
       </c>
       <c r="F46" s="3">
-        <v>2397200</v>
+        <v>2495500</v>
       </c>
       <c r="G46" s="3">
-        <v>2040900</v>
+        <v>2510900</v>
       </c>
       <c r="H46" s="3">
-        <v>1547900</v>
+        <v>2137700</v>
       </c>
       <c r="I46" s="3">
-        <v>1441100</v>
+        <v>1621400</v>
       </c>
       <c r="J46" s="3">
+        <v>1509400</v>
+      </c>
+      <c r="K46" s="3">
         <v>1496600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1441900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1748800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2087400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1890500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1626700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1522300</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>10</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>209400</v>
+        <v>203600</v>
       </c>
       <c r="E47" s="3">
-        <v>229300</v>
+        <v>219400</v>
       </c>
       <c r="F47" s="3">
-        <v>281000</v>
+        <v>240200</v>
       </c>
       <c r="G47" s="3">
-        <v>292400</v>
+        <v>294300</v>
       </c>
       <c r="H47" s="3">
-        <v>240400</v>
+        <v>306300</v>
       </c>
       <c r="I47" s="3">
-        <v>237700</v>
+        <v>251800</v>
       </c>
       <c r="J47" s="3">
+        <v>248900</v>
+      </c>
+      <c r="K47" s="3">
         <v>272600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>253800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>314900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>349900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>268400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>218800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>194900</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>10</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F48" s="3">
         <v>15400</v>
       </c>
-      <c r="E48" s="3">
-        <v>14700</v>
-      </c>
-      <c r="F48" s="3">
-        <v>13400</v>
-      </c>
       <c r="G48" s="3">
-        <v>13000</v>
+        <v>14100</v>
       </c>
       <c r="H48" s="3">
-        <v>13400</v>
+        <v>13700</v>
       </c>
       <c r="I48" s="3">
-        <v>13400</v>
+        <v>14000</v>
       </c>
       <c r="J48" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K48" s="3">
         <v>12000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8700</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>10</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>147800</v>
+        <v>153500</v>
       </c>
       <c r="E49" s="3">
-        <v>149000</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>10</v>
+        <v>154800</v>
+      </c>
+      <c r="F49" s="3">
+        <v>156100</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>10</v>
@@ -2677,8 +2788,8 @@
       <c r="J49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>174100</v>
+        <v>189200</v>
       </c>
       <c r="E52" s="3">
-        <v>163300</v>
+        <v>182400</v>
       </c>
       <c r="F52" s="3">
-        <v>102000</v>
+        <v>171100</v>
       </c>
       <c r="G52" s="3">
-        <v>92700</v>
+        <v>106900</v>
       </c>
       <c r="H52" s="3">
-        <v>63100</v>
+        <v>97100</v>
       </c>
       <c r="I52" s="3">
-        <v>51500</v>
+        <v>66100</v>
       </c>
       <c r="J52" s="3">
+        <v>54000</v>
+      </c>
+      <c r="K52" s="3">
         <v>29900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>42900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>38800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>18600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>10</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3183100</v>
+        <v>3368300</v>
       </c>
       <c r="E54" s="3">
-        <v>2938800</v>
+        <v>3334100</v>
       </c>
       <c r="F54" s="3">
-        <v>2793700</v>
+        <v>3078200</v>
       </c>
       <c r="G54" s="3">
-        <v>2439100</v>
+        <v>2926200</v>
       </c>
       <c r="H54" s="3">
-        <v>1864800</v>
+        <v>2554800</v>
       </c>
       <c r="I54" s="3">
-        <v>1743700</v>
+        <v>1953300</v>
       </c>
       <c r="J54" s="3">
+        <v>1826400</v>
+      </c>
+      <c r="K54" s="3">
         <v>1811100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1749600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2113200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2466200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2186000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1866600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1734300</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>10</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,300 +3141,316 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8600</v>
+        <v>10000</v>
       </c>
       <c r="E57" s="3">
-        <v>13600</v>
+        <v>9000</v>
       </c>
       <c r="F57" s="3">
-        <v>29300</v>
+        <v>14300</v>
       </c>
       <c r="G57" s="3">
-        <v>30000</v>
+        <v>30700</v>
       </c>
       <c r="H57" s="3">
-        <v>36200</v>
+        <v>31400</v>
       </c>
       <c r="I57" s="3">
-        <v>20900</v>
+        <v>37900</v>
       </c>
       <c r="J57" s="3">
+        <v>21900</v>
+      </c>
+      <c r="K57" s="3">
         <v>19700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>29800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>27100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>29400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11700</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>10</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1030200</v>
+        <v>1035900</v>
       </c>
       <c r="E58" s="3">
-        <v>927500</v>
+        <v>1079100</v>
       </c>
       <c r="F58" s="3">
-        <v>832600</v>
+        <v>971500</v>
       </c>
       <c r="G58" s="3">
-        <v>662000</v>
+        <v>872100</v>
       </c>
       <c r="H58" s="3">
-        <v>612300</v>
+        <v>693400</v>
       </c>
       <c r="I58" s="3">
-        <v>578500</v>
+        <v>641400</v>
       </c>
       <c r="J58" s="3">
+        <v>605900</v>
+      </c>
+      <c r="K58" s="3">
         <v>738400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>951600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1402200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1893600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1587100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1618800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1541700</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>10</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1040500</v>
+        <v>1078800</v>
       </c>
       <c r="E59" s="3">
-        <v>992300</v>
+        <v>1089800</v>
       </c>
       <c r="F59" s="3">
-        <v>561700</v>
+        <v>1039400</v>
       </c>
       <c r="G59" s="3">
-        <v>504800</v>
+        <v>588300</v>
       </c>
       <c r="H59" s="3">
-        <v>411700</v>
+        <v>528700</v>
       </c>
       <c r="I59" s="3">
-        <v>396400</v>
+        <v>431300</v>
       </c>
       <c r="J59" s="3">
+        <v>415200</v>
+      </c>
+      <c r="K59" s="3">
         <v>406500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>321700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>293700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>242300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>292200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>186800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>158000</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>10</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2079300</v>
+        <v>2124700</v>
       </c>
       <c r="E60" s="3">
-        <v>1933400</v>
+        <v>2177900</v>
       </c>
       <c r="F60" s="3">
-        <v>1423600</v>
+        <v>2025200</v>
       </c>
       <c r="G60" s="3">
-        <v>1196900</v>
+        <v>1491200</v>
       </c>
       <c r="H60" s="3">
-        <v>1060200</v>
+        <v>1253600</v>
       </c>
       <c r="I60" s="3">
-        <v>995800</v>
+        <v>1110500</v>
       </c>
       <c r="J60" s="3">
+        <v>1043000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1164600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1303200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1723000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2154400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1908700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1815300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1711400</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>10</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>434400</v>
+        <v>484500</v>
       </c>
       <c r="E61" s="3">
-        <v>406500</v>
+        <v>455000</v>
       </c>
       <c r="F61" s="3">
-        <v>362600</v>
+        <v>425800</v>
       </c>
       <c r="G61" s="3">
-        <v>318800</v>
+        <v>379800</v>
       </c>
       <c r="H61" s="3">
-        <v>3700</v>
+        <v>333900</v>
       </c>
       <c r="I61" s="3">
-        <v>30600</v>
+        <v>3900</v>
       </c>
       <c r="J61" s="3">
+        <v>32100</v>
+      </c>
+      <c r="K61" s="3">
         <v>22900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>52200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>47300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>35300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>24800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11500</v>
+        <v>10600</v>
       </c>
       <c r="E62" s="3">
-        <v>9200</v>
+        <v>12000</v>
       </c>
       <c r="F62" s="3">
-        <v>49000</v>
+        <v>9600</v>
       </c>
       <c r="G62" s="3">
-        <v>48800</v>
+        <v>51300</v>
       </c>
       <c r="H62" s="3">
-        <v>39600</v>
+        <v>51100</v>
       </c>
       <c r="I62" s="3">
-        <v>31800</v>
+        <v>41500</v>
       </c>
       <c r="J62" s="3">
+        <v>33400</v>
+      </c>
+      <c r="K62" s="3">
         <v>27200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>10</v>
       </c>
@@ -3320,8 +3466,8 @@
       <c r="P62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2525200</v>
+        <v>2619800</v>
       </c>
       <c r="E66" s="3">
-        <v>2349200</v>
+        <v>2645000</v>
       </c>
       <c r="F66" s="3">
-        <v>1835200</v>
+        <v>2460600</v>
       </c>
       <c r="G66" s="3">
-        <v>1564400</v>
+        <v>1922300</v>
       </c>
       <c r="H66" s="3">
-        <v>1103600</v>
+        <v>1638700</v>
       </c>
       <c r="I66" s="3">
-        <v>1058200</v>
+        <v>1155900</v>
       </c>
       <c r="J66" s="3">
+        <v>1108400</v>
+      </c>
+      <c r="K66" s="3">
         <v>1214700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1355400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1770300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2189700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1933500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1835100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1716400</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>10</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3707,22 +3875,25 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>100100</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>97600</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>277200</v>
+        <v>342800</v>
       </c>
       <c r="E72" s="3">
-        <v>216400</v>
+        <v>290400</v>
       </c>
       <c r="F72" s="3">
-        <v>593500</v>
+        <v>226600</v>
       </c>
       <c r="G72" s="3">
-        <v>518300</v>
+        <v>621700</v>
       </c>
       <c r="H72" s="3">
-        <v>413100</v>
+        <v>542900</v>
       </c>
       <c r="I72" s="3">
-        <v>344900</v>
+        <v>432700</v>
       </c>
       <c r="J72" s="3">
+        <v>361300</v>
+      </c>
+      <c r="K72" s="3">
         <v>260300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>74600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>30400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-35600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-58600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-72800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-82900</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>10</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>657900</v>
+        <v>748500</v>
       </c>
       <c r="E76" s="3">
-        <v>589600</v>
+        <v>689100</v>
       </c>
       <c r="F76" s="3">
-        <v>958500</v>
+        <v>617600</v>
       </c>
       <c r="G76" s="3">
-        <v>874700</v>
+        <v>1003900</v>
       </c>
       <c r="H76" s="3">
-        <v>761200</v>
+        <v>916200</v>
       </c>
       <c r="I76" s="3">
-        <v>685400</v>
+        <v>797300</v>
       </c>
       <c r="J76" s="3">
+        <v>718000</v>
+      </c>
+      <c r="K76" s="3">
         <v>596400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>394200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>342900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>276500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>252500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-68600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-79700</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>10</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>60900</v>
+        <v>52400</v>
       </c>
       <c r="E81" s="3">
-        <v>-98500</v>
+        <v>63700</v>
       </c>
       <c r="F81" s="3">
-        <v>75200</v>
+        <v>-103200</v>
       </c>
       <c r="G81" s="3">
-        <v>105200</v>
+        <v>78800</v>
       </c>
       <c r="H81" s="3">
-        <v>91200</v>
+        <v>110200</v>
       </c>
       <c r="I81" s="3">
-        <v>61600</v>
+        <v>95500</v>
       </c>
       <c r="J81" s="3">
+        <v>64500</v>
+      </c>
+      <c r="K81" s="3">
         <v>152400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>62600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>92900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>25500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>800</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R81" s="3">
         <v>800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4260,11 +4459,11 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>800</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>10</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4578,11 +4795,11 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>99300</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>10</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4652,11 +4873,11 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>10</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4811,11 +5041,11 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-187300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>10</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5097,11 +5343,11 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>180500</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>10</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5150,11 +5399,11 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>10</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5203,11 +5455,11 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>92300</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>10</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>10</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
   <si>
     <t>LX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>479800</v>
+        <v>463400</v>
       </c>
       <c r="E8" s="3">
-        <v>450000</v>
+        <v>481900</v>
       </c>
       <c r="F8" s="3">
-        <v>380300</v>
+        <v>451900</v>
       </c>
       <c r="G8" s="3">
-        <v>478900</v>
+        <v>382000</v>
       </c>
       <c r="H8" s="3">
-        <v>485000</v>
+        <v>481000</v>
       </c>
       <c r="I8" s="3">
-        <v>379200</v>
+        <v>487100</v>
       </c>
       <c r="J8" s="3">
+        <v>380900</v>
+      </c>
+      <c r="K8" s="3">
         <v>269900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>370200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>258900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>285400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>231500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>236500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>215600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>195500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>177200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>202100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>155000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>331000</v>
+        <v>231200</v>
       </c>
       <c r="E9" s="3">
-        <v>302700</v>
+        <v>332400</v>
       </c>
       <c r="F9" s="3">
-        <v>354900</v>
+        <v>304100</v>
       </c>
       <c r="G9" s="3">
-        <v>254100</v>
+        <v>356400</v>
       </c>
       <c r="H9" s="3">
-        <v>226200</v>
+        <v>255200</v>
       </c>
       <c r="I9" s="3">
-        <v>212100</v>
+        <v>227200</v>
       </c>
       <c r="J9" s="3">
+        <v>213000</v>
+      </c>
+      <c r="K9" s="3">
         <v>160900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>173000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>151500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>164000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>166700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>182200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>165500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>154200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>137800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>167000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>125700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>148800</v>
+        <v>232200</v>
       </c>
       <c r="E10" s="3">
-        <v>147200</v>
+        <v>149400</v>
       </c>
       <c r="F10" s="3">
-        <v>25400</v>
+        <v>147900</v>
       </c>
       <c r="G10" s="3">
-        <v>224800</v>
+        <v>25500</v>
       </c>
       <c r="H10" s="3">
-        <v>258700</v>
+        <v>225800</v>
       </c>
       <c r="I10" s="3">
-        <v>167200</v>
+        <v>259800</v>
       </c>
       <c r="J10" s="3">
+        <v>167900</v>
+      </c>
+      <c r="K10" s="3">
         <v>109000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>197200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>107400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>121500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>64800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>54300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>50100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>41200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>39400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>35200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>18000</v>
+        <v>14500</v>
       </c>
       <c r="E12" s="3">
-        <v>20500</v>
+        <v>18100</v>
       </c>
       <c r="F12" s="3">
-        <v>19200</v>
+        <v>20600</v>
       </c>
       <c r="G12" s="3">
-        <v>15400</v>
+        <v>19300</v>
       </c>
       <c r="H12" s="3">
-        <v>18400</v>
+        <v>15500</v>
       </c>
       <c r="I12" s="3">
+        <v>18500</v>
+      </c>
+      <c r="J12" s="3">
         <v>15200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>14300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>13100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>19900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,22 +1064,25 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E14" s="3">
         <v>5400</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1075,23 +1094,23 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1500</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>700</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1099,13 +1118,16 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>800</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>424700</v>
+        <v>322500</v>
       </c>
       <c r="E17" s="3">
-        <v>390300</v>
+        <v>426600</v>
       </c>
       <c r="F17" s="3">
-        <v>427900</v>
+        <v>392000</v>
       </c>
       <c r="G17" s="3">
-        <v>366800</v>
+        <v>429700</v>
       </c>
       <c r="H17" s="3">
-        <v>338800</v>
+        <v>368400</v>
       </c>
       <c r="I17" s="3">
-        <v>289500</v>
+        <v>340300</v>
       </c>
       <c r="J17" s="3">
+        <v>290800</v>
+      </c>
+      <c r="K17" s="3">
         <v>218100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>227900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>193700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>205600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>199500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>206600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>199300</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S17" s="3">
         <v>163100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>195600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>147300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>55100</v>
+        <v>140900</v>
       </c>
       <c r="E18" s="3">
-        <v>59600</v>
+        <v>55300</v>
       </c>
       <c r="F18" s="3">
-        <v>-47600</v>
+        <v>59900</v>
       </c>
       <c r="G18" s="3">
-        <v>112100</v>
+        <v>-47800</v>
       </c>
       <c r="H18" s="3">
-        <v>146100</v>
+        <v>112500</v>
       </c>
       <c r="I18" s="3">
-        <v>89700</v>
+        <v>146800</v>
       </c>
       <c r="J18" s="3">
+        <v>90100</v>
+      </c>
+      <c r="K18" s="3">
         <v>51800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>142200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>65200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>79800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>32000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>29900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>16300</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18" s="3">
         <v>14100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,64 +1345,68 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4100</v>
+        <v>-48700</v>
       </c>
       <c r="E20" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F20" s="3">
         <v>15800</v>
       </c>
-      <c r="F20" s="3">
-        <v>-74600</v>
-      </c>
       <c r="G20" s="3">
+        <v>-75000</v>
+      </c>
+      <c r="H20" s="3">
         <v>-18700</v>
       </c>
-      <c r="H20" s="3">
-        <v>-17100</v>
-      </c>
       <c r="I20" s="3">
-        <v>22000</v>
+        <v>-17200</v>
       </c>
       <c r="J20" s="3">
+        <v>22100</v>
+      </c>
+      <c r="K20" s="3">
         <v>26100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>41600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7600</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S20" s="3">
         <v>2100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1407,26 +1443,29 @@
       <c r="N21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="3">
         <v>33000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T21" s="3">
         <v>6600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1448,153 +1487,162 @@
       <c r="I22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>59200</v>
+        <v>92300</v>
       </c>
       <c r="E23" s="3">
-        <v>75400</v>
+        <v>59500</v>
       </c>
       <c r="F23" s="3">
-        <v>-122200</v>
+        <v>75700</v>
       </c>
       <c r="G23" s="3">
-        <v>93400</v>
+        <v>-122700</v>
       </c>
       <c r="H23" s="3">
-        <v>129000</v>
+        <v>93800</v>
       </c>
       <c r="I23" s="3">
-        <v>111700</v>
+        <v>129600</v>
       </c>
       <c r="J23" s="3">
+        <v>112200</v>
+      </c>
+      <c r="K23" s="3">
         <v>77600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>183200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>73000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>78200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>31500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>31100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>20400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>13100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E24" s="3">
         <v>6800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>11700</v>
       </c>
-      <c r="F24" s="3">
-        <v>-19000</v>
-      </c>
       <c r="G24" s="3">
-        <v>14600</v>
+        <v>-19100</v>
       </c>
       <c r="H24" s="3">
+        <v>14700</v>
+      </c>
+      <c r="I24" s="3">
         <v>18900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>16300</v>
+      </c>
+      <c r="K24" s="3">
+        <v>13000</v>
+      </c>
+      <c r="L24" s="3">
+        <v>30700</v>
+      </c>
+      <c r="M24" s="3">
+        <v>10500</v>
+      </c>
+      <c r="N24" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="O24" s="3">
+        <v>5900</v>
+      </c>
+      <c r="P24" s="3">
         <v>16200</v>
       </c>
-      <c r="J24" s="3">
-        <v>13000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>30700</v>
-      </c>
-      <c r="L24" s="3">
-        <v>10500</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-14700</v>
-      </c>
-      <c r="N24" s="3">
-        <v>5900</v>
-      </c>
-      <c r="O24" s="3">
-        <v>16200</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4900</v>
-      </c>
-      <c r="S24" s="3">
-        <v>4700</v>
       </c>
       <c r="T24" s="3">
         <v>4700</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>52400</v>
+        <v>77900</v>
       </c>
       <c r="E26" s="3">
-        <v>63700</v>
+        <v>52700</v>
       </c>
       <c r="F26" s="3">
-        <v>-103200</v>
+        <v>64000</v>
       </c>
       <c r="G26" s="3">
-        <v>78800</v>
+        <v>-103700</v>
       </c>
       <c r="H26" s="3">
-        <v>110200</v>
+        <v>79100</v>
       </c>
       <c r="I26" s="3">
-        <v>95500</v>
+        <v>110700</v>
       </c>
       <c r="J26" s="3">
+        <v>95900</v>
+      </c>
+      <c r="K26" s="3">
         <v>64500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>152400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>62600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>92900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>25500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>14900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>10100</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S26" s="3">
         <v>8200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>52400</v>
+        <v>77900</v>
       </c>
       <c r="E27" s="3">
-        <v>63700</v>
+        <v>52700</v>
       </c>
       <c r="F27" s="3">
-        <v>-103200</v>
+        <v>64000</v>
       </c>
       <c r="G27" s="3">
-        <v>78800</v>
+        <v>-103700</v>
       </c>
       <c r="H27" s="3">
-        <v>110200</v>
+        <v>79100</v>
       </c>
       <c r="I27" s="3">
-        <v>95500</v>
+        <v>110700</v>
       </c>
       <c r="J27" s="3">
+        <v>95900</v>
+      </c>
+      <c r="K27" s="3">
         <v>64500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>152400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>62600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>92900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>25500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>800</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S27" s="3">
         <v>800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4100</v>
+        <v>48700</v>
       </c>
       <c r="E32" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-15800</v>
       </c>
-      <c r="F32" s="3">
-        <v>74600</v>
-      </c>
       <c r="G32" s="3">
+        <v>75000</v>
+      </c>
+      <c r="H32" s="3">
         <v>18700</v>
       </c>
-      <c r="H32" s="3">
-        <v>17100</v>
-      </c>
       <c r="I32" s="3">
-        <v>-22000</v>
+        <v>17200</v>
       </c>
       <c r="J32" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-26100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-41600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S32" s="3">
         <v>-2100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>52400</v>
+        <v>77900</v>
       </c>
       <c r="E33" s="3">
-        <v>63700</v>
+        <v>52700</v>
       </c>
       <c r="F33" s="3">
-        <v>-103200</v>
+        <v>64000</v>
       </c>
       <c r="G33" s="3">
-        <v>78800</v>
+        <v>-103700</v>
       </c>
       <c r="H33" s="3">
-        <v>110200</v>
+        <v>79100</v>
       </c>
       <c r="I33" s="3">
-        <v>95500</v>
+        <v>110700</v>
       </c>
       <c r="J33" s="3">
+        <v>95900</v>
+      </c>
+      <c r="K33" s="3">
         <v>64500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>152400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>62600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>92900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>25500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>800</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S33" s="3">
         <v>800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>52400</v>
+        <v>77900</v>
       </c>
       <c r="E35" s="3">
-        <v>63700</v>
+        <v>52700</v>
       </c>
       <c r="F35" s="3">
-        <v>-103200</v>
+        <v>64000</v>
       </c>
       <c r="G35" s="3">
-        <v>78800</v>
+        <v>-103700</v>
       </c>
       <c r="H35" s="3">
-        <v>110200</v>
+        <v>79100</v>
       </c>
       <c r="I35" s="3">
-        <v>95500</v>
+        <v>110700</v>
       </c>
       <c r="J35" s="3">
+        <v>95900</v>
+      </c>
+      <c r="K35" s="3">
         <v>64500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>152400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>62600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>92900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>25500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>800</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S35" s="3">
         <v>800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>242400</v>
+        <v>238900</v>
       </c>
       <c r="E41" s="3">
-        <v>177200</v>
+        <v>243400</v>
       </c>
       <c r="F41" s="3">
-        <v>196800</v>
+        <v>178000</v>
       </c>
       <c r="G41" s="3">
-        <v>317200</v>
+        <v>197700</v>
       </c>
       <c r="H41" s="3">
-        <v>425900</v>
+        <v>318600</v>
       </c>
       <c r="I41" s="3">
-        <v>161200</v>
+        <v>427700</v>
       </c>
       <c r="J41" s="3">
+        <v>161900</v>
+      </c>
+      <c r="K41" s="3">
         <v>204100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>166800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>61700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>61600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>88000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>167200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>74900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>145700</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,358 +2515,379 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1521200</v>
+        <v>1504000</v>
       </c>
       <c r="E43" s="3">
-        <v>1429000</v>
+        <v>1527800</v>
       </c>
       <c r="F43" s="3">
-        <v>1308500</v>
+        <v>1435200</v>
       </c>
       <c r="G43" s="3">
-        <v>1211200</v>
+        <v>1314100</v>
       </c>
       <c r="H43" s="3">
-        <v>988900</v>
+        <v>1216500</v>
       </c>
       <c r="I43" s="3">
-        <v>877800</v>
+        <v>993200</v>
       </c>
       <c r="J43" s="3">
+        <v>881600</v>
+      </c>
+      <c r="K43" s="3">
         <v>875300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>953400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>957000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1390300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1719200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1509000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1421400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1287700</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9000</v>
+        <v>7200</v>
       </c>
       <c r="E44" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F44" s="3">
         <v>8500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>8400</v>
       </c>
-      <c r="G44" s="3">
-        <v>16200</v>
-      </c>
       <c r="H44" s="3">
-        <v>21100</v>
+        <v>16300</v>
       </c>
       <c r="I44" s="3">
+        <v>21200</v>
+      </c>
+      <c r="J44" s="3">
         <v>15400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>8500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>10600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>13600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>15100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>18900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>18500</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1033600</v>
+        <v>758200</v>
       </c>
       <c r="E45" s="3">
-        <v>1146700</v>
+        <v>1038100</v>
       </c>
       <c r="F45" s="3">
-        <v>981800</v>
+        <v>1151700</v>
       </c>
       <c r="G45" s="3">
-        <v>966300</v>
+        <v>986000</v>
       </c>
       <c r="H45" s="3">
-        <v>701800</v>
+        <v>970500</v>
       </c>
       <c r="I45" s="3">
-        <v>567000</v>
+        <v>704900</v>
       </c>
       <c r="J45" s="3">
+        <v>569400</v>
+      </c>
+      <c r="K45" s="3">
         <v>421600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>368100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>409800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>286300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>266700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>199200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>111500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>70400</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2806200</v>
+        <v>2508400</v>
       </c>
       <c r="E46" s="3">
-        <v>2761400</v>
+        <v>2818400</v>
       </c>
       <c r="F46" s="3">
-        <v>2495500</v>
+        <v>2773300</v>
       </c>
       <c r="G46" s="3">
-        <v>2510900</v>
+        <v>2506300</v>
       </c>
       <c r="H46" s="3">
-        <v>2137700</v>
+        <v>2521800</v>
       </c>
       <c r="I46" s="3">
-        <v>1621400</v>
+        <v>2147000</v>
       </c>
       <c r="J46" s="3">
+        <v>1628400</v>
+      </c>
+      <c r="K46" s="3">
         <v>1509400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1496600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1441900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1748800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2087400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1890500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1626700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1522300</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>203600</v>
+        <v>218000</v>
       </c>
       <c r="E47" s="3">
-        <v>219400</v>
+        <v>204500</v>
       </c>
       <c r="F47" s="3">
-        <v>240200</v>
+        <v>220300</v>
       </c>
       <c r="G47" s="3">
-        <v>294300</v>
+        <v>241200</v>
       </c>
       <c r="H47" s="3">
-        <v>306300</v>
+        <v>295600</v>
       </c>
       <c r="I47" s="3">
-        <v>251800</v>
+        <v>307600</v>
       </c>
       <c r="J47" s="3">
+        <v>252900</v>
+      </c>
+      <c r="K47" s="3">
         <v>248900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>272600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>253800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>314900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>349900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>268400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>218800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>194900</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E48" s="3">
         <v>15800</v>
       </c>
-      <c r="E48" s="3">
-        <v>16100</v>
-      </c>
       <c r="F48" s="3">
+        <v>16200</v>
+      </c>
+      <c r="G48" s="3">
         <v>15400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13700</v>
-      </c>
-      <c r="I48" s="3">
-        <v>14000</v>
       </c>
       <c r="J48" s="3">
         <v>14100</v>
       </c>
       <c r="K48" s="3">
+        <v>14100</v>
+      </c>
+      <c r="L48" s="3">
         <v>12000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8700</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>153500</v>
+        <v>152900</v>
       </c>
       <c r="E49" s="3">
-        <v>154800</v>
+        <v>154200</v>
       </c>
       <c r="F49" s="3">
-        <v>156100</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>10</v>
+        <v>155500</v>
+      </c>
+      <c r="G49" s="3">
+        <v>156800</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>10</v>
@@ -2791,8 +2901,8 @@
       <c r="K49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>189200</v>
+        <v>209900</v>
       </c>
       <c r="E52" s="3">
-        <v>182400</v>
+        <v>190000</v>
       </c>
       <c r="F52" s="3">
-        <v>171100</v>
+        <v>183200</v>
       </c>
       <c r="G52" s="3">
-        <v>106900</v>
+        <v>171800</v>
       </c>
       <c r="H52" s="3">
-        <v>97100</v>
+        <v>107300</v>
       </c>
       <c r="I52" s="3">
-        <v>66100</v>
+        <v>97600</v>
       </c>
       <c r="J52" s="3">
+        <v>66400</v>
+      </c>
+      <c r="K52" s="3">
         <v>54000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>29900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>42900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>38800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>18600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8400</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3368300</v>
+        <v>3108300</v>
       </c>
       <c r="E54" s="3">
-        <v>3334100</v>
+        <v>3382900</v>
       </c>
       <c r="F54" s="3">
-        <v>3078200</v>
+        <v>3348500</v>
       </c>
       <c r="G54" s="3">
-        <v>2926200</v>
+        <v>3091500</v>
       </c>
       <c r="H54" s="3">
-        <v>2554800</v>
+        <v>2938900</v>
       </c>
       <c r="I54" s="3">
-        <v>1953300</v>
+        <v>2565900</v>
       </c>
       <c r="J54" s="3">
+        <v>1961800</v>
+      </c>
+      <c r="K54" s="3">
         <v>1826400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1811100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1749600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2113200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2466200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2186000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1866600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1734300</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,318 +3271,334 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E57" s="3">
         <v>10000</v>
       </c>
-      <c r="E57" s="3">
-        <v>9000</v>
-      </c>
       <c r="F57" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G57" s="3">
         <v>14300</v>
       </c>
-      <c r="G57" s="3">
-        <v>30700</v>
-      </c>
       <c r="H57" s="3">
-        <v>31400</v>
+        <v>30800</v>
       </c>
       <c r="I57" s="3">
-        <v>37900</v>
+        <v>31600</v>
       </c>
       <c r="J57" s="3">
+        <v>38000</v>
+      </c>
+      <c r="K57" s="3">
         <v>21900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>29800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>27100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>29400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11700</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1035900</v>
+        <v>995100</v>
       </c>
       <c r="E58" s="3">
-        <v>1079100</v>
+        <v>1040400</v>
       </c>
       <c r="F58" s="3">
-        <v>971500</v>
+        <v>1083800</v>
       </c>
       <c r="G58" s="3">
-        <v>872100</v>
+        <v>975700</v>
       </c>
       <c r="H58" s="3">
-        <v>693400</v>
+        <v>875900</v>
       </c>
       <c r="I58" s="3">
-        <v>641400</v>
+        <v>696500</v>
       </c>
       <c r="J58" s="3">
+        <v>644100</v>
+      </c>
+      <c r="K58" s="3">
         <v>605900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>738400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>951600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1402200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1893600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1587100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1618800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1541700</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1078800</v>
+        <v>834700</v>
       </c>
       <c r="E59" s="3">
-        <v>1089800</v>
+        <v>1083500</v>
       </c>
       <c r="F59" s="3">
-        <v>1039400</v>
+        <v>1094500</v>
       </c>
       <c r="G59" s="3">
-        <v>588300</v>
+        <v>1043900</v>
       </c>
       <c r="H59" s="3">
-        <v>528700</v>
+        <v>590900</v>
       </c>
       <c r="I59" s="3">
-        <v>431300</v>
+        <v>531000</v>
       </c>
       <c r="J59" s="3">
+        <v>433100</v>
+      </c>
+      <c r="K59" s="3">
         <v>415200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>406500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>321700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>293700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>242300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>292200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>186800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>158000</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2124700</v>
+        <v>1836400</v>
       </c>
       <c r="E60" s="3">
-        <v>2177900</v>
+        <v>2134000</v>
       </c>
       <c r="F60" s="3">
-        <v>2025200</v>
+        <v>2187400</v>
       </c>
       <c r="G60" s="3">
-        <v>1491200</v>
+        <v>2034000</v>
       </c>
       <c r="H60" s="3">
-        <v>1253600</v>
+        <v>1497600</v>
       </c>
       <c r="I60" s="3">
-        <v>1110500</v>
+        <v>1259100</v>
       </c>
       <c r="J60" s="3">
+        <v>1115300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1043000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1164600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1303200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1723000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2154400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1908700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1815300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1711400</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>484500</v>
+        <v>419500</v>
       </c>
       <c r="E61" s="3">
-        <v>455000</v>
+        <v>486600</v>
       </c>
       <c r="F61" s="3">
-        <v>425800</v>
+        <v>457000</v>
       </c>
       <c r="G61" s="3">
-        <v>379800</v>
+        <v>427600</v>
       </c>
       <c r="H61" s="3">
-        <v>333900</v>
+        <v>381400</v>
       </c>
       <c r="I61" s="3">
+        <v>335400</v>
+      </c>
+      <c r="J61" s="3">
         <v>3900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>32100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>52200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>47300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>35300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>24800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>19900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10600</v>
+        <v>7400</v>
       </c>
       <c r="E62" s="3">
-        <v>12000</v>
+        <v>10700</v>
       </c>
       <c r="F62" s="3">
-        <v>9600</v>
+        <v>12100</v>
       </c>
       <c r="G62" s="3">
+        <v>9700</v>
+      </c>
+      <c r="H62" s="3">
+        <v>51600</v>
+      </c>
+      <c r="I62" s="3">
         <v>51300</v>
       </c>
-      <c r="H62" s="3">
-        <v>51100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>41500</v>
-      </c>
       <c r="J62" s="3">
+        <v>41700</v>
+      </c>
+      <c r="K62" s="3">
         <v>33400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>27200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>10</v>
       </c>
@@ -3469,8 +3614,8 @@
       <c r="Q62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2619800</v>
+        <v>2269500</v>
       </c>
       <c r="E66" s="3">
-        <v>2645000</v>
+        <v>2631200</v>
       </c>
       <c r="F66" s="3">
-        <v>2460600</v>
+        <v>2656400</v>
       </c>
       <c r="G66" s="3">
-        <v>1922300</v>
+        <v>2471300</v>
       </c>
       <c r="H66" s="3">
-        <v>1638700</v>
+        <v>1930600</v>
       </c>
       <c r="I66" s="3">
-        <v>1155900</v>
+        <v>1645800</v>
       </c>
       <c r="J66" s="3">
+        <v>1161000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1108400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1214700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1355400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1770300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2189700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1933500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1835100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1716400</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3878,22 +4045,25 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>100100</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>97600</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>342800</v>
+        <v>422200</v>
       </c>
       <c r="E72" s="3">
-        <v>290400</v>
+        <v>344300</v>
       </c>
       <c r="F72" s="3">
-        <v>226600</v>
+        <v>291600</v>
       </c>
       <c r="G72" s="3">
-        <v>621700</v>
+        <v>227600</v>
       </c>
       <c r="H72" s="3">
-        <v>542900</v>
+        <v>624400</v>
       </c>
       <c r="I72" s="3">
-        <v>432700</v>
+        <v>545200</v>
       </c>
       <c r="J72" s="3">
+        <v>434600</v>
+      </c>
+      <c r="K72" s="3">
         <v>361300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>260300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>74600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>30400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-35600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-58600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-72800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-82900</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>748500</v>
+        <v>838900</v>
       </c>
       <c r="E76" s="3">
-        <v>689100</v>
+        <v>751700</v>
       </c>
       <c r="F76" s="3">
-        <v>617600</v>
+        <v>692100</v>
       </c>
       <c r="G76" s="3">
-        <v>1003900</v>
+        <v>620200</v>
       </c>
       <c r="H76" s="3">
-        <v>916200</v>
+        <v>1008300</v>
       </c>
       <c r="I76" s="3">
-        <v>797300</v>
+        <v>920100</v>
       </c>
       <c r="J76" s="3">
+        <v>800800</v>
+      </c>
+      <c r="K76" s="3">
         <v>718000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>596400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>394200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>342900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>276500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>252500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-68600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-79700</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>52400</v>
+        <v>77900</v>
       </c>
       <c r="E81" s="3">
-        <v>63700</v>
+        <v>52700</v>
       </c>
       <c r="F81" s="3">
-        <v>-103200</v>
+        <v>64000</v>
       </c>
       <c r="G81" s="3">
-        <v>78800</v>
+        <v>-103700</v>
       </c>
       <c r="H81" s="3">
-        <v>110200</v>
+        <v>79100</v>
       </c>
       <c r="I81" s="3">
-        <v>95500</v>
+        <v>110700</v>
       </c>
       <c r="J81" s="3">
+        <v>95900</v>
+      </c>
+      <c r="K81" s="3">
         <v>64500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>152400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>62600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>92900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>25500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>800</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S81" s="3">
         <v>800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4462,11 +4660,11 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>800</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>10</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4798,11 +5014,11 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>99300</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>10</v>
       </c>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4876,11 +5096,11 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>10</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5044,11 +5273,11 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-187300</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>10</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5346,11 +5591,11 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>180500</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>10</v>
       </c>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5402,11 +5650,11 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>10</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5458,11 +5709,11 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>92300</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>10</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>10</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LX_QTR_FIN.xlsx
@@ -755,25 +755,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>463400</v>
+        <v>473200</v>
       </c>
       <c r="E8" s="3">
-        <v>481900</v>
+        <v>492100</v>
       </c>
       <c r="F8" s="3">
-        <v>451900</v>
+        <v>461500</v>
       </c>
       <c r="G8" s="3">
-        <v>382000</v>
+        <v>390000</v>
       </c>
       <c r="H8" s="3">
-        <v>481000</v>
+        <v>491100</v>
       </c>
       <c r="I8" s="3">
-        <v>487100</v>
+        <v>497400</v>
       </c>
       <c r="J8" s="3">
-        <v>380900</v>
+        <v>388900</v>
       </c>
       <c r="K8" s="3">
         <v>269900</v>
@@ -814,25 +814,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>231200</v>
+        <v>236100</v>
       </c>
       <c r="E9" s="3">
-        <v>332400</v>
+        <v>339500</v>
       </c>
       <c r="F9" s="3">
-        <v>304100</v>
+        <v>310500</v>
       </c>
       <c r="G9" s="3">
-        <v>356400</v>
+        <v>364000</v>
       </c>
       <c r="H9" s="3">
-        <v>255200</v>
+        <v>260600</v>
       </c>
       <c r="I9" s="3">
-        <v>227200</v>
+        <v>232000</v>
       </c>
       <c r="J9" s="3">
-        <v>213000</v>
+        <v>217500</v>
       </c>
       <c r="K9" s="3">
         <v>160900</v>
@@ -873,25 +873,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>232200</v>
+        <v>237200</v>
       </c>
       <c r="E10" s="3">
-        <v>149400</v>
+        <v>152600</v>
       </c>
       <c r="F10" s="3">
-        <v>147900</v>
+        <v>151000</v>
       </c>
       <c r="G10" s="3">
-        <v>25500</v>
+        <v>26000</v>
       </c>
       <c r="H10" s="3">
-        <v>225800</v>
+        <v>230500</v>
       </c>
       <c r="I10" s="3">
-        <v>259800</v>
+        <v>265300</v>
       </c>
       <c r="J10" s="3">
-        <v>167900</v>
+        <v>171400</v>
       </c>
       <c r="K10" s="3">
         <v>109000</v>
@@ -955,25 +955,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="E12" s="3">
-        <v>18100</v>
+        <v>18500</v>
       </c>
       <c r="F12" s="3">
-        <v>20600</v>
+        <v>21000</v>
       </c>
       <c r="G12" s="3">
-        <v>19300</v>
+        <v>19700</v>
       </c>
       <c r="H12" s="3">
-        <v>15500</v>
+        <v>15800</v>
       </c>
       <c r="I12" s="3">
-        <v>18500</v>
+        <v>18900</v>
       </c>
       <c r="J12" s="3">
-        <v>15200</v>
+        <v>15600</v>
       </c>
       <c r="K12" s="3">
         <v>14300</v>
@@ -1073,10 +1073,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="E14" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -1211,25 +1211,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>322500</v>
+        <v>329300</v>
       </c>
       <c r="E17" s="3">
-        <v>426600</v>
+        <v>435600</v>
       </c>
       <c r="F17" s="3">
-        <v>392000</v>
+        <v>400300</v>
       </c>
       <c r="G17" s="3">
-        <v>429700</v>
+        <v>438800</v>
       </c>
       <c r="H17" s="3">
-        <v>368400</v>
+        <v>376200</v>
       </c>
       <c r="I17" s="3">
-        <v>340300</v>
+        <v>347500</v>
       </c>
       <c r="J17" s="3">
-        <v>290800</v>
+        <v>296900</v>
       </c>
       <c r="K17" s="3">
         <v>218100</v>
@@ -1270,25 +1270,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>140900</v>
+        <v>143900</v>
       </c>
       <c r="E18" s="3">
-        <v>55300</v>
+        <v>56500</v>
       </c>
       <c r="F18" s="3">
-        <v>59900</v>
+        <v>61200</v>
       </c>
       <c r="G18" s="3">
-        <v>-47800</v>
+        <v>-48800</v>
       </c>
       <c r="H18" s="3">
-        <v>112500</v>
+        <v>114900</v>
       </c>
       <c r="I18" s="3">
-        <v>146800</v>
+        <v>149900</v>
       </c>
       <c r="J18" s="3">
-        <v>90100</v>
+        <v>92000</v>
       </c>
       <c r="K18" s="3">
         <v>51800</v>
@@ -1352,25 +1352,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-48700</v>
+        <v>-49700</v>
       </c>
       <c r="E20" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="F20" s="3">
-        <v>15800</v>
+        <v>16200</v>
       </c>
       <c r="G20" s="3">
-        <v>-75000</v>
+        <v>-76600</v>
       </c>
       <c r="H20" s="3">
-        <v>-18700</v>
+        <v>-19100</v>
       </c>
       <c r="I20" s="3">
-        <v>-17200</v>
+        <v>-17500</v>
       </c>
       <c r="J20" s="3">
-        <v>22100</v>
+        <v>22600</v>
       </c>
       <c r="K20" s="3">
         <v>26100</v>
@@ -1529,25 +1529,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>92300</v>
+        <v>94200</v>
       </c>
       <c r="E23" s="3">
-        <v>59500</v>
+        <v>60800</v>
       </c>
       <c r="F23" s="3">
-        <v>75700</v>
+        <v>77300</v>
       </c>
       <c r="G23" s="3">
-        <v>-122700</v>
+        <v>-125300</v>
       </c>
       <c r="H23" s="3">
-        <v>93800</v>
+        <v>95800</v>
       </c>
       <c r="I23" s="3">
-        <v>129600</v>
+        <v>132300</v>
       </c>
       <c r="J23" s="3">
-        <v>112200</v>
+        <v>114600</v>
       </c>
       <c r="K23" s="3">
         <v>77600</v>
@@ -1588,25 +1588,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>14400</v>
+        <v>14700</v>
       </c>
       <c r="E24" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="F24" s="3">
-        <v>11700</v>
+        <v>12000</v>
       </c>
       <c r="G24" s="3">
-        <v>-19100</v>
+        <v>-19500</v>
       </c>
       <c r="H24" s="3">
-        <v>14700</v>
+        <v>15000</v>
       </c>
       <c r="I24" s="3">
-        <v>18900</v>
+        <v>19300</v>
       </c>
       <c r="J24" s="3">
-        <v>16300</v>
+        <v>16600</v>
       </c>
       <c r="K24" s="3">
         <v>13000</v>
@@ -1706,25 +1706,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>77900</v>
+        <v>79500</v>
       </c>
       <c r="E26" s="3">
-        <v>52700</v>
+        <v>53800</v>
       </c>
       <c r="F26" s="3">
-        <v>64000</v>
+        <v>65400</v>
       </c>
       <c r="G26" s="3">
-        <v>-103700</v>
+        <v>-105800</v>
       </c>
       <c r="H26" s="3">
-        <v>79100</v>
+        <v>80800</v>
       </c>
       <c r="I26" s="3">
-        <v>110700</v>
+        <v>113000</v>
       </c>
       <c r="J26" s="3">
-        <v>95900</v>
+        <v>98000</v>
       </c>
       <c r="K26" s="3">
         <v>64500</v>
@@ -1765,25 +1765,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>77900</v>
+        <v>79500</v>
       </c>
       <c r="E27" s="3">
-        <v>52700</v>
+        <v>53800</v>
       </c>
       <c r="F27" s="3">
-        <v>64000</v>
+        <v>65400</v>
       </c>
       <c r="G27" s="3">
-        <v>-103700</v>
+        <v>-105800</v>
       </c>
       <c r="H27" s="3">
-        <v>79100</v>
+        <v>80800</v>
       </c>
       <c r="I27" s="3">
-        <v>110700</v>
+        <v>113000</v>
       </c>
       <c r="J27" s="3">
-        <v>95900</v>
+        <v>98000</v>
       </c>
       <c r="K27" s="3">
         <v>64500</v>
@@ -2060,25 +2060,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>48700</v>
+        <v>49700</v>
       </c>
       <c r="E32" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="F32" s="3">
-        <v>-15800</v>
+        <v>-16200</v>
       </c>
       <c r="G32" s="3">
-        <v>75000</v>
+        <v>76600</v>
       </c>
       <c r="H32" s="3">
-        <v>18700</v>
+        <v>19100</v>
       </c>
       <c r="I32" s="3">
-        <v>17200</v>
+        <v>17500</v>
       </c>
       <c r="J32" s="3">
-        <v>-22100</v>
+        <v>-22600</v>
       </c>
       <c r="K32" s="3">
         <v>-26100</v>
@@ -2119,25 +2119,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>77900</v>
+        <v>79500</v>
       </c>
       <c r="E33" s="3">
-        <v>52700</v>
+        <v>53800</v>
       </c>
       <c r="F33" s="3">
-        <v>64000</v>
+        <v>65400</v>
       </c>
       <c r="G33" s="3">
-        <v>-103700</v>
+        <v>-105800</v>
       </c>
       <c r="H33" s="3">
-        <v>79100</v>
+        <v>80800</v>
       </c>
       <c r="I33" s="3">
-        <v>110700</v>
+        <v>113000</v>
       </c>
       <c r="J33" s="3">
-        <v>95900</v>
+        <v>98000</v>
       </c>
       <c r="K33" s="3">
         <v>64500</v>
@@ -2237,25 +2237,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>77900</v>
+        <v>79500</v>
       </c>
       <c r="E35" s="3">
-        <v>52700</v>
+        <v>53800</v>
       </c>
       <c r="F35" s="3">
-        <v>64000</v>
+        <v>65400</v>
       </c>
       <c r="G35" s="3">
-        <v>-103700</v>
+        <v>-105800</v>
       </c>
       <c r="H35" s="3">
-        <v>79100</v>
+        <v>80800</v>
       </c>
       <c r="I35" s="3">
-        <v>110700</v>
+        <v>113000</v>
       </c>
       <c r="J35" s="3">
-        <v>95900</v>
+        <v>98000</v>
       </c>
       <c r="K35" s="3">
         <v>64500</v>
@@ -2406,25 +2406,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>238900</v>
+        <v>244000</v>
       </c>
       <c r="E41" s="3">
-        <v>243400</v>
+        <v>248600</v>
       </c>
       <c r="F41" s="3">
-        <v>178000</v>
+        <v>181700</v>
       </c>
       <c r="G41" s="3">
-        <v>197700</v>
+        <v>201800</v>
       </c>
       <c r="H41" s="3">
-        <v>318600</v>
+        <v>325300</v>
       </c>
       <c r="I41" s="3">
-        <v>427700</v>
+        <v>436800</v>
       </c>
       <c r="J41" s="3">
-        <v>161900</v>
+        <v>165300</v>
       </c>
       <c r="K41" s="3">
         <v>204100</v>
@@ -2524,25 +2524,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1504000</v>
+        <v>1535800</v>
       </c>
       <c r="E43" s="3">
-        <v>1527800</v>
+        <v>1560000</v>
       </c>
       <c r="F43" s="3">
-        <v>1435200</v>
+        <v>1465600</v>
       </c>
       <c r="G43" s="3">
-        <v>1314100</v>
+        <v>1341900</v>
       </c>
       <c r="H43" s="3">
-        <v>1216500</v>
+        <v>1242200</v>
       </c>
       <c r="I43" s="3">
-        <v>993200</v>
+        <v>1014200</v>
       </c>
       <c r="J43" s="3">
-        <v>881600</v>
+        <v>900300</v>
       </c>
       <c r="K43" s="3">
         <v>875300</v>
@@ -2583,25 +2583,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="E44" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="F44" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="G44" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="H44" s="3">
-        <v>16300</v>
+        <v>16700</v>
       </c>
       <c r="I44" s="3">
-        <v>21200</v>
+        <v>21600</v>
       </c>
       <c r="J44" s="3">
-        <v>15400</v>
+        <v>15800</v>
       </c>
       <c r="K44" s="3">
         <v>8500</v>
@@ -2642,25 +2642,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>758200</v>
+        <v>774200</v>
       </c>
       <c r="E45" s="3">
-        <v>1038100</v>
+        <v>1060100</v>
       </c>
       <c r="F45" s="3">
-        <v>1151700</v>
+        <v>1176000</v>
       </c>
       <c r="G45" s="3">
-        <v>986000</v>
+        <v>1006900</v>
       </c>
       <c r="H45" s="3">
-        <v>970500</v>
+        <v>991000</v>
       </c>
       <c r="I45" s="3">
-        <v>704900</v>
+        <v>719800</v>
       </c>
       <c r="J45" s="3">
-        <v>569400</v>
+        <v>581500</v>
       </c>
       <c r="K45" s="3">
         <v>421600</v>
@@ -2701,25 +2701,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2508400</v>
+        <v>2561400</v>
       </c>
       <c r="E46" s="3">
-        <v>2818400</v>
+        <v>2877900</v>
       </c>
       <c r="F46" s="3">
-        <v>2773300</v>
+        <v>2832000</v>
       </c>
       <c r="G46" s="3">
-        <v>2506300</v>
+        <v>2559300</v>
       </c>
       <c r="H46" s="3">
-        <v>2521800</v>
+        <v>2575200</v>
       </c>
       <c r="I46" s="3">
-        <v>2147000</v>
+        <v>2192400</v>
       </c>
       <c r="J46" s="3">
-        <v>1628400</v>
+        <v>1662800</v>
       </c>
       <c r="K46" s="3">
         <v>1509400</v>
@@ -2760,25 +2760,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>218000</v>
+        <v>222700</v>
       </c>
       <c r="E47" s="3">
-        <v>204500</v>
+        <v>208800</v>
       </c>
       <c r="F47" s="3">
-        <v>220300</v>
+        <v>225000</v>
       </c>
       <c r="G47" s="3">
-        <v>241200</v>
+        <v>246300</v>
       </c>
       <c r="H47" s="3">
-        <v>295600</v>
+        <v>301900</v>
       </c>
       <c r="I47" s="3">
-        <v>307600</v>
+        <v>314100</v>
       </c>
       <c r="J47" s="3">
-        <v>252900</v>
+        <v>258300</v>
       </c>
       <c r="K47" s="3">
         <v>248900</v>
@@ -2819,25 +2819,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19200</v>
+        <v>19600</v>
       </c>
       <c r="E48" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>16600</v>
+      </c>
+      <c r="G48" s="3">
         <v>15800</v>
       </c>
-      <c r="F48" s="3">
-        <v>16200</v>
-      </c>
-      <c r="G48" s="3">
-        <v>15400</v>
-      </c>
       <c r="H48" s="3">
-        <v>14100</v>
+        <v>14400</v>
       </c>
       <c r="I48" s="3">
-        <v>13700</v>
+        <v>14000</v>
       </c>
       <c r="J48" s="3">
-        <v>14100</v>
+        <v>14400</v>
       </c>
       <c r="K48" s="3">
         <v>14100</v>
@@ -2878,16 +2878,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>152900</v>
+        <v>156100</v>
       </c>
       <c r="E49" s="3">
-        <v>154200</v>
+        <v>157400</v>
       </c>
       <c r="F49" s="3">
-        <v>155500</v>
+        <v>158800</v>
       </c>
       <c r="G49" s="3">
-        <v>156800</v>
+        <v>160100</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>10</v>
@@ -3055,25 +3055,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>209900</v>
+        <v>214300</v>
       </c>
       <c r="E52" s="3">
-        <v>190000</v>
+        <v>194000</v>
       </c>
       <c r="F52" s="3">
-        <v>183200</v>
+        <v>187100</v>
       </c>
       <c r="G52" s="3">
-        <v>171800</v>
+        <v>175400</v>
       </c>
       <c r="H52" s="3">
-        <v>107300</v>
+        <v>109600</v>
       </c>
       <c r="I52" s="3">
-        <v>97600</v>
+        <v>99600</v>
       </c>
       <c r="J52" s="3">
-        <v>66400</v>
+        <v>67800</v>
       </c>
       <c r="K52" s="3">
         <v>54000</v>
@@ -3173,25 +3173,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3108300</v>
+        <v>3174000</v>
       </c>
       <c r="E54" s="3">
-        <v>3382900</v>
+        <v>3454400</v>
       </c>
       <c r="F54" s="3">
-        <v>3348500</v>
+        <v>3419300</v>
       </c>
       <c r="G54" s="3">
-        <v>3091500</v>
+        <v>3156900</v>
       </c>
       <c r="H54" s="3">
-        <v>2938900</v>
+        <v>3001100</v>
       </c>
       <c r="I54" s="3">
-        <v>2565900</v>
+        <v>2620200</v>
       </c>
       <c r="J54" s="3">
-        <v>1961800</v>
+        <v>2003200</v>
       </c>
       <c r="K54" s="3">
         <v>1826400</v>
@@ -3278,25 +3278,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="E57" s="3">
-        <v>10000</v>
+        <v>10200</v>
       </c>
       <c r="F57" s="3">
-        <v>9100</v>
+        <v>9300</v>
       </c>
       <c r="G57" s="3">
-        <v>14300</v>
+        <v>14600</v>
       </c>
       <c r="H57" s="3">
-        <v>30800</v>
+        <v>31500</v>
       </c>
       <c r="I57" s="3">
-        <v>31600</v>
+        <v>32300</v>
       </c>
       <c r="J57" s="3">
-        <v>38000</v>
+        <v>38800</v>
       </c>
       <c r="K57" s="3">
         <v>21900</v>
@@ -3337,25 +3337,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>995100</v>
+        <v>1016100</v>
       </c>
       <c r="E58" s="3">
-        <v>1040400</v>
+        <v>1062400</v>
       </c>
       <c r="F58" s="3">
-        <v>1083800</v>
+        <v>1106700</v>
       </c>
       <c r="G58" s="3">
-        <v>975700</v>
+        <v>996400</v>
       </c>
       <c r="H58" s="3">
-        <v>875900</v>
+        <v>894400</v>
       </c>
       <c r="I58" s="3">
-        <v>696500</v>
+        <v>711200</v>
       </c>
       <c r="J58" s="3">
-        <v>644100</v>
+        <v>657800</v>
       </c>
       <c r="K58" s="3">
         <v>605900</v>
@@ -3396,25 +3396,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>834700</v>
+        <v>852400</v>
       </c>
       <c r="E59" s="3">
-        <v>1083500</v>
+        <v>1106400</v>
       </c>
       <c r="F59" s="3">
-        <v>1094500</v>
+        <v>1117700</v>
       </c>
       <c r="G59" s="3">
-        <v>1043900</v>
+        <v>1066000</v>
       </c>
       <c r="H59" s="3">
-        <v>590900</v>
+        <v>603400</v>
       </c>
       <c r="I59" s="3">
-        <v>531000</v>
+        <v>542300</v>
       </c>
       <c r="J59" s="3">
-        <v>433100</v>
+        <v>442300</v>
       </c>
       <c r="K59" s="3">
         <v>415200</v>
@@ -3455,25 +3455,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1836400</v>
+        <v>1875200</v>
       </c>
       <c r="E60" s="3">
-        <v>2134000</v>
+        <v>2179100</v>
       </c>
       <c r="F60" s="3">
-        <v>2187400</v>
+        <v>2233600</v>
       </c>
       <c r="G60" s="3">
-        <v>2034000</v>
+        <v>2077000</v>
       </c>
       <c r="H60" s="3">
-        <v>1497600</v>
+        <v>1529300</v>
       </c>
       <c r="I60" s="3">
-        <v>1259100</v>
+        <v>1285700</v>
       </c>
       <c r="J60" s="3">
-        <v>1115300</v>
+        <v>1138900</v>
       </c>
       <c r="K60" s="3">
         <v>1043000</v>
@@ -3514,25 +3514,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>419500</v>
+        <v>428400</v>
       </c>
       <c r="E61" s="3">
-        <v>486600</v>
+        <v>496800</v>
       </c>
       <c r="F61" s="3">
-        <v>457000</v>
+        <v>466600</v>
       </c>
       <c r="G61" s="3">
-        <v>427600</v>
+        <v>436700</v>
       </c>
       <c r="H61" s="3">
-        <v>381400</v>
+        <v>389500</v>
       </c>
       <c r="I61" s="3">
-        <v>335400</v>
+        <v>342500</v>
       </c>
       <c r="J61" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="K61" s="3">
         <v>32100</v>
@@ -3573,25 +3573,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="E62" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="F62" s="3">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="G62" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="H62" s="3">
-        <v>51600</v>
+        <v>52700</v>
       </c>
       <c r="I62" s="3">
-        <v>51300</v>
+        <v>52400</v>
       </c>
       <c r="J62" s="3">
-        <v>41700</v>
+        <v>42600</v>
       </c>
       <c r="K62" s="3">
         <v>33400</v>
@@ -3809,25 +3809,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2269500</v>
+        <v>2317400</v>
       </c>
       <c r="E66" s="3">
-        <v>2631200</v>
+        <v>2686800</v>
       </c>
       <c r="F66" s="3">
-        <v>2656400</v>
+        <v>2712600</v>
       </c>
       <c r="G66" s="3">
-        <v>2471300</v>
+        <v>2523500</v>
       </c>
       <c r="H66" s="3">
-        <v>1930600</v>
+        <v>1971500</v>
       </c>
       <c r="I66" s="3">
-        <v>1645800</v>
+        <v>1680600</v>
       </c>
       <c r="J66" s="3">
-        <v>1161000</v>
+        <v>1185500</v>
       </c>
       <c r="K66" s="3">
         <v>1108400</v>
@@ -4127,25 +4127,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>422200</v>
+        <v>431100</v>
       </c>
       <c r="E72" s="3">
-        <v>344300</v>
+        <v>351600</v>
       </c>
       <c r="F72" s="3">
-        <v>291600</v>
+        <v>297800</v>
       </c>
       <c r="G72" s="3">
-        <v>227600</v>
+        <v>232400</v>
       </c>
       <c r="H72" s="3">
-        <v>624400</v>
+        <v>637600</v>
       </c>
       <c r="I72" s="3">
-        <v>545200</v>
+        <v>556800</v>
       </c>
       <c r="J72" s="3">
-        <v>434600</v>
+        <v>443800</v>
       </c>
       <c r="K72" s="3">
         <v>361300</v>
@@ -4363,25 +4363,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>838900</v>
+        <v>856600</v>
       </c>
       <c r="E76" s="3">
-        <v>751700</v>
+        <v>767600</v>
       </c>
       <c r="F76" s="3">
-        <v>692100</v>
+        <v>706700</v>
       </c>
       <c r="G76" s="3">
-        <v>620200</v>
+        <v>633400</v>
       </c>
       <c r="H76" s="3">
-        <v>1008300</v>
+        <v>1029600</v>
       </c>
       <c r="I76" s="3">
-        <v>920100</v>
+        <v>939600</v>
       </c>
       <c r="J76" s="3">
-        <v>800800</v>
+        <v>817700</v>
       </c>
       <c r="K76" s="3">
         <v>718000</v>
@@ -4545,25 +4545,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>77900</v>
+        <v>79500</v>
       </c>
       <c r="E81" s="3">
-        <v>52700</v>
+        <v>53800</v>
       </c>
       <c r="F81" s="3">
-        <v>64000</v>
+        <v>65400</v>
       </c>
       <c r="G81" s="3">
-        <v>-103700</v>
+        <v>-105800</v>
       </c>
       <c r="H81" s="3">
-        <v>79100</v>
+        <v>80800</v>
       </c>
       <c r="I81" s="3">
-        <v>110700</v>
+        <v>113000</v>
       </c>
       <c r="J81" s="3">
-        <v>95900</v>
+        <v>98000</v>
       </c>
       <c r="K81" s="3">
         <v>64500</v>

--- a/AAII_Financials/Quarterly/LX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
   <si>
     <t>LX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>473200</v>
+        <v>453300</v>
       </c>
       <c r="E8" s="3">
-        <v>492100</v>
+        <v>467100</v>
       </c>
       <c r="F8" s="3">
-        <v>461500</v>
+        <v>485700</v>
       </c>
       <c r="G8" s="3">
-        <v>390000</v>
+        <v>455500</v>
       </c>
       <c r="H8" s="3">
-        <v>491100</v>
+        <v>385000</v>
       </c>
       <c r="I8" s="3">
-        <v>497400</v>
+        <v>484700</v>
       </c>
       <c r="J8" s="3">
+        <v>490900</v>
+      </c>
+      <c r="K8" s="3">
         <v>388900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>269900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>370200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>258900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>285400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>231500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>236500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>215600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>195500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>177200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>202100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>155000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>236100</v>
+        <v>242500</v>
       </c>
       <c r="E9" s="3">
-        <v>339500</v>
+        <v>233000</v>
       </c>
       <c r="F9" s="3">
-        <v>310500</v>
+        <v>335000</v>
       </c>
       <c r="G9" s="3">
-        <v>364000</v>
+        <v>306400</v>
       </c>
       <c r="H9" s="3">
-        <v>260600</v>
+        <v>359200</v>
       </c>
       <c r="I9" s="3">
-        <v>232000</v>
+        <v>257200</v>
       </c>
       <c r="J9" s="3">
+        <v>229000</v>
+      </c>
+      <c r="K9" s="3">
         <v>217500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>160900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>173000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>151500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>164000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>166700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>182200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>165500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>154200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>137800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>167000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>125700</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>237200</v>
+        <v>210800</v>
       </c>
       <c r="E10" s="3">
-        <v>152600</v>
+        <v>234100</v>
       </c>
       <c r="F10" s="3">
-        <v>151000</v>
+        <v>150600</v>
       </c>
       <c r="G10" s="3">
-        <v>26000</v>
+        <v>149000</v>
       </c>
       <c r="H10" s="3">
-        <v>230500</v>
+        <v>25700</v>
       </c>
       <c r="I10" s="3">
-        <v>265300</v>
+        <v>227500</v>
       </c>
       <c r="J10" s="3">
+        <v>261900</v>
+      </c>
+      <c r="K10" s="3">
         <v>171400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>109000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>197200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>107400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>121500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>64800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>54300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>50100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>41200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>39400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>35200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>14800</v>
+        <v>19100</v>
       </c>
       <c r="E12" s="3">
-        <v>18500</v>
+        <v>14600</v>
       </c>
       <c r="F12" s="3">
-        <v>21000</v>
+        <v>18200</v>
       </c>
       <c r="G12" s="3">
-        <v>19700</v>
+        <v>20700</v>
       </c>
       <c r="H12" s="3">
-        <v>15800</v>
+        <v>19400</v>
       </c>
       <c r="I12" s="3">
-        <v>18900</v>
+        <v>15600</v>
       </c>
       <c r="J12" s="3">
+        <v>18600</v>
+      </c>
+      <c r="K12" s="3">
         <v>15600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>13100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>19900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>10000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,25 +1084,28 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>5300</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
-        <v>5500</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
+        <v>5200</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5400</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1097,23 +1117,23 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1500</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>700</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
@@ -1121,13 +1141,16 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>800</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>329300</v>
+        <v>335000</v>
       </c>
       <c r="E17" s="3">
-        <v>435600</v>
+        <v>325000</v>
       </c>
       <c r="F17" s="3">
-        <v>400300</v>
+        <v>429900</v>
       </c>
       <c r="G17" s="3">
-        <v>438800</v>
+        <v>395100</v>
       </c>
       <c r="H17" s="3">
-        <v>376200</v>
+        <v>433100</v>
       </c>
       <c r="I17" s="3">
-        <v>347500</v>
+        <v>371300</v>
       </c>
       <c r="J17" s="3">
+        <v>343000</v>
+      </c>
+      <c r="K17" s="3">
         <v>296900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>218100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>227900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>193700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>205600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>199500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>206600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>199300</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T17" s="3">
         <v>163100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>195600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>147300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>143900</v>
+        <v>118300</v>
       </c>
       <c r="E18" s="3">
-        <v>56500</v>
+        <v>142000</v>
       </c>
       <c r="F18" s="3">
-        <v>61200</v>
+        <v>55800</v>
       </c>
       <c r="G18" s="3">
-        <v>-48800</v>
+        <v>60400</v>
       </c>
       <c r="H18" s="3">
-        <v>114900</v>
+        <v>-48100</v>
       </c>
       <c r="I18" s="3">
-        <v>149900</v>
+        <v>113400</v>
       </c>
       <c r="J18" s="3">
+        <v>147900</v>
+      </c>
+      <c r="K18" s="3">
         <v>92000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>51800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>142200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>65200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>79800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>32000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>29900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>16300</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T18" s="3">
         <v>14100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,67 +1379,71 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-49700</v>
+        <v>11400</v>
       </c>
       <c r="E20" s="3">
-        <v>4300</v>
+        <v>-49100</v>
       </c>
       <c r="F20" s="3">
-        <v>16200</v>
+        <v>4200</v>
       </c>
       <c r="G20" s="3">
-        <v>-76600</v>
+        <v>16000</v>
       </c>
       <c r="H20" s="3">
-        <v>-19100</v>
+        <v>-75600</v>
       </c>
       <c r="I20" s="3">
-        <v>-17500</v>
+        <v>-18900</v>
       </c>
       <c r="J20" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="K20" s="3">
         <v>22600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>26100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>41600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>9000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>7600</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T20" s="3">
         <v>2100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1446,26 +1483,29 @@
       <c r="O21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="3">
         <v>33000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U21" s="3">
         <v>6600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1490,159 +1530,168 @@
       <c r="J22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>94200</v>
+        <v>129700</v>
       </c>
       <c r="E23" s="3">
-        <v>60800</v>
+        <v>93000</v>
       </c>
       <c r="F23" s="3">
-        <v>77300</v>
+        <v>60000</v>
       </c>
       <c r="G23" s="3">
-        <v>-125300</v>
+        <v>76300</v>
       </c>
       <c r="H23" s="3">
-        <v>95800</v>
+        <v>-123700</v>
       </c>
       <c r="I23" s="3">
-        <v>132300</v>
+        <v>94500</v>
       </c>
       <c r="J23" s="3">
+        <v>130600</v>
+      </c>
+      <c r="K23" s="3">
         <v>114600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>77600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>183200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>73000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>78200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>31500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>31100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>20400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>13100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>14700</v>
+        <v>20200</v>
       </c>
       <c r="E24" s="3">
-        <v>7000</v>
+        <v>14500</v>
       </c>
       <c r="F24" s="3">
-        <v>12000</v>
+        <v>6900</v>
       </c>
       <c r="G24" s="3">
-        <v>-19500</v>
+        <v>11800</v>
       </c>
       <c r="H24" s="3">
-        <v>15000</v>
+        <v>-19200</v>
       </c>
       <c r="I24" s="3">
-        <v>19300</v>
+        <v>14800</v>
       </c>
       <c r="J24" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K24" s="3">
         <v>16600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>30700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-14700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>16200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4900</v>
-      </c>
-      <c r="T24" s="3">
-        <v>4700</v>
       </c>
       <c r="U24" s="3">
         <v>4700</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>79500</v>
+        <v>109500</v>
       </c>
       <c r="E26" s="3">
-        <v>53800</v>
+        <v>78500</v>
       </c>
       <c r="F26" s="3">
-        <v>65400</v>
+        <v>53100</v>
       </c>
       <c r="G26" s="3">
-        <v>-105800</v>
+        <v>64500</v>
       </c>
       <c r="H26" s="3">
-        <v>80800</v>
+        <v>-104500</v>
       </c>
       <c r="I26" s="3">
-        <v>113000</v>
+        <v>79700</v>
       </c>
       <c r="J26" s="3">
+        <v>111500</v>
+      </c>
+      <c r="K26" s="3">
         <v>98000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>64500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>152400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>62600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>92900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>25500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>14900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>10100</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T26" s="3">
         <v>8200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>79500</v>
+        <v>109600</v>
       </c>
       <c r="E27" s="3">
-        <v>53800</v>
+        <v>78500</v>
       </c>
       <c r="F27" s="3">
-        <v>65400</v>
+        <v>53100</v>
       </c>
       <c r="G27" s="3">
-        <v>-105800</v>
+        <v>64500</v>
       </c>
       <c r="H27" s="3">
-        <v>80800</v>
+        <v>-104500</v>
       </c>
       <c r="I27" s="3">
-        <v>113000</v>
+        <v>79700</v>
       </c>
       <c r="J27" s="3">
+        <v>111500</v>
+      </c>
+      <c r="K27" s="3">
         <v>98000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>64500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>152400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>62600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>92900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>25500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>800</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T27" s="3">
         <v>800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>49700</v>
+        <v>-11400</v>
       </c>
       <c r="E32" s="3">
-        <v>-4300</v>
+        <v>49100</v>
       </c>
       <c r="F32" s="3">
-        <v>-16200</v>
+        <v>-4200</v>
       </c>
       <c r="G32" s="3">
-        <v>76600</v>
+        <v>-16000</v>
       </c>
       <c r="H32" s="3">
-        <v>19100</v>
+        <v>75600</v>
       </c>
       <c r="I32" s="3">
-        <v>17500</v>
+        <v>18900</v>
       </c>
       <c r="J32" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-22600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-26100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-41600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-9000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-7600</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T32" s="3">
         <v>-2100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>79500</v>
+        <v>109600</v>
       </c>
       <c r="E33" s="3">
-        <v>53800</v>
+        <v>78500</v>
       </c>
       <c r="F33" s="3">
-        <v>65400</v>
+        <v>53100</v>
       </c>
       <c r="G33" s="3">
-        <v>-105800</v>
+        <v>64500</v>
       </c>
       <c r="H33" s="3">
-        <v>80800</v>
+        <v>-104500</v>
       </c>
       <c r="I33" s="3">
-        <v>113000</v>
+        <v>79700</v>
       </c>
       <c r="J33" s="3">
+        <v>111500</v>
+      </c>
+      <c r="K33" s="3">
         <v>98000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>64500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>152400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>62600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>92900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>25500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>800</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T33" s="3">
         <v>800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>79500</v>
+        <v>109600</v>
       </c>
       <c r="E35" s="3">
-        <v>53800</v>
+        <v>78500</v>
       </c>
       <c r="F35" s="3">
-        <v>65400</v>
+        <v>53100</v>
       </c>
       <c r="G35" s="3">
-        <v>-105800</v>
+        <v>64500</v>
       </c>
       <c r="H35" s="3">
-        <v>80800</v>
+        <v>-104500</v>
       </c>
       <c r="I35" s="3">
-        <v>113000</v>
+        <v>79700</v>
       </c>
       <c r="J35" s="3">
+        <v>111500</v>
+      </c>
+      <c r="K35" s="3">
         <v>98000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>64500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>152400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>62600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>92900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>25500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>800</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T35" s="3">
         <v>800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>244000</v>
+        <v>360100</v>
       </c>
       <c r="E41" s="3">
-        <v>248600</v>
+        <v>240800</v>
       </c>
       <c r="F41" s="3">
-        <v>181700</v>
+        <v>245400</v>
       </c>
       <c r="G41" s="3">
-        <v>201800</v>
+        <v>179400</v>
       </c>
       <c r="H41" s="3">
-        <v>325300</v>
+        <v>199200</v>
       </c>
       <c r="I41" s="3">
-        <v>436800</v>
+        <v>321100</v>
       </c>
       <c r="J41" s="3">
+        <v>431100</v>
+      </c>
+      <c r="K41" s="3">
         <v>165300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>204100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>166800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>61700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>61600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>88000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>167200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>74900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>145700</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>10</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,379 +2608,400 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1535800</v>
+        <v>1293900</v>
       </c>
       <c r="E43" s="3">
-        <v>1560000</v>
+        <v>1515900</v>
       </c>
       <c r="F43" s="3">
-        <v>1465600</v>
+        <v>1539700</v>
       </c>
       <c r="G43" s="3">
-        <v>1341900</v>
+        <v>1446500</v>
       </c>
       <c r="H43" s="3">
-        <v>1242200</v>
+        <v>1324500</v>
       </c>
       <c r="I43" s="3">
-        <v>1014200</v>
+        <v>1226000</v>
       </c>
       <c r="J43" s="3">
+        <v>1001000</v>
+      </c>
+      <c r="K43" s="3">
         <v>900300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>875300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>953400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>957000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1390300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1719200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1509000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1421400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1287700</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>10</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7400</v>
+        <v>10400</v>
       </c>
       <c r="E44" s="3">
-        <v>9200</v>
+        <v>7300</v>
       </c>
       <c r="F44" s="3">
-        <v>8700</v>
+        <v>9100</v>
       </c>
       <c r="G44" s="3">
         <v>8600</v>
       </c>
       <c r="H44" s="3">
-        <v>16700</v>
+        <v>8500</v>
       </c>
       <c r="I44" s="3">
-        <v>21600</v>
+        <v>16400</v>
       </c>
       <c r="J44" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K44" s="3">
         <v>15800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>13300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>10600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>13600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>15100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>18900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>18500</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T44" s="3" t="s">
         <v>10</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>774200</v>
+        <v>760400</v>
       </c>
       <c r="E45" s="3">
-        <v>1060100</v>
+        <v>764200</v>
       </c>
       <c r="F45" s="3">
-        <v>1176000</v>
+        <v>1046300</v>
       </c>
       <c r="G45" s="3">
-        <v>1006900</v>
+        <v>1160700</v>
       </c>
       <c r="H45" s="3">
-        <v>991000</v>
+        <v>993800</v>
       </c>
       <c r="I45" s="3">
-        <v>719800</v>
+        <v>978100</v>
       </c>
       <c r="J45" s="3">
+        <v>710400</v>
+      </c>
+      <c r="K45" s="3">
         <v>581500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>421600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>368100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>409800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>286300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>266700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>199200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>111500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>70400</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>10</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2561400</v>
+        <v>2424800</v>
       </c>
       <c r="E46" s="3">
-        <v>2877900</v>
+        <v>2528100</v>
       </c>
       <c r="F46" s="3">
-        <v>2832000</v>
+        <v>2840500</v>
       </c>
       <c r="G46" s="3">
-        <v>2559300</v>
+        <v>2795100</v>
       </c>
       <c r="H46" s="3">
-        <v>2575200</v>
+        <v>2526000</v>
       </c>
       <c r="I46" s="3">
-        <v>2192400</v>
+        <v>2541600</v>
       </c>
       <c r="J46" s="3">
+        <v>2163900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1662800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1509400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1496600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1441900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1748800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2087400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1890500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1626700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1522300</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>10</v>
       </c>
       <c r="U46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>222700</v>
+        <v>208500</v>
       </c>
       <c r="E47" s="3">
-        <v>208800</v>
+        <v>219800</v>
       </c>
       <c r="F47" s="3">
-        <v>225000</v>
+        <v>206100</v>
       </c>
       <c r="G47" s="3">
-        <v>246300</v>
+        <v>222000</v>
       </c>
       <c r="H47" s="3">
-        <v>301900</v>
+        <v>243100</v>
       </c>
       <c r="I47" s="3">
-        <v>314100</v>
+        <v>297900</v>
       </c>
       <c r="J47" s="3">
+        <v>310000</v>
+      </c>
+      <c r="K47" s="3">
         <v>258300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>248900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>272600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>253800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>314900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>349900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>268400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>218800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>194900</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>10</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19600</v>
+        <v>19100</v>
       </c>
       <c r="E48" s="3">
-        <v>16200</v>
+        <v>19400</v>
       </c>
       <c r="F48" s="3">
-        <v>16600</v>
+        <v>16000</v>
       </c>
       <c r="G48" s="3">
-        <v>15800</v>
+        <v>16300</v>
       </c>
       <c r="H48" s="3">
+        <v>15600</v>
+      </c>
+      <c r="I48" s="3">
+        <v>14300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>13800</v>
+      </c>
+      <c r="K48" s="3">
         <v>14400</v>
       </c>
-      <c r="I48" s="3">
-        <v>14000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>14400</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8700</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>10</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>156100</v>
+        <v>152700</v>
       </c>
       <c r="E49" s="3">
-        <v>157400</v>
+        <v>154100</v>
       </c>
       <c r="F49" s="3">
-        <v>158800</v>
+        <v>155400</v>
       </c>
       <c r="G49" s="3">
-        <v>160100</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>10</v>
+        <v>156700</v>
+      </c>
+      <c r="H49" s="3">
+        <v>158000</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>10</v>
@@ -2904,8 +3015,8 @@
       <c r="L49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>214300</v>
+        <v>217500</v>
       </c>
       <c r="E52" s="3">
-        <v>194000</v>
+        <v>211500</v>
       </c>
       <c r="F52" s="3">
-        <v>187100</v>
+        <v>191500</v>
       </c>
       <c r="G52" s="3">
-        <v>175400</v>
+        <v>184600</v>
       </c>
       <c r="H52" s="3">
-        <v>109600</v>
+        <v>173200</v>
       </c>
       <c r="I52" s="3">
-        <v>99600</v>
+        <v>108200</v>
       </c>
       <c r="J52" s="3">
+        <v>98300</v>
+      </c>
+      <c r="K52" s="3">
         <v>67800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>54000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>29900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>42900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>38800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>18600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8400</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>10</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3174000</v>
+        <v>3022600</v>
       </c>
       <c r="E54" s="3">
-        <v>3454400</v>
+        <v>3132700</v>
       </c>
       <c r="F54" s="3">
-        <v>3419300</v>
+        <v>3409500</v>
       </c>
       <c r="G54" s="3">
-        <v>3156900</v>
+        <v>3374800</v>
       </c>
       <c r="H54" s="3">
-        <v>3001100</v>
+        <v>3115800</v>
       </c>
       <c r="I54" s="3">
-        <v>2620200</v>
+        <v>2962000</v>
       </c>
       <c r="J54" s="3">
+        <v>2586100</v>
+      </c>
+      <c r="K54" s="3">
         <v>2003200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1826400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1811100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1749600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2113200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2466200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2186000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1866600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1734300</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>10</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,336 +3402,352 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="E57" s="3">
-        <v>10200</v>
+        <v>6600</v>
       </c>
       <c r="F57" s="3">
-        <v>9300</v>
+        <v>10100</v>
       </c>
       <c r="G57" s="3">
-        <v>14600</v>
+        <v>9100</v>
       </c>
       <c r="H57" s="3">
-        <v>31500</v>
+        <v>14400</v>
       </c>
       <c r="I57" s="3">
-        <v>32300</v>
+        <v>31100</v>
       </c>
       <c r="J57" s="3">
+        <v>31800</v>
+      </c>
+      <c r="K57" s="3">
         <v>38800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>21900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>29800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>27100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>18600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>29400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11700</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>10</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1016100</v>
+        <v>978500</v>
       </c>
       <c r="E58" s="3">
-        <v>1062400</v>
+        <v>1002900</v>
       </c>
       <c r="F58" s="3">
-        <v>1106700</v>
+        <v>1048600</v>
       </c>
       <c r="G58" s="3">
-        <v>996400</v>
+        <v>1092300</v>
       </c>
       <c r="H58" s="3">
-        <v>894400</v>
+        <v>983400</v>
       </c>
       <c r="I58" s="3">
-        <v>711200</v>
+        <v>882800</v>
       </c>
       <c r="J58" s="3">
+        <v>701900</v>
+      </c>
+      <c r="K58" s="3">
         <v>657800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>605900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>738400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>951600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1402200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1893600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1587100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1618800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1541700</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>10</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>852400</v>
+        <v>730100</v>
       </c>
       <c r="E59" s="3">
-        <v>1106400</v>
+        <v>841300</v>
       </c>
       <c r="F59" s="3">
-        <v>1117700</v>
+        <v>1092000</v>
       </c>
       <c r="G59" s="3">
-        <v>1066000</v>
+        <v>1103100</v>
       </c>
       <c r="H59" s="3">
-        <v>603400</v>
+        <v>1052100</v>
       </c>
       <c r="I59" s="3">
-        <v>542300</v>
+        <v>595500</v>
       </c>
       <c r="J59" s="3">
+        <v>535200</v>
+      </c>
+      <c r="K59" s="3">
         <v>442300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>415200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>406500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>321700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>293700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>242300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>292200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>186800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>158000</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>10</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1875200</v>
+        <v>1715100</v>
       </c>
       <c r="E60" s="3">
-        <v>2179100</v>
+        <v>1850800</v>
       </c>
       <c r="F60" s="3">
-        <v>2233600</v>
+        <v>2150700</v>
       </c>
       <c r="G60" s="3">
-        <v>2077000</v>
+        <v>2204600</v>
       </c>
       <c r="H60" s="3">
-        <v>1529300</v>
+        <v>2049900</v>
       </c>
       <c r="I60" s="3">
-        <v>1285700</v>
+        <v>1509400</v>
       </c>
       <c r="J60" s="3">
+        <v>1269000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1138900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1043000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1164600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1303200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1723000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2154400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1908700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1815300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1711400</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>10</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>428400</v>
+        <v>330700</v>
       </c>
       <c r="E61" s="3">
-        <v>496800</v>
+        <v>422800</v>
       </c>
       <c r="F61" s="3">
-        <v>466600</v>
+        <v>490400</v>
       </c>
       <c r="G61" s="3">
-        <v>436700</v>
+        <v>460600</v>
       </c>
       <c r="H61" s="3">
-        <v>389500</v>
+        <v>431000</v>
       </c>
       <c r="I61" s="3">
-        <v>342500</v>
+        <v>384400</v>
       </c>
       <c r="J61" s="3">
+        <v>338000</v>
+      </c>
+      <c r="K61" s="3">
         <v>4000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>32100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>52200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>47300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>35300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>24800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>19900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5000</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7600</v>
+        <v>8000</v>
       </c>
       <c r="E62" s="3">
-        <v>10900</v>
+        <v>7500</v>
       </c>
       <c r="F62" s="3">
-        <v>12300</v>
+        <v>10700</v>
       </c>
       <c r="G62" s="3">
-        <v>9900</v>
+        <v>12200</v>
       </c>
       <c r="H62" s="3">
-        <v>52700</v>
+        <v>9800</v>
       </c>
       <c r="I62" s="3">
-        <v>52400</v>
+        <v>52000</v>
       </c>
       <c r="J62" s="3">
+        <v>51700</v>
+      </c>
+      <c r="K62" s="3">
         <v>42600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>33400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>27200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>10</v>
       </c>
@@ -3617,8 +3763,8 @@
       <c r="R62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2317400</v>
+        <v>2059800</v>
       </c>
       <c r="E66" s="3">
-        <v>2686800</v>
+        <v>2287300</v>
       </c>
       <c r="F66" s="3">
-        <v>2712600</v>
+        <v>2651800</v>
       </c>
       <c r="G66" s="3">
-        <v>2523500</v>
+        <v>2677300</v>
       </c>
       <c r="H66" s="3">
-        <v>1971500</v>
+        <v>2490700</v>
       </c>
       <c r="I66" s="3">
-        <v>1680600</v>
+        <v>1945800</v>
       </c>
       <c r="J66" s="3">
+        <v>1658700</v>
+      </c>
+      <c r="K66" s="3">
         <v>1185500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1108400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1214700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1355400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1770300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2189700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1933500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1835100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1716400</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>10</v>
       </c>
       <c r="U66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4048,22 +4216,25 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>100100</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>97600</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>431100</v>
+        <v>535000</v>
       </c>
       <c r="E72" s="3">
-        <v>351600</v>
+        <v>425500</v>
       </c>
       <c r="F72" s="3">
-        <v>297800</v>
+        <v>347000</v>
       </c>
       <c r="G72" s="3">
-        <v>232400</v>
+        <v>293900</v>
       </c>
       <c r="H72" s="3">
-        <v>637600</v>
+        <v>229400</v>
       </c>
       <c r="I72" s="3">
-        <v>556800</v>
+        <v>629300</v>
       </c>
       <c r="J72" s="3">
+        <v>549500</v>
+      </c>
+      <c r="K72" s="3">
         <v>443800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>361300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>260300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>74600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>30400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-35600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-58600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-72800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-82900</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>10</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>856600</v>
+        <v>962800</v>
       </c>
       <c r="E76" s="3">
-        <v>767600</v>
+        <v>845500</v>
       </c>
       <c r="F76" s="3">
-        <v>706700</v>
+        <v>757600</v>
       </c>
       <c r="G76" s="3">
-        <v>633400</v>
+        <v>697500</v>
       </c>
       <c r="H76" s="3">
-        <v>1029600</v>
+        <v>625100</v>
       </c>
       <c r="I76" s="3">
-        <v>939600</v>
+        <v>1016200</v>
       </c>
       <c r="J76" s="3">
+        <v>927400</v>
+      </c>
+      <c r="K76" s="3">
         <v>817700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>718000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>596400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>394200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>342900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>276500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>252500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-68600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-79700</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>10</v>
       </c>
       <c r="U76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>79500</v>
+        <v>109600</v>
       </c>
       <c r="E81" s="3">
-        <v>53800</v>
+        <v>78500</v>
       </c>
       <c r="F81" s="3">
-        <v>65400</v>
+        <v>53100</v>
       </c>
       <c r="G81" s="3">
-        <v>-105800</v>
+        <v>64500</v>
       </c>
       <c r="H81" s="3">
-        <v>80800</v>
+        <v>-104500</v>
       </c>
       <c r="I81" s="3">
-        <v>113000</v>
+        <v>79700</v>
       </c>
       <c r="J81" s="3">
+        <v>111500</v>
+      </c>
+      <c r="K81" s="3">
         <v>98000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>64500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>152400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>62600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>92900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>25500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>800</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T81" s="3">
         <v>800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4663,11 +4862,11 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>800</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>10</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5017,11 +5234,11 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>99300</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>10</v>
       </c>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5099,11 +5320,11 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>10</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5276,11 +5506,11 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-187300</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>10</v>
       </c>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5594,11 +5840,11 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>180500</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>10</v>
       </c>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5653,11 +5902,11 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>10</v>
       </c>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5712,11 +5964,11 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>92300</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>10</v>
       </c>
@@ -5727,6 +5979,9 @@
         <v>10</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
   <si>
     <t>LX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,308 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>453300</v>
+        <v>464800</v>
       </c>
       <c r="E8" s="3">
-        <v>467100</v>
+        <v>511800</v>
       </c>
       <c r="F8" s="3">
-        <v>485700</v>
+        <v>460900</v>
       </c>
       <c r="G8" s="3">
-        <v>455500</v>
+        <v>474900</v>
       </c>
       <c r="H8" s="3">
-        <v>385000</v>
+        <v>493800</v>
       </c>
       <c r="I8" s="3">
+        <v>463100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>391400</v>
+      </c>
+      <c r="K8" s="3">
         <v>484700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>490900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>388900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>269900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>370200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>258900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>285400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>231500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>236500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>215600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>195500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>177200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>202100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>155000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>242500</v>
+        <v>228900</v>
       </c>
       <c r="E9" s="3">
-        <v>233000</v>
+        <v>251600</v>
       </c>
       <c r="F9" s="3">
-        <v>335000</v>
+        <v>246500</v>
       </c>
       <c r="G9" s="3">
-        <v>306400</v>
+        <v>236900</v>
       </c>
       <c r="H9" s="3">
-        <v>359200</v>
+        <v>340700</v>
       </c>
       <c r="I9" s="3">
+        <v>311600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>365300</v>
+      </c>
+      <c r="K9" s="3">
         <v>257200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>229000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>217500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>160900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>173000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>151500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>164000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>166700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>182200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>165500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>154200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>137800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>167000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>125700</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>210800</v>
+        <v>235900</v>
       </c>
       <c r="E10" s="3">
-        <v>234100</v>
+        <v>260100</v>
       </c>
       <c r="F10" s="3">
-        <v>150600</v>
+        <v>214300</v>
       </c>
       <c r="G10" s="3">
-        <v>149000</v>
+        <v>238000</v>
       </c>
       <c r="H10" s="3">
-        <v>25700</v>
+        <v>153100</v>
       </c>
       <c r="I10" s="3">
+        <v>151500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>26100</v>
+      </c>
+      <c r="K10" s="3">
         <v>227500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>261900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>171400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>109000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>197200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>107400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>121500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>64800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>54300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>50100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>41200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>39400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>35200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +989,78 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>19100</v>
+        <v>20500</v>
       </c>
       <c r="E12" s="3">
-        <v>14600</v>
+        <v>20400</v>
       </c>
       <c r="F12" s="3">
-        <v>18200</v>
+        <v>19400</v>
       </c>
       <c r="G12" s="3">
-        <v>20700</v>
+        <v>14900</v>
       </c>
       <c r="H12" s="3">
-        <v>19400</v>
+        <v>18500</v>
       </c>
       <c r="I12" s="3">
-        <v>15600</v>
+        <v>21100</v>
       </c>
       <c r="J12" s="3">
-        <v>18600</v>
+        <v>19800</v>
       </c>
       <c r="K12" s="3">
         <v>15600</v>
       </c>
       <c r="L12" s="3">
+        <v>18600</v>
+      </c>
+      <c r="M12" s="3">
+        <v>15600</v>
+      </c>
+      <c r="N12" s="3">
         <v>14300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>11600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>13100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>11000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>9800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>19900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>10000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>8500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>6400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>6600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,31 +1121,37 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3">
-        <v>5200</v>
-      </c>
-      <c r="F14" s="3">
-        <v>5400</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1120,37 +1160,43 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>1500</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>700</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>800</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>335000</v>
+        <v>342000</v>
       </c>
       <c r="E17" s="3">
-        <v>325000</v>
+        <v>368500</v>
       </c>
       <c r="F17" s="3">
-        <v>429900</v>
+        <v>340600</v>
       </c>
       <c r="G17" s="3">
-        <v>395100</v>
+        <v>330500</v>
       </c>
       <c r="H17" s="3">
-        <v>433100</v>
+        <v>437100</v>
       </c>
       <c r="I17" s="3">
+        <v>401700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>440300</v>
+      </c>
+      <c r="K17" s="3">
         <v>371300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>343000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>296900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>218100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>227900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>193700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>205600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>199500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>206600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>199300</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V17" s="3">
         <v>163100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>195600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>147300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>118300</v>
+        <v>122800</v>
       </c>
       <c r="E18" s="3">
-        <v>142000</v>
+        <v>143300</v>
       </c>
       <c r="F18" s="3">
-        <v>55800</v>
+        <v>120300</v>
       </c>
       <c r="G18" s="3">
-        <v>60400</v>
+        <v>144400</v>
       </c>
       <c r="H18" s="3">
-        <v>-48100</v>
+        <v>56700</v>
       </c>
       <c r="I18" s="3">
+        <v>61400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-48900</v>
+      </c>
+      <c r="K18" s="3">
         <v>113400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>147900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>92000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>51800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>142200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>65200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>79800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>32000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>29900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>16300</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V18" s="3">
         <v>14100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>6500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,70 +1446,78 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>11400</v>
+        <v>-15200</v>
       </c>
       <c r="E20" s="3">
-        <v>-49100</v>
+        <v>3500</v>
       </c>
       <c r="F20" s="3">
-        <v>4200</v>
+        <v>11600</v>
       </c>
       <c r="G20" s="3">
-        <v>16000</v>
+        <v>-49900</v>
       </c>
       <c r="H20" s="3">
-        <v>-75600</v>
+        <v>4300</v>
       </c>
       <c r="I20" s="3">
+        <v>16200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-76800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-18900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-17300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>22600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>26100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>41600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>9000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>2300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>7600</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V20" s="3">
         <v>2100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1486,26 +1560,32 @@
       <c r="P21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S21" s="3">
         <v>33000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W21" s="3">
         <v>6600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1533,165 +1613,183 @@
       <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>1100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>3600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>3300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>3200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>3000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>129700</v>
+        <v>107500</v>
       </c>
       <c r="E23" s="3">
-        <v>93000</v>
+        <v>146800</v>
       </c>
       <c r="F23" s="3">
-        <v>60000</v>
+        <v>131900</v>
       </c>
       <c r="G23" s="3">
-        <v>76300</v>
+        <v>94500</v>
       </c>
       <c r="H23" s="3">
-        <v>-123700</v>
+        <v>61000</v>
       </c>
       <c r="I23" s="3">
+        <v>77600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-125800</v>
+      </c>
+      <c r="K23" s="3">
         <v>94500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>130600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>114600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>77600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>183200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>73000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>78200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>31500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>31100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>20400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>5600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>13100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>2900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>20200</v>
+        <v>16600</v>
       </c>
       <c r="E24" s="3">
-        <v>14500</v>
+        <v>23600</v>
       </c>
       <c r="F24" s="3">
-        <v>6900</v>
+        <v>20500</v>
       </c>
       <c r="G24" s="3">
-        <v>11800</v>
+        <v>14800</v>
       </c>
       <c r="H24" s="3">
-        <v>-19200</v>
+        <v>7000</v>
       </c>
       <c r="I24" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="K24" s="3">
         <v>14800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>19100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>16600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>13000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>30700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>10500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-14700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>5900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>16200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>10300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>3300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>4900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>4700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>109500</v>
+        <v>90900</v>
       </c>
       <c r="E26" s="3">
-        <v>78500</v>
+        <v>123200</v>
       </c>
       <c r="F26" s="3">
-        <v>53100</v>
+        <v>111300</v>
       </c>
       <c r="G26" s="3">
+        <v>79800</v>
+      </c>
+      <c r="H26" s="3">
+        <v>54000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>65600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-106200</v>
+      </c>
+      <c r="K26" s="3">
+        <v>79700</v>
+      </c>
+      <c r="L26" s="3">
+        <v>111500</v>
+      </c>
+      <c r="M26" s="3">
+        <v>98000</v>
+      </c>
+      <c r="N26" s="3">
         <v>64500</v>
       </c>
-      <c r="H26" s="3">
-        <v>-104500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>79700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>111500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>98000</v>
-      </c>
-      <c r="L26" s="3">
-        <v>64500</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>152400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>62600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>92900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>25500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>14900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>10100</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V26" s="3">
         <v>8200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>109600</v>
+        <v>90900</v>
       </c>
       <c r="E27" s="3">
-        <v>78500</v>
+        <v>123100</v>
       </c>
       <c r="F27" s="3">
-        <v>53100</v>
+        <v>111400</v>
       </c>
       <c r="G27" s="3">
+        <v>79800</v>
+      </c>
+      <c r="H27" s="3">
+        <v>54000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>65600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-106200</v>
+      </c>
+      <c r="K27" s="3">
+        <v>79700</v>
+      </c>
+      <c r="L27" s="3">
+        <v>111500</v>
+      </c>
+      <c r="M27" s="3">
+        <v>98000</v>
+      </c>
+      <c r="N27" s="3">
         <v>64500</v>
       </c>
-      <c r="H27" s="3">
-        <v>-104500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>79700</v>
-      </c>
-      <c r="J27" s="3">
-        <v>111500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>98000</v>
-      </c>
-      <c r="L27" s="3">
-        <v>64500</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>152400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>62600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>92900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>25500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>3200</v>
-      </c>
-      <c r="R27" s="3">
-        <v>800</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T27" s="3">
         <v>800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V27" s="3">
+        <v>800</v>
+      </c>
+      <c r="W27" s="3">
         <v>-4200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-11400</v>
+        <v>15200</v>
       </c>
       <c r="E32" s="3">
-        <v>49100</v>
+        <v>-3500</v>
       </c>
       <c r="F32" s="3">
-        <v>-4200</v>
+        <v>-11600</v>
       </c>
       <c r="G32" s="3">
-        <v>-16000</v>
+        <v>49900</v>
       </c>
       <c r="H32" s="3">
-        <v>75600</v>
+        <v>-4300</v>
       </c>
       <c r="I32" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>76800</v>
+      </c>
+      <c r="K32" s="3">
         <v>18900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>17300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-22600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-26100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-41600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-9000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-2300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-7600</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V32" s="3">
         <v>-2100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>109600</v>
+        <v>90900</v>
       </c>
       <c r="E33" s="3">
-        <v>78500</v>
+        <v>123100</v>
       </c>
       <c r="F33" s="3">
-        <v>53100</v>
+        <v>111400</v>
       </c>
       <c r="G33" s="3">
+        <v>79800</v>
+      </c>
+      <c r="H33" s="3">
+        <v>54000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>65600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-106200</v>
+      </c>
+      <c r="K33" s="3">
+        <v>79700</v>
+      </c>
+      <c r="L33" s="3">
+        <v>111500</v>
+      </c>
+      <c r="M33" s="3">
+        <v>98000</v>
+      </c>
+      <c r="N33" s="3">
         <v>64500</v>
       </c>
-      <c r="H33" s="3">
-        <v>-104500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>79700</v>
-      </c>
-      <c r="J33" s="3">
-        <v>111500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>98000</v>
-      </c>
-      <c r="L33" s="3">
-        <v>64500</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>152400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>62600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>92900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>25500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>3200</v>
-      </c>
-      <c r="R33" s="3">
-        <v>800</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T33" s="3">
         <v>800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V33" s="3">
+        <v>800</v>
+      </c>
+      <c r="W33" s="3">
         <v>-4200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>109600</v>
+        <v>90900</v>
       </c>
       <c r="E35" s="3">
-        <v>78500</v>
+        <v>123100</v>
       </c>
       <c r="F35" s="3">
-        <v>53100</v>
+        <v>111400</v>
       </c>
       <c r="G35" s="3">
+        <v>79800</v>
+      </c>
+      <c r="H35" s="3">
+        <v>54000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>65600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-106200</v>
+      </c>
+      <c r="K35" s="3">
+        <v>79700</v>
+      </c>
+      <c r="L35" s="3">
+        <v>111500</v>
+      </c>
+      <c r="M35" s="3">
+        <v>98000</v>
+      </c>
+      <c r="N35" s="3">
         <v>64500</v>
       </c>
-      <c r="H35" s="3">
-        <v>-104500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>79700</v>
-      </c>
-      <c r="J35" s="3">
-        <v>111500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>98000</v>
-      </c>
-      <c r="L35" s="3">
-        <v>64500</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>152400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>62600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>92900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>25500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>3200</v>
-      </c>
-      <c r="R35" s="3">
-        <v>800</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T35" s="3">
         <v>800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V35" s="3">
+        <v>800</v>
+      </c>
+      <c r="W35" s="3">
         <v>-4200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2659,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>360100</v>
+        <v>398600</v>
       </c>
       <c r="E41" s="3">
-        <v>240800</v>
+        <v>373200</v>
       </c>
       <c r="F41" s="3">
-        <v>245400</v>
+        <v>366100</v>
       </c>
       <c r="G41" s="3">
-        <v>179400</v>
+        <v>244800</v>
       </c>
       <c r="H41" s="3">
-        <v>199200</v>
+        <v>249500</v>
       </c>
       <c r="I41" s="3">
+        <v>182400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>202600</v>
+      </c>
+      <c r="K41" s="3">
         <v>321100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>431100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>165300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>204100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>166800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>61700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>61600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>88000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>167200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>74900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>145700</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,403 +2791,445 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1293900</v>
+        <v>1259200</v>
       </c>
       <c r="E43" s="3">
-        <v>1515900</v>
+        <v>1336000</v>
       </c>
       <c r="F43" s="3">
-        <v>1539700</v>
+        <v>1315600</v>
       </c>
       <c r="G43" s="3">
-        <v>1446500</v>
+        <v>1541300</v>
       </c>
       <c r="H43" s="3">
-        <v>1324500</v>
+        <v>1565500</v>
       </c>
       <c r="I43" s="3">
+        <v>1470700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1346700</v>
+      </c>
+      <c r="K43" s="3">
         <v>1226000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1001000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>900300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>875300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>953400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>957000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1390300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1719200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1509000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1421400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1287700</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10400</v>
+        <v>8200</v>
       </c>
       <c r="E44" s="3">
         <v>7300</v>
       </c>
       <c r="F44" s="3">
-        <v>9100</v>
+        <v>10600</v>
       </c>
       <c r="G44" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H44" s="3">
+        <v>9300</v>
+      </c>
+      <c r="I44" s="3">
+        <v>8700</v>
+      </c>
+      <c r="J44" s="3">
         <v>8600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="K44" s="3">
+        <v>16400</v>
+      </c>
+      <c r="L44" s="3">
+        <v>21400</v>
+      </c>
+      <c r="M44" s="3">
+        <v>15800</v>
+      </c>
+      <c r="N44" s="3">
         <v>8500</v>
       </c>
-      <c r="I44" s="3">
-        <v>16400</v>
-      </c>
-      <c r="J44" s="3">
-        <v>21400</v>
-      </c>
-      <c r="K44" s="3">
-        <v>15800</v>
-      </c>
-      <c r="L44" s="3">
-        <v>8500</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>8300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>13300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>10600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>13600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>15100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>18900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>18500</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U44" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>760400</v>
+        <v>883400</v>
       </c>
       <c r="E45" s="3">
-        <v>764200</v>
+        <v>791500</v>
       </c>
       <c r="F45" s="3">
-        <v>1046300</v>
+        <v>773100</v>
       </c>
       <c r="G45" s="3">
-        <v>1160700</v>
+        <v>777000</v>
       </c>
       <c r="H45" s="3">
-        <v>993800</v>
+        <v>1063800</v>
       </c>
       <c r="I45" s="3">
+        <v>1180100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1010400</v>
+      </c>
+      <c r="K45" s="3">
         <v>978100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>710400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>581500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>421600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>368100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>409800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>286300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>266700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>199200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>111500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>70400</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2424800</v>
+        <v>2549500</v>
       </c>
       <c r="E46" s="3">
-        <v>2528100</v>
+        <v>2508000</v>
       </c>
       <c r="F46" s="3">
-        <v>2840500</v>
+        <v>2465400</v>
       </c>
       <c r="G46" s="3">
-        <v>2795100</v>
+        <v>2570400</v>
       </c>
       <c r="H46" s="3">
-        <v>2526000</v>
+        <v>2888100</v>
       </c>
       <c r="I46" s="3">
+        <v>2842000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>2568300</v>
+      </c>
+      <c r="K46" s="3">
         <v>2541600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2163900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1662800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1509400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1496600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1441900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1748800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2087400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1890500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1626700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1522300</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>208500</v>
+        <v>186000</v>
       </c>
       <c r="E47" s="3">
-        <v>219800</v>
+        <v>202300</v>
       </c>
       <c r="F47" s="3">
-        <v>206100</v>
+        <v>212000</v>
       </c>
       <c r="G47" s="3">
-        <v>222000</v>
+        <v>223400</v>
       </c>
       <c r="H47" s="3">
-        <v>243100</v>
+        <v>209600</v>
       </c>
       <c r="I47" s="3">
+        <v>225800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>247200</v>
+      </c>
+      <c r="K47" s="3">
         <v>297900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>310000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>258300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>248900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>272600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>253800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>314900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>349900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>268400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>218800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>194900</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19100</v>
+        <v>24500</v>
       </c>
       <c r="E48" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F48" s="3">
         <v>19400</v>
       </c>
-      <c r="F48" s="3">
-        <v>16000</v>
-      </c>
       <c r="G48" s="3">
-        <v>16300</v>
+        <v>19700</v>
       </c>
       <c r="H48" s="3">
-        <v>15600</v>
+        <v>16200</v>
       </c>
       <c r="I48" s="3">
+        <v>16600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K48" s="3">
         <v>14300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>13800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>14400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>14100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>12000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>11000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>10700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>10200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>9400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>8600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>8700</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>152700</v>
+        <v>152600</v>
       </c>
       <c r="E49" s="3">
-        <v>154100</v>
+        <v>153900</v>
       </c>
       <c r="F49" s="3">
-        <v>155400</v>
+        <v>155300</v>
       </c>
       <c r="G49" s="3">
-        <v>156700</v>
+        <v>156600</v>
       </c>
       <c r="H49" s="3">
         <v>158000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>10</v>
+      <c r="I49" s="3">
+        <v>159300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>160700</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>10</v>
@@ -3018,11 +3240,11 @@
       <c r="M49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3045,8 +3267,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3403,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>217500</v>
+        <v>308000</v>
       </c>
       <c r="E52" s="3">
-        <v>211500</v>
+        <v>265800</v>
       </c>
       <c r="F52" s="3">
-        <v>191500</v>
+        <v>221200</v>
       </c>
       <c r="G52" s="3">
-        <v>184600</v>
+        <v>215100</v>
       </c>
       <c r="H52" s="3">
-        <v>173200</v>
+        <v>194700</v>
       </c>
       <c r="I52" s="3">
+        <v>187700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>176100</v>
+      </c>
+      <c r="K52" s="3">
         <v>108200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>98300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>67800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>54000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>29900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>42900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>38800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>18600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>17700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>12400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>8400</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3022600</v>
+        <v>3220600</v>
       </c>
       <c r="E54" s="3">
-        <v>3132700</v>
+        <v>3150800</v>
       </c>
       <c r="F54" s="3">
-        <v>3409500</v>
+        <v>3073200</v>
       </c>
       <c r="G54" s="3">
-        <v>3374800</v>
+        <v>3185200</v>
       </c>
       <c r="H54" s="3">
-        <v>3115800</v>
+        <v>3466600</v>
       </c>
       <c r="I54" s="3">
+        <v>3431400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>3168000</v>
+      </c>
+      <c r="K54" s="3">
         <v>2962000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2586100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2003200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1826400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1811100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1749600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2113200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2466200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2186000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1866600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1734300</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,357 +3663,389 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="E57" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F57" s="3">
         <v>6600</v>
       </c>
-      <c r="F57" s="3">
-        <v>10100</v>
-      </c>
       <c r="G57" s="3">
-        <v>9100</v>
+        <v>6700</v>
       </c>
       <c r="H57" s="3">
-        <v>14400</v>
+        <v>10300</v>
       </c>
       <c r="I57" s="3">
+        <v>9300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K57" s="3">
         <v>31100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>31800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>38800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>21900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>19700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>29800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>27100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>18600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>29400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>9700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>11700</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>978500</v>
+        <v>770600</v>
       </c>
       <c r="E58" s="3">
-        <v>1002900</v>
+        <v>832500</v>
       </c>
       <c r="F58" s="3">
-        <v>1048600</v>
+        <v>994900</v>
       </c>
       <c r="G58" s="3">
-        <v>1092300</v>
+        <v>1019700</v>
       </c>
       <c r="H58" s="3">
-        <v>983400</v>
+        <v>1066100</v>
       </c>
       <c r="I58" s="3">
+        <v>1110600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>999900</v>
+      </c>
+      <c r="K58" s="3">
         <v>882800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>701900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>657800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>605900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>738400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>951600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1402200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1893600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1587100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1618800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1541700</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>730100</v>
+        <v>794400</v>
       </c>
       <c r="E59" s="3">
-        <v>841300</v>
+        <v>792200</v>
       </c>
       <c r="F59" s="3">
-        <v>1092000</v>
+        <v>742300</v>
       </c>
       <c r="G59" s="3">
-        <v>1103100</v>
+        <v>855400</v>
       </c>
       <c r="H59" s="3">
-        <v>1052100</v>
+        <v>1110300</v>
       </c>
       <c r="I59" s="3">
+        <v>1121600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1069700</v>
+      </c>
+      <c r="K59" s="3">
         <v>595500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>535200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>442300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>415200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>406500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>321700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>293700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>242300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>292200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>186800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>158000</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1715100</v>
+        <v>1568000</v>
       </c>
       <c r="E60" s="3">
-        <v>1850800</v>
+        <v>1630500</v>
       </c>
       <c r="F60" s="3">
-        <v>2150700</v>
+        <v>1743800</v>
       </c>
       <c r="G60" s="3">
-        <v>2204600</v>
+        <v>1881800</v>
       </c>
       <c r="H60" s="3">
-        <v>2049900</v>
+        <v>2186800</v>
       </c>
       <c r="I60" s="3">
+        <v>2241500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2084300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1509400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1269000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1138900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1043000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1164600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1303200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1723000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2154400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1908700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1815300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1711400</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>330700</v>
+        <v>409300</v>
       </c>
       <c r="E61" s="3">
-        <v>422800</v>
+        <v>394900</v>
       </c>
       <c r="F61" s="3">
-        <v>490400</v>
+        <v>336200</v>
       </c>
       <c r="G61" s="3">
-        <v>460600</v>
+        <v>429900</v>
       </c>
       <c r="H61" s="3">
-        <v>431000</v>
+        <v>498600</v>
       </c>
       <c r="I61" s="3">
+        <v>468300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>438200</v>
+      </c>
+      <c r="K61" s="3">
         <v>384400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>338000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>32100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>22900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>52200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>47300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>35300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>24800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>19900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>5000</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8000</v>
+        <v>28700</v>
       </c>
       <c r="E62" s="3">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="F62" s="3">
-        <v>10700</v>
+        <v>8100</v>
       </c>
       <c r="G62" s="3">
-        <v>12200</v>
+        <v>7600</v>
       </c>
       <c r="H62" s="3">
-        <v>9800</v>
+        <v>10900</v>
       </c>
       <c r="I62" s="3">
+        <v>12400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K62" s="3">
         <v>52000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>51700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>42600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>33400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>27200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>10</v>
       </c>
@@ -3766,17 +4058,23 @@
       <c r="S62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2059800</v>
+        <v>2012400</v>
       </c>
       <c r="E66" s="3">
-        <v>2287300</v>
+        <v>2040700</v>
       </c>
       <c r="F66" s="3">
-        <v>2651800</v>
+        <v>2094400</v>
       </c>
       <c r="G66" s="3">
-        <v>2677300</v>
+        <v>2325600</v>
       </c>
       <c r="H66" s="3">
-        <v>2490700</v>
+        <v>2696300</v>
       </c>
       <c r="I66" s="3">
+        <v>2722200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2532400</v>
+      </c>
+      <c r="K66" s="3">
         <v>1945800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1658700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1185500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1108400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1214700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1355400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1770300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2189700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1933500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1835100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1716400</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4219,22 +4555,28 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>100100</v>
       </c>
-      <c r="S70" s="3">
+      <c r="U70" s="3">
         <v>97600</v>
       </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>535000</v>
+        <v>757900</v>
       </c>
       <c r="E72" s="3">
-        <v>425500</v>
+        <v>667000</v>
       </c>
       <c r="F72" s="3">
-        <v>347000</v>
+        <v>544000</v>
       </c>
       <c r="G72" s="3">
-        <v>293900</v>
+        <v>432600</v>
       </c>
       <c r="H72" s="3">
-        <v>229400</v>
+        <v>352800</v>
       </c>
       <c r="I72" s="3">
+        <v>298800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>233200</v>
+      </c>
+      <c r="K72" s="3">
         <v>629300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>549500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>443800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>361300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>260300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>74600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>30400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-35600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-58600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-72800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-82900</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>962800</v>
+        <v>1208200</v>
       </c>
       <c r="E76" s="3">
-        <v>845500</v>
+        <v>1110000</v>
       </c>
       <c r="F76" s="3">
-        <v>757600</v>
+        <v>978900</v>
       </c>
       <c r="G76" s="3">
-        <v>697500</v>
+        <v>859600</v>
       </c>
       <c r="H76" s="3">
-        <v>625100</v>
+        <v>770300</v>
       </c>
       <c r="I76" s="3">
+        <v>709200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>635600</v>
+      </c>
+      <c r="K76" s="3">
         <v>1016200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>927400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>817700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>718000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>596400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>394200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>342900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>276500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>252500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-68600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-79700</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>109600</v>
+        <v>90900</v>
       </c>
       <c r="E81" s="3">
-        <v>78500</v>
+        <v>123100</v>
       </c>
       <c r="F81" s="3">
-        <v>53100</v>
+        <v>111400</v>
       </c>
       <c r="G81" s="3">
+        <v>79800</v>
+      </c>
+      <c r="H81" s="3">
+        <v>54000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>65600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-106200</v>
+      </c>
+      <c r="K81" s="3">
+        <v>79700</v>
+      </c>
+      <c r="L81" s="3">
+        <v>111500</v>
+      </c>
+      <c r="M81" s="3">
+        <v>98000</v>
+      </c>
+      <c r="N81" s="3">
         <v>64500</v>
       </c>
-      <c r="H81" s="3">
-        <v>-104500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>79700</v>
-      </c>
-      <c r="J81" s="3">
-        <v>111500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>98000</v>
-      </c>
-      <c r="L81" s="3">
-        <v>64500</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>152400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>62600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>92900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>25500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>3200</v>
-      </c>
-      <c r="R81" s="3">
-        <v>800</v>
-      </c>
-      <c r="S81" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T81" s="3">
         <v>800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V81" s="3">
+        <v>800</v>
+      </c>
+      <c r="W81" s="3">
         <v>-4200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4865,14 +5263,14 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>800</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>10</v>
       </c>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5620,14 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5237,14 +5671,14 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>99300</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>10</v>
       </c>
@@ -5254,8 +5688,14 @@
       <c r="V89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5718,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5323,14 +5765,14 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-800</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>10</v>
       </c>
@@ -5340,8 +5782,14 @@
       <c r="V91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5918,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5509,14 +5969,14 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-187300</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>10</v>
       </c>
@@ -5526,8 +5986,14 @@
       <c r="V94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6284,14 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5843,14 +6335,14 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>180500</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>10</v>
       </c>
@@ -5860,8 +6352,14 @@
       <c r="V100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5905,14 +6403,14 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T101" s="3" t="s">
         <v>10</v>
       </c>
@@ -5922,8 +6420,14 @@
       <c r="V101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5967,14 +6471,14 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>92300</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>10</v>
       </c>
@@ -5982,6 +6486,12 @@
         <v>10</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LX_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>464800</v>
+        <v>468400</v>
       </c>
       <c r="E8" s="3">
-        <v>511800</v>
+        <v>515700</v>
       </c>
       <c r="F8" s="3">
-        <v>460900</v>
+        <v>464400</v>
       </c>
       <c r="G8" s="3">
-        <v>474900</v>
+        <v>478500</v>
       </c>
       <c r="H8" s="3">
-        <v>493800</v>
+        <v>497600</v>
       </c>
       <c r="I8" s="3">
-        <v>463100</v>
+        <v>466700</v>
       </c>
       <c r="J8" s="3">
-        <v>391400</v>
+        <v>394400</v>
       </c>
       <c r="K8" s="3">
         <v>484700</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>228900</v>
+        <v>230700</v>
       </c>
       <c r="E9" s="3">
-        <v>251600</v>
+        <v>253600</v>
       </c>
       <c r="F9" s="3">
-        <v>246500</v>
+        <v>248400</v>
       </c>
       <c r="G9" s="3">
-        <v>236900</v>
+        <v>238700</v>
       </c>
       <c r="H9" s="3">
-        <v>340700</v>
+        <v>343300</v>
       </c>
       <c r="I9" s="3">
-        <v>311600</v>
+        <v>314000</v>
       </c>
       <c r="J9" s="3">
-        <v>365300</v>
+        <v>368100</v>
       </c>
       <c r="K9" s="3">
         <v>257200</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>235900</v>
+        <v>237700</v>
       </c>
       <c r="E10" s="3">
-        <v>260100</v>
+        <v>262100</v>
       </c>
       <c r="F10" s="3">
-        <v>214300</v>
+        <v>216000</v>
       </c>
       <c r="G10" s="3">
-        <v>238000</v>
+        <v>239800</v>
       </c>
       <c r="H10" s="3">
-        <v>153100</v>
+        <v>154300</v>
       </c>
       <c r="I10" s="3">
-        <v>151500</v>
+        <v>152700</v>
       </c>
       <c r="J10" s="3">
-        <v>26100</v>
+        <v>26300</v>
       </c>
       <c r="K10" s="3">
         <v>227500</v>
@@ -997,25 +997,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>20500</v>
+        <v>20700</v>
       </c>
       <c r="E12" s="3">
-        <v>20400</v>
+        <v>20600</v>
       </c>
       <c r="F12" s="3">
-        <v>19400</v>
+        <v>19600</v>
       </c>
       <c r="G12" s="3">
-        <v>14900</v>
+        <v>15000</v>
       </c>
       <c r="H12" s="3">
-        <v>18500</v>
+        <v>18700</v>
       </c>
       <c r="I12" s="3">
-        <v>21100</v>
+        <v>21200</v>
       </c>
       <c r="J12" s="3">
-        <v>19800</v>
+        <v>19900</v>
       </c>
       <c r="K12" s="3">
         <v>15600</v>
@@ -1145,7 +1145,7 @@
         <v>5300</v>
       </c>
       <c r="H14" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>342000</v>
+        <v>344700</v>
       </c>
       <c r="E17" s="3">
-        <v>368500</v>
+        <v>371300</v>
       </c>
       <c r="F17" s="3">
-        <v>340600</v>
+        <v>343200</v>
       </c>
       <c r="G17" s="3">
-        <v>330500</v>
+        <v>333000</v>
       </c>
       <c r="H17" s="3">
-        <v>437100</v>
+        <v>440500</v>
       </c>
       <c r="I17" s="3">
-        <v>401700</v>
+        <v>404800</v>
       </c>
       <c r="J17" s="3">
-        <v>440300</v>
+        <v>443700</v>
       </c>
       <c r="K17" s="3">
         <v>371300</v>
@@ -1360,25 +1360,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>122800</v>
+        <v>123700</v>
       </c>
       <c r="E18" s="3">
-        <v>143300</v>
+        <v>144400</v>
       </c>
       <c r="F18" s="3">
-        <v>120300</v>
+        <v>121200</v>
       </c>
       <c r="G18" s="3">
-        <v>144400</v>
+        <v>145500</v>
       </c>
       <c r="H18" s="3">
-        <v>56700</v>
+        <v>57100</v>
       </c>
       <c r="I18" s="3">
-        <v>61400</v>
+        <v>61800</v>
       </c>
       <c r="J18" s="3">
-        <v>-48900</v>
+        <v>-49300</v>
       </c>
       <c r="K18" s="3">
         <v>113400</v>
@@ -1454,25 +1454,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-15200</v>
+        <v>-15400</v>
       </c>
       <c r="E20" s="3">
         <v>3500</v>
       </c>
       <c r="F20" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="G20" s="3">
-        <v>-49900</v>
+        <v>-50300</v>
       </c>
       <c r="H20" s="3">
         <v>4300</v>
       </c>
       <c r="I20" s="3">
-        <v>16200</v>
+        <v>16400</v>
       </c>
       <c r="J20" s="3">
-        <v>-76800</v>
+        <v>-77400</v>
       </c>
       <c r="K20" s="3">
         <v>-18900</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>107500</v>
+        <v>108300</v>
       </c>
       <c r="E23" s="3">
-        <v>146800</v>
+        <v>147900</v>
       </c>
       <c r="F23" s="3">
-        <v>131900</v>
+        <v>132900</v>
       </c>
       <c r="G23" s="3">
-        <v>94500</v>
+        <v>95300</v>
       </c>
       <c r="H23" s="3">
-        <v>61000</v>
+        <v>61400</v>
       </c>
       <c r="I23" s="3">
-        <v>77600</v>
+        <v>78200</v>
       </c>
       <c r="J23" s="3">
-        <v>-125800</v>
+        <v>-126700</v>
       </c>
       <c r="K23" s="3">
         <v>94500</v>
@@ -1726,25 +1726,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>16600</v>
+        <v>16700</v>
       </c>
       <c r="E24" s="3">
-        <v>23600</v>
+        <v>23800</v>
       </c>
       <c r="F24" s="3">
-        <v>20500</v>
+        <v>20700</v>
       </c>
       <c r="G24" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="H24" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="I24" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="J24" s="3">
-        <v>-19600</v>
+        <v>-19700</v>
       </c>
       <c r="K24" s="3">
         <v>14800</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>90900</v>
+        <v>91600</v>
       </c>
       <c r="E26" s="3">
-        <v>123200</v>
+        <v>124100</v>
       </c>
       <c r="F26" s="3">
-        <v>111300</v>
+        <v>112200</v>
       </c>
       <c r="G26" s="3">
-        <v>79800</v>
+        <v>80400</v>
       </c>
       <c r="H26" s="3">
-        <v>54000</v>
+        <v>54400</v>
       </c>
       <c r="I26" s="3">
-        <v>65600</v>
+        <v>66100</v>
       </c>
       <c r="J26" s="3">
-        <v>-106200</v>
+        <v>-107000</v>
       </c>
       <c r="K26" s="3">
         <v>79700</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>90900</v>
+        <v>91600</v>
       </c>
       <c r="E27" s="3">
-        <v>123100</v>
+        <v>124000</v>
       </c>
       <c r="F27" s="3">
-        <v>111400</v>
+        <v>112300</v>
       </c>
       <c r="G27" s="3">
-        <v>79800</v>
+        <v>80400</v>
       </c>
       <c r="H27" s="3">
-        <v>54000</v>
+        <v>54400</v>
       </c>
       <c r="I27" s="3">
-        <v>65600</v>
+        <v>66100</v>
       </c>
       <c r="J27" s="3">
-        <v>-106200</v>
+        <v>-107000</v>
       </c>
       <c r="K27" s="3">
         <v>79700</v>
@@ -2270,25 +2270,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>15200</v>
+        <v>15400</v>
       </c>
       <c r="E32" s="3">
         <v>-3500</v>
       </c>
       <c r="F32" s="3">
-        <v>-11600</v>
+        <v>-11700</v>
       </c>
       <c r="G32" s="3">
-        <v>49900</v>
+        <v>50300</v>
       </c>
       <c r="H32" s="3">
         <v>-4300</v>
       </c>
       <c r="I32" s="3">
-        <v>-16200</v>
+        <v>-16400</v>
       </c>
       <c r="J32" s="3">
-        <v>76800</v>
+        <v>77400</v>
       </c>
       <c r="K32" s="3">
         <v>18900</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>90900</v>
+        <v>91600</v>
       </c>
       <c r="E33" s="3">
-        <v>123100</v>
+        <v>124000</v>
       </c>
       <c r="F33" s="3">
-        <v>111400</v>
+        <v>112300</v>
       </c>
       <c r="G33" s="3">
-        <v>79800</v>
+        <v>80400</v>
       </c>
       <c r="H33" s="3">
-        <v>54000</v>
+        <v>54400</v>
       </c>
       <c r="I33" s="3">
-        <v>65600</v>
+        <v>66100</v>
       </c>
       <c r="J33" s="3">
-        <v>-106200</v>
+        <v>-107000</v>
       </c>
       <c r="K33" s="3">
         <v>79700</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>90900</v>
+        <v>91600</v>
       </c>
       <c r="E35" s="3">
-        <v>123100</v>
+        <v>124000</v>
       </c>
       <c r="F35" s="3">
-        <v>111400</v>
+        <v>112300</v>
       </c>
       <c r="G35" s="3">
-        <v>79800</v>
+        <v>80400</v>
       </c>
       <c r="H35" s="3">
-        <v>54000</v>
+        <v>54400</v>
       </c>
       <c r="I35" s="3">
-        <v>65600</v>
+        <v>66100</v>
       </c>
       <c r="J35" s="3">
-        <v>-106200</v>
+        <v>-107000</v>
       </c>
       <c r="K35" s="3">
         <v>79700</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>398600</v>
+        <v>401600</v>
       </c>
       <c r="E41" s="3">
-        <v>373200</v>
+        <v>376100</v>
       </c>
       <c r="F41" s="3">
-        <v>366100</v>
+        <v>368900</v>
       </c>
       <c r="G41" s="3">
-        <v>244800</v>
+        <v>246700</v>
       </c>
       <c r="H41" s="3">
-        <v>249500</v>
+        <v>251400</v>
       </c>
       <c r="I41" s="3">
-        <v>182400</v>
+        <v>183800</v>
       </c>
       <c r="J41" s="3">
-        <v>202600</v>
+        <v>204100</v>
       </c>
       <c r="K41" s="3">
         <v>321100</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1259200</v>
+        <v>1268900</v>
       </c>
       <c r="E43" s="3">
-        <v>1336000</v>
+        <v>1346200</v>
       </c>
       <c r="F43" s="3">
-        <v>1315600</v>
+        <v>1325700</v>
       </c>
       <c r="G43" s="3">
-        <v>1541300</v>
+        <v>1553100</v>
       </c>
       <c r="H43" s="3">
-        <v>1565500</v>
+        <v>1577500</v>
       </c>
       <c r="I43" s="3">
-        <v>1470700</v>
+        <v>1482000</v>
       </c>
       <c r="J43" s="3">
-        <v>1346700</v>
+        <v>1357000</v>
       </c>
       <c r="K43" s="3">
         <v>1226000</v>
@@ -2871,13 +2871,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="E44" s="3">
         <v>7300</v>
       </c>
       <c r="F44" s="3">
-        <v>10600</v>
+        <v>10700</v>
       </c>
       <c r="G44" s="3">
         <v>7400</v>
@@ -2886,10 +2886,10 @@
         <v>9300</v>
       </c>
       <c r="I44" s="3">
+        <v>8800</v>
+      </c>
+      <c r="J44" s="3">
         <v>8700</v>
-      </c>
-      <c r="J44" s="3">
-        <v>8600</v>
       </c>
       <c r="K44" s="3">
         <v>16400</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>883400</v>
+        <v>890200</v>
       </c>
       <c r="E45" s="3">
-        <v>791500</v>
+        <v>797600</v>
       </c>
       <c r="F45" s="3">
-        <v>773100</v>
+        <v>779100</v>
       </c>
       <c r="G45" s="3">
-        <v>777000</v>
+        <v>782900</v>
       </c>
       <c r="H45" s="3">
-        <v>1063800</v>
+        <v>1072000</v>
       </c>
       <c r="I45" s="3">
-        <v>1180100</v>
+        <v>1189200</v>
       </c>
       <c r="J45" s="3">
-        <v>1010400</v>
+        <v>1018200</v>
       </c>
       <c r="K45" s="3">
         <v>978100</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2549500</v>
+        <v>2569000</v>
       </c>
       <c r="E46" s="3">
-        <v>2508000</v>
+        <v>2527200</v>
       </c>
       <c r="F46" s="3">
-        <v>2465400</v>
+        <v>2484300</v>
       </c>
       <c r="G46" s="3">
-        <v>2570400</v>
+        <v>2590100</v>
       </c>
       <c r="H46" s="3">
-        <v>2888100</v>
+        <v>2910200</v>
       </c>
       <c r="I46" s="3">
-        <v>2842000</v>
+        <v>2863700</v>
       </c>
       <c r="J46" s="3">
-        <v>2568300</v>
+        <v>2588000</v>
       </c>
       <c r="K46" s="3">
         <v>2541600</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>186000</v>
+        <v>187400</v>
       </c>
       <c r="E47" s="3">
-        <v>202300</v>
+        <v>203900</v>
       </c>
       <c r="F47" s="3">
-        <v>212000</v>
+        <v>213600</v>
       </c>
       <c r="G47" s="3">
-        <v>223400</v>
+        <v>225200</v>
       </c>
       <c r="H47" s="3">
-        <v>209600</v>
+        <v>211200</v>
       </c>
       <c r="I47" s="3">
-        <v>225800</v>
+        <v>227500</v>
       </c>
       <c r="J47" s="3">
-        <v>247200</v>
+        <v>249100</v>
       </c>
       <c r="K47" s="3">
         <v>297900</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24500</v>
+        <v>24700</v>
       </c>
       <c r="E48" s="3">
-        <v>20700</v>
+        <v>20800</v>
       </c>
       <c r="F48" s="3">
-        <v>19400</v>
+        <v>19500</v>
       </c>
       <c r="G48" s="3">
-        <v>19700</v>
+        <v>19800</v>
       </c>
       <c r="H48" s="3">
-        <v>16200</v>
+        <v>16400</v>
       </c>
       <c r="I48" s="3">
-        <v>16600</v>
+        <v>16700</v>
       </c>
       <c r="J48" s="3">
-        <v>15800</v>
+        <v>15900</v>
       </c>
       <c r="K48" s="3">
         <v>14300</v>
@@ -3211,25 +3211,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>152600</v>
+        <v>153800</v>
       </c>
       <c r="E49" s="3">
-        <v>153900</v>
+        <v>155100</v>
       </c>
       <c r="F49" s="3">
-        <v>155300</v>
+        <v>156500</v>
       </c>
       <c r="G49" s="3">
-        <v>156600</v>
+        <v>157800</v>
       </c>
       <c r="H49" s="3">
-        <v>158000</v>
+        <v>159200</v>
       </c>
       <c r="I49" s="3">
-        <v>159300</v>
+        <v>160500</v>
       </c>
       <c r="J49" s="3">
-        <v>160700</v>
+        <v>161900</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>10</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>308000</v>
+        <v>310300</v>
       </c>
       <c r="E52" s="3">
-        <v>265800</v>
+        <v>267900</v>
       </c>
       <c r="F52" s="3">
-        <v>221200</v>
+        <v>222900</v>
       </c>
       <c r="G52" s="3">
-        <v>215100</v>
+        <v>216700</v>
       </c>
       <c r="H52" s="3">
-        <v>194700</v>
+        <v>196200</v>
       </c>
       <c r="I52" s="3">
-        <v>187700</v>
+        <v>189200</v>
       </c>
       <c r="J52" s="3">
-        <v>176100</v>
+        <v>177400</v>
       </c>
       <c r="K52" s="3">
         <v>108200</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3220600</v>
+        <v>3245200</v>
       </c>
       <c r="E54" s="3">
-        <v>3150800</v>
+        <v>3174900</v>
       </c>
       <c r="F54" s="3">
-        <v>3073200</v>
+        <v>3096800</v>
       </c>
       <c r="G54" s="3">
-        <v>3185200</v>
+        <v>3209700</v>
       </c>
       <c r="H54" s="3">
-        <v>3466600</v>
+        <v>3493200</v>
       </c>
       <c r="I54" s="3">
-        <v>3431400</v>
+        <v>3457700</v>
       </c>
       <c r="J54" s="3">
-        <v>3168000</v>
+        <v>3192300</v>
       </c>
       <c r="K54" s="3">
         <v>2962000</v>
@@ -3677,19 +3677,19 @@
         <v>5900</v>
       </c>
       <c r="F57" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="G57" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="H57" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="I57" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="J57" s="3">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="K57" s="3">
         <v>31100</v>
@@ -3739,25 +3739,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>770600</v>
+        <v>776500</v>
       </c>
       <c r="E58" s="3">
-        <v>832500</v>
+        <v>838800</v>
       </c>
       <c r="F58" s="3">
-        <v>994900</v>
+        <v>1002600</v>
       </c>
       <c r="G58" s="3">
-        <v>1019700</v>
+        <v>1027500</v>
       </c>
       <c r="H58" s="3">
-        <v>1066100</v>
+        <v>1074300</v>
       </c>
       <c r="I58" s="3">
-        <v>1110600</v>
+        <v>1119100</v>
       </c>
       <c r="J58" s="3">
-        <v>999900</v>
+        <v>1007500</v>
       </c>
       <c r="K58" s="3">
         <v>882800</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>794400</v>
+        <v>800500</v>
       </c>
       <c r="E59" s="3">
-        <v>792200</v>
+        <v>798200</v>
       </c>
       <c r="F59" s="3">
-        <v>742300</v>
+        <v>748000</v>
       </c>
       <c r="G59" s="3">
-        <v>855400</v>
+        <v>862000</v>
       </c>
       <c r="H59" s="3">
-        <v>1110300</v>
+        <v>1118800</v>
       </c>
       <c r="I59" s="3">
-        <v>1121600</v>
+        <v>1130200</v>
       </c>
       <c r="J59" s="3">
-        <v>1069700</v>
+        <v>1077900</v>
       </c>
       <c r="K59" s="3">
         <v>595500</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1568000</v>
+        <v>1580000</v>
       </c>
       <c r="E60" s="3">
-        <v>1630500</v>
+        <v>1643000</v>
       </c>
       <c r="F60" s="3">
-        <v>1743800</v>
+        <v>1757200</v>
       </c>
       <c r="G60" s="3">
-        <v>1881800</v>
+        <v>1896200</v>
       </c>
       <c r="H60" s="3">
-        <v>2186800</v>
+        <v>2203500</v>
       </c>
       <c r="I60" s="3">
-        <v>2241500</v>
+        <v>2258700</v>
       </c>
       <c r="J60" s="3">
-        <v>2084300</v>
+        <v>2100300</v>
       </c>
       <c r="K60" s="3">
         <v>1509400</v>
@@ -3943,25 +3943,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>409300</v>
+        <v>412500</v>
       </c>
       <c r="E61" s="3">
-        <v>394900</v>
+        <v>397900</v>
       </c>
       <c r="F61" s="3">
-        <v>336200</v>
+        <v>338800</v>
       </c>
       <c r="G61" s="3">
-        <v>429900</v>
+        <v>433200</v>
       </c>
       <c r="H61" s="3">
-        <v>498600</v>
+        <v>502400</v>
       </c>
       <c r="I61" s="3">
-        <v>468300</v>
+        <v>471900</v>
       </c>
       <c r="J61" s="3">
-        <v>438200</v>
+        <v>441600</v>
       </c>
       <c r="K61" s="3">
         <v>384400</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>28700</v>
+        <v>28900</v>
       </c>
       <c r="E62" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="F62" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="G62" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="H62" s="3">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="I62" s="3">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="J62" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="K62" s="3">
         <v>52000</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2012400</v>
+        <v>2027800</v>
       </c>
       <c r="E66" s="3">
-        <v>2040700</v>
+        <v>2056400</v>
       </c>
       <c r="F66" s="3">
-        <v>2094400</v>
+        <v>2110400</v>
       </c>
       <c r="G66" s="3">
-        <v>2325600</v>
+        <v>2343400</v>
       </c>
       <c r="H66" s="3">
-        <v>2696300</v>
+        <v>2716900</v>
       </c>
       <c r="I66" s="3">
-        <v>2722200</v>
+        <v>2743000</v>
       </c>
       <c r="J66" s="3">
-        <v>2532400</v>
+        <v>2551900</v>
       </c>
       <c r="K66" s="3">
         <v>1945800</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>757900</v>
+        <v>763700</v>
       </c>
       <c r="E72" s="3">
-        <v>667000</v>
+        <v>672100</v>
       </c>
       <c r="F72" s="3">
-        <v>544000</v>
+        <v>548200</v>
       </c>
       <c r="G72" s="3">
-        <v>432600</v>
+        <v>435900</v>
       </c>
       <c r="H72" s="3">
-        <v>352800</v>
+        <v>355500</v>
       </c>
       <c r="I72" s="3">
-        <v>298800</v>
+        <v>301100</v>
       </c>
       <c r="J72" s="3">
-        <v>233200</v>
+        <v>235000</v>
       </c>
       <c r="K72" s="3">
         <v>629300</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1208200</v>
+        <v>1217500</v>
       </c>
       <c r="E76" s="3">
-        <v>1110000</v>
+        <v>1118500</v>
       </c>
       <c r="F76" s="3">
-        <v>978900</v>
+        <v>986400</v>
       </c>
       <c r="G76" s="3">
-        <v>859600</v>
+        <v>866200</v>
       </c>
       <c r="H76" s="3">
-        <v>770300</v>
+        <v>776200</v>
       </c>
       <c r="I76" s="3">
-        <v>709200</v>
+        <v>714700</v>
       </c>
       <c r="J76" s="3">
-        <v>635600</v>
+        <v>640500</v>
       </c>
       <c r="K76" s="3">
         <v>1016200</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>90900</v>
+        <v>91600</v>
       </c>
       <c r="E81" s="3">
-        <v>123100</v>
+        <v>124000</v>
       </c>
       <c r="F81" s="3">
-        <v>111400</v>
+        <v>112300</v>
       </c>
       <c r="G81" s="3">
-        <v>79800</v>
+        <v>80400</v>
       </c>
       <c r="H81" s="3">
-        <v>54000</v>
+        <v>54400</v>
       </c>
       <c r="I81" s="3">
-        <v>65600</v>
+        <v>66100</v>
       </c>
       <c r="J81" s="3">
-        <v>-106200</v>
+        <v>-107000</v>
       </c>
       <c r="K81" s="3">
         <v>79700</v>

--- a/AAII_Financials/Quarterly/LX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>LX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>468400</v>
+        <v>324100</v>
       </c>
       <c r="E8" s="3">
-        <v>515700</v>
+        <v>437500</v>
       </c>
       <c r="F8" s="3">
-        <v>464400</v>
+        <v>481700</v>
       </c>
       <c r="G8" s="3">
-        <v>478500</v>
+        <v>433800</v>
       </c>
       <c r="H8" s="3">
-        <v>497600</v>
+        <v>447000</v>
       </c>
       <c r="I8" s="3">
-        <v>466700</v>
+        <v>464800</v>
       </c>
       <c r="J8" s="3">
+        <v>435900</v>
+      </c>
+      <c r="K8" s="3">
         <v>394400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>484700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>490900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>388900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>269900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>370200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>258900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>285400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>231500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>236500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>215600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>195500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>177200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>202100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>155000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>230700</v>
+        <v>145400</v>
       </c>
       <c r="E9" s="3">
-        <v>253600</v>
+        <v>215500</v>
       </c>
       <c r="F9" s="3">
-        <v>248400</v>
+        <v>236900</v>
       </c>
       <c r="G9" s="3">
-        <v>238700</v>
+        <v>232000</v>
       </c>
       <c r="H9" s="3">
-        <v>343300</v>
+        <v>223000</v>
       </c>
       <c r="I9" s="3">
-        <v>314000</v>
+        <v>320600</v>
       </c>
       <c r="J9" s="3">
+        <v>293300</v>
+      </c>
+      <c r="K9" s="3">
         <v>368100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>257200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>229000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>217500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>160900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>173000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>151500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>164000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>166700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>182200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>165500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>154200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>137800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>167000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>125700</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>237700</v>
+        <v>178600</v>
       </c>
       <c r="E10" s="3">
-        <v>262100</v>
+        <v>222000</v>
       </c>
       <c r="F10" s="3">
-        <v>216000</v>
+        <v>244800</v>
       </c>
       <c r="G10" s="3">
-        <v>239800</v>
+        <v>201700</v>
       </c>
       <c r="H10" s="3">
-        <v>154300</v>
+        <v>224000</v>
       </c>
       <c r="I10" s="3">
-        <v>152700</v>
+        <v>144100</v>
       </c>
       <c r="J10" s="3">
+        <v>142600</v>
+      </c>
+      <c r="K10" s="3">
         <v>26300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>227500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>261900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>171400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>109000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>197200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>107400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>121500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>64800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>54300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>50100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>41200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>39400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>35200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>20700</v>
+        <v>24100</v>
       </c>
       <c r="E12" s="3">
-        <v>20600</v>
+        <v>19300</v>
       </c>
       <c r="F12" s="3">
-        <v>19600</v>
+        <v>19200</v>
       </c>
       <c r="G12" s="3">
-        <v>15000</v>
+        <v>18300</v>
       </c>
       <c r="H12" s="3">
-        <v>18700</v>
+        <v>14000</v>
       </c>
       <c r="I12" s="3">
-        <v>21200</v>
+        <v>17400</v>
       </c>
       <c r="J12" s="3">
+        <v>19800</v>
+      </c>
+      <c r="K12" s="3">
         <v>19900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>18600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>15600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>14300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>13100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>9800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>19900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>10000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>8500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>6400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>6600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,34 +1143,37 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>5300</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3">
-        <v>5600</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+        <v>5000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>5200</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1166,23 +1185,23 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>1500</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>700</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
@@ -1190,13 +1209,16 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>800</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>344700</v>
+        <v>235300</v>
       </c>
       <c r="E17" s="3">
+        <v>321900</v>
+      </c>
+      <c r="F17" s="3">
+        <v>346800</v>
+      </c>
+      <c r="G17" s="3">
+        <v>320600</v>
+      </c>
+      <c r="H17" s="3">
+        <v>311000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>411400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>378100</v>
+      </c>
+      <c r="K17" s="3">
+        <v>443700</v>
+      </c>
+      <c r="L17" s="3">
         <v>371300</v>
       </c>
-      <c r="F17" s="3">
-        <v>343200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>333000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>440500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>404800</v>
-      </c>
-      <c r="J17" s="3">
-        <v>443700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>371300</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>343000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>296900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>218100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>227900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>193700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>205600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>199500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>206600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>199300</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W17" s="3">
         <v>163100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>195600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>147300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>123700</v>
+        <v>88800</v>
       </c>
       <c r="E18" s="3">
-        <v>144400</v>
+        <v>115500</v>
       </c>
       <c r="F18" s="3">
-        <v>121200</v>
+        <v>134900</v>
       </c>
       <c r="G18" s="3">
-        <v>145500</v>
+        <v>113200</v>
       </c>
       <c r="H18" s="3">
-        <v>57100</v>
+        <v>135900</v>
       </c>
       <c r="I18" s="3">
-        <v>61800</v>
+        <v>53400</v>
       </c>
       <c r="J18" s="3">
+        <v>57800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-49300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>113400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>147900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>92000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>51800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>142200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>65200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>79800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>32000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>29900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>16300</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W18" s="3">
         <v>14100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>6500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,76 +1480,80 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-15400</v>
+        <v>-44200</v>
       </c>
       <c r="E20" s="3">
-        <v>3500</v>
+        <v>-14400</v>
       </c>
       <c r="F20" s="3">
-        <v>11700</v>
+        <v>3300</v>
       </c>
       <c r="G20" s="3">
-        <v>-50300</v>
+        <v>10900</v>
       </c>
       <c r="H20" s="3">
-        <v>4300</v>
+        <v>-46900</v>
       </c>
       <c r="I20" s="3">
-        <v>16400</v>
+        <v>4000</v>
       </c>
       <c r="J20" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-77400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-18900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-17300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>22600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>26100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>41600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>9000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>7600</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W20" s="3">
         <v>2100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1566,26 +1602,29 @@
       <c r="R21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T21" s="3">
         <v>33000</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X21" s="3">
         <v>6600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1619,177 +1658,186 @@
       <c r="M22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>3000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>108300</v>
+        <v>44600</v>
       </c>
       <c r="E23" s="3">
-        <v>147900</v>
+        <v>101200</v>
       </c>
       <c r="F23" s="3">
-        <v>132900</v>
+        <v>138200</v>
       </c>
       <c r="G23" s="3">
-        <v>95300</v>
+        <v>124100</v>
       </c>
       <c r="H23" s="3">
-        <v>61400</v>
+        <v>89000</v>
       </c>
       <c r="I23" s="3">
+        <v>57400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>73000</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-126700</v>
+      </c>
+      <c r="L23" s="3">
+        <v>94500</v>
+      </c>
+      <c r="M23" s="3">
+        <v>130600</v>
+      </c>
+      <c r="N23" s="3">
+        <v>114600</v>
+      </c>
+      <c r="O23" s="3">
+        <v>77600</v>
+      </c>
+      <c r="P23" s="3">
+        <v>183200</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>73000</v>
+      </c>
+      <c r="R23" s="3">
         <v>78200</v>
       </c>
-      <c r="J23" s="3">
-        <v>-126700</v>
-      </c>
-      <c r="K23" s="3">
-        <v>94500</v>
-      </c>
-      <c r="L23" s="3">
-        <v>130600</v>
-      </c>
-      <c r="M23" s="3">
-        <v>114600</v>
-      </c>
-      <c r="N23" s="3">
-        <v>77600</v>
-      </c>
-      <c r="O23" s="3">
-        <v>183200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>73000</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>78200</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>31500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>31100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>20400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>13100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>16700</v>
+        <v>6900</v>
       </c>
       <c r="E24" s="3">
-        <v>23800</v>
+        <v>15600</v>
       </c>
       <c r="F24" s="3">
-        <v>20700</v>
+        <v>22300</v>
       </c>
       <c r="G24" s="3">
-        <v>14900</v>
+        <v>19300</v>
       </c>
       <c r="H24" s="3">
-        <v>7100</v>
+        <v>13900</v>
       </c>
       <c r="I24" s="3">
-        <v>12100</v>
+        <v>6600</v>
       </c>
       <c r="J24" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-19700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>19100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>16600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>30700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-14700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>16200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>10300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4900</v>
-      </c>
-      <c r="W24" s="3">
-        <v>4700</v>
       </c>
       <c r="X24" s="3">
         <v>4700</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>91600</v>
+        <v>37700</v>
       </c>
       <c r="E26" s="3">
-        <v>124100</v>
+        <v>85600</v>
       </c>
       <c r="F26" s="3">
-        <v>112200</v>
+        <v>115900</v>
       </c>
       <c r="G26" s="3">
-        <v>80400</v>
+        <v>104800</v>
       </c>
       <c r="H26" s="3">
-        <v>54400</v>
+        <v>75100</v>
       </c>
       <c r="I26" s="3">
-        <v>66100</v>
+        <v>50800</v>
       </c>
       <c r="J26" s="3">
+        <v>61700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-107000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>79700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>111500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>98000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>64500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>152400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>62600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>92900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>25500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>14900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>10100</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W26" s="3">
         <v>8200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>91600</v>
+        <v>37700</v>
       </c>
       <c r="E27" s="3">
-        <v>124000</v>
+        <v>85500</v>
       </c>
       <c r="F27" s="3">
-        <v>112300</v>
+        <v>115800</v>
       </c>
       <c r="G27" s="3">
-        <v>80400</v>
+        <v>104900</v>
       </c>
       <c r="H27" s="3">
-        <v>54400</v>
+        <v>75100</v>
       </c>
       <c r="I27" s="3">
-        <v>66100</v>
+        <v>50800</v>
       </c>
       <c r="J27" s="3">
+        <v>61700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-107000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>79700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>111500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>98000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>64500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>152400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>62600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>92900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>25500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>800</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W27" s="3">
         <v>800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-4200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>15400</v>
+        <v>44200</v>
       </c>
       <c r="E32" s="3">
-        <v>-3500</v>
+        <v>14400</v>
       </c>
       <c r="F32" s="3">
-        <v>-11700</v>
+        <v>-3300</v>
       </c>
       <c r="G32" s="3">
-        <v>50300</v>
+        <v>-10900</v>
       </c>
       <c r="H32" s="3">
-        <v>-4300</v>
+        <v>46900</v>
       </c>
       <c r="I32" s="3">
-        <v>-16400</v>
+        <v>-4000</v>
       </c>
       <c r="J32" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="K32" s="3">
         <v>77400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>18900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>17300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-22600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-26100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-41600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-7600</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W32" s="3">
         <v>-2100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>91600</v>
+        <v>37700</v>
       </c>
       <c r="E33" s="3">
-        <v>124000</v>
+        <v>85500</v>
       </c>
       <c r="F33" s="3">
-        <v>112300</v>
+        <v>115800</v>
       </c>
       <c r="G33" s="3">
-        <v>80400</v>
+        <v>104900</v>
       </c>
       <c r="H33" s="3">
-        <v>54400</v>
+        <v>75100</v>
       </c>
       <c r="I33" s="3">
-        <v>66100</v>
+        <v>50800</v>
       </c>
       <c r="J33" s="3">
+        <v>61700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-107000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>79700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>111500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>98000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>64500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>152400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>62600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>92900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>25500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>800</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W33" s="3">
         <v>800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-4200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>91600</v>
+        <v>37700</v>
       </c>
       <c r="E35" s="3">
-        <v>124000</v>
+        <v>85500</v>
       </c>
       <c r="F35" s="3">
-        <v>112300</v>
+        <v>115800</v>
       </c>
       <c r="G35" s="3">
-        <v>80400</v>
+        <v>104900</v>
       </c>
       <c r="H35" s="3">
-        <v>54400</v>
+        <v>75100</v>
       </c>
       <c r="I35" s="3">
-        <v>66100</v>
+        <v>50800</v>
       </c>
       <c r="J35" s="3">
+        <v>61700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-107000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>79700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>111500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>98000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>64500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>152400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>62600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>92900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>25500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>800</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W35" s="3">
         <v>800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-4200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>401600</v>
+        <v>392600</v>
       </c>
       <c r="E41" s="3">
-        <v>376100</v>
+        <v>375100</v>
       </c>
       <c r="F41" s="3">
-        <v>368900</v>
+        <v>351300</v>
       </c>
       <c r="G41" s="3">
-        <v>246700</v>
+        <v>344600</v>
       </c>
       <c r="H41" s="3">
-        <v>251400</v>
+        <v>230400</v>
       </c>
       <c r="I41" s="3">
-        <v>183800</v>
+        <v>234800</v>
       </c>
       <c r="J41" s="3">
+        <v>171600</v>
+      </c>
+      <c r="K41" s="3">
         <v>204100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>321100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>431100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>165300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>204100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>166800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>61700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>61600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>88000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>167200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>74900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>145700</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>10</v>
       </c>
       <c r="X41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,443 +2886,464 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1268900</v>
+        <v>1263200</v>
       </c>
       <c r="E43" s="3">
-        <v>1346200</v>
+        <v>1185200</v>
       </c>
       <c r="F43" s="3">
-        <v>1325700</v>
+        <v>1257500</v>
       </c>
       <c r="G43" s="3">
-        <v>1553100</v>
+        <v>1238300</v>
       </c>
       <c r="H43" s="3">
-        <v>1577500</v>
+        <v>1450700</v>
       </c>
       <c r="I43" s="3">
-        <v>1482000</v>
+        <v>1473600</v>
       </c>
       <c r="J43" s="3">
+        <v>1384300</v>
+      </c>
+      <c r="K43" s="3">
         <v>1357000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1226000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1001000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>900300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>875300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>953400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>957000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1390300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1719200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1509000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1421400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1287700</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>10</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F44" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G44" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H44" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I44" s="3">
+        <v>8700</v>
+      </c>
+      <c r="J44" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K44" s="3">
+        <v>8700</v>
+      </c>
+      <c r="L44" s="3">
+        <v>16400</v>
+      </c>
+      <c r="M44" s="3">
+        <v>21400</v>
+      </c>
+      <c r="N44" s="3">
+        <v>15800</v>
+      </c>
+      <c r="O44" s="3">
+        <v>8500</v>
+      </c>
+      <c r="P44" s="3">
         <v>8300</v>
       </c>
-      <c r="E44" s="3">
-        <v>7300</v>
-      </c>
-      <c r="F44" s="3">
-        <v>10700</v>
-      </c>
-      <c r="G44" s="3">
-        <v>7400</v>
-      </c>
-      <c r="H44" s="3">
-        <v>9300</v>
-      </c>
-      <c r="I44" s="3">
-        <v>8800</v>
-      </c>
-      <c r="J44" s="3">
-        <v>8700</v>
-      </c>
-      <c r="K44" s="3">
-        <v>16400</v>
-      </c>
-      <c r="L44" s="3">
-        <v>21400</v>
-      </c>
-      <c r="M44" s="3">
-        <v>15800</v>
-      </c>
-      <c r="N44" s="3">
-        <v>8500</v>
-      </c>
-      <c r="O44" s="3">
-        <v>8300</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>13300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>10600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>13600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>15100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>18900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>18500</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="W44" s="3" t="s">
         <v>10</v>
       </c>
       <c r="X44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>890200</v>
+        <v>791500</v>
       </c>
       <c r="E45" s="3">
-        <v>797600</v>
+        <v>831500</v>
       </c>
       <c r="F45" s="3">
-        <v>779100</v>
+        <v>745000</v>
       </c>
       <c r="G45" s="3">
-        <v>782900</v>
+        <v>727700</v>
       </c>
       <c r="H45" s="3">
-        <v>1072000</v>
+        <v>731300</v>
       </c>
       <c r="I45" s="3">
-        <v>1189200</v>
+        <v>1001300</v>
       </c>
       <c r="J45" s="3">
+        <v>1110800</v>
+      </c>
+      <c r="K45" s="3">
         <v>1018200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>978100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>710400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>581500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>421600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>368100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>409800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>286300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>266700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>199200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>111500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>70400</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>10</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2569000</v>
+        <v>2454300</v>
       </c>
       <c r="E46" s="3">
-        <v>2527200</v>
+        <v>2399600</v>
       </c>
       <c r="F46" s="3">
-        <v>2484300</v>
+        <v>2360600</v>
       </c>
       <c r="G46" s="3">
-        <v>2590100</v>
+        <v>2320500</v>
       </c>
       <c r="H46" s="3">
-        <v>2910200</v>
+        <v>2419400</v>
       </c>
       <c r="I46" s="3">
-        <v>2863700</v>
+        <v>2718400</v>
       </c>
       <c r="J46" s="3">
+        <v>2675000</v>
+      </c>
+      <c r="K46" s="3">
         <v>2588000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2541600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2163900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1662800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1509400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1496600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1441900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1748800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2087400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1890500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1626700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1522300</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>10</v>
       </c>
       <c r="X46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>187400</v>
+        <v>155700</v>
       </c>
       <c r="E47" s="3">
-        <v>203900</v>
+        <v>175000</v>
       </c>
       <c r="F47" s="3">
-        <v>213600</v>
+        <v>190400</v>
       </c>
       <c r="G47" s="3">
-        <v>225200</v>
+        <v>199500</v>
       </c>
       <c r="H47" s="3">
-        <v>211200</v>
+        <v>210300</v>
       </c>
       <c r="I47" s="3">
-        <v>227500</v>
+        <v>197200</v>
       </c>
       <c r="J47" s="3">
+        <v>212500</v>
+      </c>
+      <c r="K47" s="3">
         <v>249100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>297900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>310000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>258300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>248900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>272600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>253800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>314900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>349900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>268400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>218800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>194900</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>10</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24700</v>
+        <v>28800</v>
       </c>
       <c r="E48" s="3">
-        <v>20800</v>
+        <v>23100</v>
       </c>
       <c r="F48" s="3">
         <v>19500</v>
       </c>
       <c r="G48" s="3">
-        <v>19800</v>
+        <v>18300</v>
       </c>
       <c r="H48" s="3">
-        <v>16400</v>
+        <v>18500</v>
       </c>
       <c r="I48" s="3">
-        <v>16700</v>
+        <v>15300</v>
       </c>
       <c r="J48" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K48" s="3">
         <v>15900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>9400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8700</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>10</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>153800</v>
+        <v>142400</v>
       </c>
       <c r="E49" s="3">
-        <v>155100</v>
+        <v>143600</v>
       </c>
       <c r="F49" s="3">
-        <v>156500</v>
+        <v>144900</v>
       </c>
       <c r="G49" s="3">
-        <v>157800</v>
+        <v>146200</v>
       </c>
       <c r="H49" s="3">
-        <v>159200</v>
+        <v>147400</v>
       </c>
       <c r="I49" s="3">
-        <v>160500</v>
+        <v>148700</v>
       </c>
       <c r="J49" s="3">
+        <v>150000</v>
+      </c>
+      <c r="K49" s="3">
         <v>161900</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>10</v>
       </c>
@@ -3246,8 +3356,8 @@
       <c r="O49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>310300</v>
+        <v>317300</v>
       </c>
       <c r="E52" s="3">
-        <v>267900</v>
+        <v>289900</v>
       </c>
       <c r="F52" s="3">
-        <v>222900</v>
+        <v>250200</v>
       </c>
       <c r="G52" s="3">
-        <v>216700</v>
+        <v>208200</v>
       </c>
       <c r="H52" s="3">
-        <v>196200</v>
+        <v>202400</v>
       </c>
       <c r="I52" s="3">
-        <v>189200</v>
+        <v>183300</v>
       </c>
       <c r="J52" s="3">
+        <v>176700</v>
+      </c>
+      <c r="K52" s="3">
         <v>177400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>108200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>98300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>67800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>54000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>29900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>42900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>38800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>18600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>17700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>12400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8400</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>10</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3245200</v>
+        <v>3098400</v>
       </c>
       <c r="E54" s="3">
-        <v>3174900</v>
+        <v>3031300</v>
       </c>
       <c r="F54" s="3">
-        <v>3096800</v>
+        <v>2965600</v>
       </c>
       <c r="G54" s="3">
-        <v>3209700</v>
+        <v>2892600</v>
       </c>
       <c r="H54" s="3">
-        <v>3493200</v>
+        <v>2998100</v>
       </c>
       <c r="I54" s="3">
-        <v>3457700</v>
+        <v>3262900</v>
       </c>
       <c r="J54" s="3">
+        <v>3229800</v>
+      </c>
+      <c r="K54" s="3">
         <v>3192300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2962000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2586100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2003200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1826400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1811100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1749600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2113200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2466200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2186000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1866600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1734300</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>10</v>
       </c>
       <c r="X54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,390 +3794,406 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="E57" s="3">
-        <v>5900</v>
+        <v>2800</v>
       </c>
       <c r="F57" s="3">
-        <v>6700</v>
+        <v>5500</v>
       </c>
       <c r="G57" s="3">
-        <v>6800</v>
+        <v>6200</v>
       </c>
       <c r="H57" s="3">
-        <v>10400</v>
+        <v>6300</v>
       </c>
       <c r="I57" s="3">
-        <v>9400</v>
+        <v>9700</v>
       </c>
       <c r="J57" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K57" s="3">
         <v>14800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>31100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>31800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>38800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>21900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>29800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>27100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>18600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>29400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>11700</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>10</v>
       </c>
       <c r="X57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>776500</v>
+        <v>722200</v>
       </c>
       <c r="E58" s="3">
-        <v>838800</v>
+        <v>725300</v>
       </c>
       <c r="F58" s="3">
-        <v>1002600</v>
+        <v>783500</v>
       </c>
       <c r="G58" s="3">
-        <v>1027500</v>
+        <v>936500</v>
       </c>
       <c r="H58" s="3">
-        <v>1074300</v>
+        <v>959800</v>
       </c>
       <c r="I58" s="3">
-        <v>1119100</v>
+        <v>1003500</v>
       </c>
       <c r="J58" s="3">
+        <v>1045300</v>
+      </c>
+      <c r="K58" s="3">
         <v>1007500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>882800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>701900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>657800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>605900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>738400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>951600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1402200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1893600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1587100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1618800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1541700</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>10</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>800500</v>
+        <v>776600</v>
       </c>
       <c r="E59" s="3">
-        <v>798200</v>
+        <v>747800</v>
       </c>
       <c r="F59" s="3">
-        <v>748000</v>
+        <v>745600</v>
       </c>
       <c r="G59" s="3">
-        <v>862000</v>
+        <v>698700</v>
       </c>
       <c r="H59" s="3">
-        <v>1118800</v>
+        <v>805100</v>
       </c>
       <c r="I59" s="3">
-        <v>1130200</v>
+        <v>1045100</v>
       </c>
       <c r="J59" s="3">
+        <v>1055700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1077900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>595500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>535200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>442300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>415200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>406500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>321700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>293700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>242300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>292200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>186800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>158000</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>10</v>
       </c>
       <c r="X59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1580000</v>
+        <v>1501200</v>
       </c>
       <c r="E60" s="3">
-        <v>1643000</v>
+        <v>1475800</v>
       </c>
       <c r="F60" s="3">
-        <v>1757200</v>
+        <v>1534700</v>
       </c>
       <c r="G60" s="3">
-        <v>1896200</v>
+        <v>1641400</v>
       </c>
       <c r="H60" s="3">
-        <v>2203500</v>
+        <v>1771200</v>
       </c>
       <c r="I60" s="3">
-        <v>2258700</v>
+        <v>2058300</v>
       </c>
       <c r="J60" s="3">
+        <v>2109800</v>
+      </c>
+      <c r="K60" s="3">
         <v>2100300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1509400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1269000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1138900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1043000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1164600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1303200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1723000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2154400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1908700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1815300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1711400</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>10</v>
       </c>
       <c r="X60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>412500</v>
+        <v>380100</v>
       </c>
       <c r="E61" s="3">
-        <v>397900</v>
+        <v>385300</v>
       </c>
       <c r="F61" s="3">
-        <v>338800</v>
+        <v>371700</v>
       </c>
       <c r="G61" s="3">
-        <v>433200</v>
+        <v>316500</v>
       </c>
       <c r="H61" s="3">
-        <v>502400</v>
+        <v>404700</v>
       </c>
       <c r="I61" s="3">
-        <v>471900</v>
+        <v>469300</v>
       </c>
       <c r="J61" s="3">
+        <v>440800</v>
+      </c>
+      <c r="K61" s="3">
         <v>441600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>384400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>338000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>32100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>22900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>52200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>47300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>35300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>24800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>19900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5000</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>28900</v>
+        <v>28300</v>
       </c>
       <c r="E62" s="3">
-        <v>9100</v>
+        <v>27000</v>
       </c>
       <c r="F62" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="G62" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="H62" s="3">
-        <v>11000</v>
+        <v>7200</v>
       </c>
       <c r="I62" s="3">
-        <v>12500</v>
+        <v>10300</v>
       </c>
       <c r="J62" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K62" s="3">
         <v>10000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>52000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>51700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>42600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>33400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>27200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>10</v>
       </c>
@@ -4064,8 +4209,8 @@
       <c r="U62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2027800</v>
+        <v>1915500</v>
       </c>
       <c r="E66" s="3">
-        <v>2056400</v>
+        <v>1894100</v>
       </c>
       <c r="F66" s="3">
-        <v>2110400</v>
+        <v>1920800</v>
       </c>
       <c r="G66" s="3">
-        <v>2343400</v>
+        <v>1971300</v>
       </c>
       <c r="H66" s="3">
-        <v>2716900</v>
+        <v>2188900</v>
       </c>
       <c r="I66" s="3">
-        <v>2743000</v>
+        <v>2537800</v>
       </c>
       <c r="J66" s="3">
+        <v>2562200</v>
+      </c>
+      <c r="K66" s="3">
         <v>2551900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1945800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1658700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1185500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1108400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1214700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1355400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1770300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2189700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1933500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1835100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1716400</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>10</v>
       </c>
       <c r="X66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4561,22 +4728,25 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>100100</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>97600</v>
       </c>
-      <c r="V70" s="3">
-        <v>0</v>
-      </c>
       <c r="W70" s="3">
         <v>0</v>
       </c>
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>763700</v>
+        <v>751100</v>
       </c>
       <c r="E72" s="3">
-        <v>672100</v>
+        <v>713400</v>
       </c>
       <c r="F72" s="3">
-        <v>548200</v>
+        <v>627800</v>
       </c>
       <c r="G72" s="3">
-        <v>435900</v>
+        <v>512000</v>
       </c>
       <c r="H72" s="3">
-        <v>355500</v>
+        <v>407200</v>
       </c>
       <c r="I72" s="3">
-        <v>301100</v>
+        <v>332100</v>
       </c>
       <c r="J72" s="3">
+        <v>281300</v>
+      </c>
+      <c r="K72" s="3">
         <v>235000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>629300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>549500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>443800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>361300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>260300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>74600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>30400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-35600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-58600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-72800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-82900</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>10</v>
       </c>
       <c r="X72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1217500</v>
+        <v>1182900</v>
       </c>
       <c r="E76" s="3">
-        <v>1118500</v>
+        <v>1137200</v>
       </c>
       <c r="F76" s="3">
-        <v>986400</v>
+        <v>1044800</v>
       </c>
       <c r="G76" s="3">
-        <v>866200</v>
+        <v>921400</v>
       </c>
       <c r="H76" s="3">
-        <v>776200</v>
+        <v>809100</v>
       </c>
       <c r="I76" s="3">
-        <v>714700</v>
+        <v>725000</v>
       </c>
       <c r="J76" s="3">
+        <v>667500</v>
+      </c>
+      <c r="K76" s="3">
         <v>640500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1016200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>927400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>817700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>718000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>596400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>394200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>342900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>276500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>252500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-68600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-79700</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>10</v>
       </c>
       <c r="X76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>91600</v>
+        <v>37700</v>
       </c>
       <c r="E81" s="3">
-        <v>124000</v>
+        <v>85500</v>
       </c>
       <c r="F81" s="3">
-        <v>112300</v>
+        <v>115800</v>
       </c>
       <c r="G81" s="3">
-        <v>80400</v>
+        <v>104900</v>
       </c>
       <c r="H81" s="3">
-        <v>54400</v>
+        <v>75100</v>
       </c>
       <c r="I81" s="3">
-        <v>66100</v>
+        <v>50800</v>
       </c>
       <c r="J81" s="3">
+        <v>61700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-107000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>79700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>111500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>98000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>64500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>152400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>62600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>92900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>25500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>800</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W81" s="3">
         <v>800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-4200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5269,11 +5467,11 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
         <v>800</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>10</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5677,11 +5893,11 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>99300</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>10</v>
       </c>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5771,11 +5991,11 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-800</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>10</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5975,11 +6204,11 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-187300</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>10</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6341,11 +6586,11 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>180500</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>10</v>
       </c>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6409,11 +6657,11 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U101" s="3" t="s">
         <v>10</v>
       </c>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6477,11 +6728,11 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>92300</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>10</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>10</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
   <si>
     <t>LX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,346 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>324100</v>
+        <v>352300</v>
       </c>
       <c r="E8" s="3">
-        <v>437500</v>
+        <v>250100</v>
       </c>
       <c r="F8" s="3">
-        <v>481700</v>
+        <v>321100</v>
       </c>
       <c r="G8" s="3">
-        <v>433800</v>
+        <v>433500</v>
       </c>
       <c r="H8" s="3">
-        <v>447000</v>
+        <v>477300</v>
       </c>
       <c r="I8" s="3">
+        <v>429900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>442900</v>
+      </c>
+      <c r="K8" s="3">
         <v>464800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>435900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>394400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>484700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>490900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>388900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>269900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>370200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>258900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>285400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>231500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>236500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>215600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>195500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>177200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>202100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>155000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>145400</v>
+        <v>259900</v>
       </c>
       <c r="E9" s="3">
-        <v>215500</v>
+        <v>182800</v>
       </c>
       <c r="F9" s="3">
-        <v>236900</v>
+        <v>144100</v>
       </c>
       <c r="G9" s="3">
-        <v>232000</v>
+        <v>213500</v>
       </c>
       <c r="H9" s="3">
-        <v>223000</v>
+        <v>234700</v>
       </c>
       <c r="I9" s="3">
+        <v>229900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>221000</v>
+      </c>
+      <c r="K9" s="3">
         <v>320600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>293300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>368100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>257200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>229000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>217500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>160900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>173000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>151500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>164000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>166700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>182200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>165500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>154200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>137800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>167000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>125700</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>178600</v>
+        <v>92500</v>
       </c>
       <c r="E10" s="3">
+        <v>67300</v>
+      </c>
+      <c r="F10" s="3">
+        <v>177000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>220000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>242600</v>
+      </c>
+      <c r="I10" s="3">
+        <v>199900</v>
+      </c>
+      <c r="J10" s="3">
         <v>222000</v>
       </c>
-      <c r="F10" s="3">
-        <v>244800</v>
-      </c>
-      <c r="G10" s="3">
-        <v>201700</v>
-      </c>
-      <c r="H10" s="3">
-        <v>224000</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>144100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>142600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>26300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>227500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>261900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>171400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>109000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>197200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>107400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>121500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>64800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>54300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>50100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>41200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>39400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>35200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1030,87 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>24100</v>
+        <v>22600</v>
       </c>
       <c r="E12" s="3">
-        <v>19300</v>
+        <v>22300</v>
       </c>
       <c r="F12" s="3">
-        <v>19200</v>
+        <v>23900</v>
       </c>
       <c r="G12" s="3">
-        <v>18300</v>
+        <v>19100</v>
       </c>
       <c r="H12" s="3">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="I12" s="3">
+        <v>18100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K12" s="3">
         <v>17400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>19800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>19900</v>
-      </c>
-      <c r="L12" s="3">
-        <v>15600</v>
-      </c>
-      <c r="M12" s="3">
-        <v>18600</v>
       </c>
       <c r="N12" s="3">
         <v>15600</v>
       </c>
       <c r="O12" s="3">
+        <v>18600</v>
+      </c>
+      <c r="P12" s="3">
+        <v>15600</v>
+      </c>
+      <c r="Q12" s="3">
         <v>14300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>11600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>13100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>11000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>9800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>19900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>10000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>8500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>6400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>6600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,40 +1180,46 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K14" s="3">
         <v>5200</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1188,37 +1228,43 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>1500</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>700</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>800</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>235300</v>
+        <v>368700</v>
       </c>
       <c r="E17" s="3">
-        <v>321900</v>
+        <v>274800</v>
       </c>
       <c r="F17" s="3">
-        <v>346800</v>
+        <v>233100</v>
       </c>
       <c r="G17" s="3">
-        <v>320600</v>
+        <v>319000</v>
       </c>
       <c r="H17" s="3">
-        <v>311000</v>
+        <v>343700</v>
       </c>
       <c r="I17" s="3">
+        <v>317700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>308200</v>
+      </c>
+      <c r="K17" s="3">
         <v>411400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>378100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>443700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>371300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>343000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>296900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>218100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>227900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>193700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>205600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>199500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>206600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>199300</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y17" s="3">
         <v>163100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>195600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>147300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>88800</v>
+        <v>-16300</v>
       </c>
       <c r="E18" s="3">
-        <v>115500</v>
+        <v>-24700</v>
       </c>
       <c r="F18" s="3">
-        <v>134900</v>
+        <v>88000</v>
       </c>
       <c r="G18" s="3">
-        <v>113200</v>
+        <v>114500</v>
       </c>
       <c r="H18" s="3">
-        <v>135900</v>
+        <v>133700</v>
       </c>
       <c r="I18" s="3">
+        <v>112200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>134700</v>
+      </c>
+      <c r="K18" s="3">
         <v>53400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>57800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-49300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>113400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>147900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>92000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>51800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>142200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>65200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>79800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>32000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>29900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>16300</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y18" s="3">
         <v>14100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>6500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,79 +1547,87 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-44200</v>
+        <v>46600</v>
       </c>
       <c r="E20" s="3">
-        <v>-14400</v>
+        <v>39400</v>
       </c>
       <c r="F20" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="H20" s="3">
         <v>3300</v>
       </c>
-      <c r="G20" s="3">
-        <v>10900</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-46900</v>
-      </c>
       <c r="I20" s="3">
+        <v>10800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="K20" s="3">
         <v>4000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>15300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-77400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-18900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-17300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>22600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>26100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>41600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>9000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>2300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>7600</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y20" s="3">
         <v>2100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1605,49 +1679,55 @@
       <c r="S21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V21" s="3">
         <v>33000</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z21" s="3">
         <v>6600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>10</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>10</v>
@@ -1661,183 +1741,201 @@
       <c r="N22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>1200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>1000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>1100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>3600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>3300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>3200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>3000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>44600</v>
+        <v>30300</v>
       </c>
       <c r="E23" s="3">
-        <v>101200</v>
+        <v>14700</v>
       </c>
       <c r="F23" s="3">
-        <v>138200</v>
+        <v>44200</v>
       </c>
       <c r="G23" s="3">
-        <v>124100</v>
+        <v>100300</v>
       </c>
       <c r="H23" s="3">
-        <v>89000</v>
+        <v>136900</v>
       </c>
       <c r="I23" s="3">
+        <v>123000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>88200</v>
+      </c>
+      <c r="K23" s="3">
         <v>57400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>73000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-126700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>94500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>130600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>114600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>77600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>183200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>73000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>78200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>31500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>31100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>20400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>5600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>13100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>2900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F24" s="3">
         <v>6900</v>
       </c>
-      <c r="E24" s="3">
-        <v>15600</v>
-      </c>
-      <c r="F24" s="3">
-        <v>22300</v>
-      </c>
       <c r="G24" s="3">
-        <v>19300</v>
+        <v>15500</v>
       </c>
       <c r="H24" s="3">
-        <v>13900</v>
+        <v>22100</v>
       </c>
       <c r="I24" s="3">
+        <v>19200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>13800</v>
+      </c>
+      <c r="K24" s="3">
         <v>6600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>11300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-19700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>14800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>19100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>16600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>13000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>30700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>10500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-14700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>5900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>16200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>10300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>3300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>4900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>4700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>37700</v>
+        <v>24500</v>
       </c>
       <c r="E26" s="3">
-        <v>85600</v>
+        <v>11900</v>
       </c>
       <c r="F26" s="3">
-        <v>115900</v>
+        <v>37300</v>
       </c>
       <c r="G26" s="3">
-        <v>104800</v>
+        <v>84800</v>
       </c>
       <c r="H26" s="3">
-        <v>75100</v>
+        <v>114900</v>
       </c>
       <c r="I26" s="3">
+        <v>103800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>74400</v>
+      </c>
+      <c r="K26" s="3">
         <v>50800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>61700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-107000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>79700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>111500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>98000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>64500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>152400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>62600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>92900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>25500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>14900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>10100</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y26" s="3">
         <v>8200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>37700</v>
+        <v>24100</v>
       </c>
       <c r="E27" s="3">
-        <v>85500</v>
+        <v>11400</v>
       </c>
       <c r="F27" s="3">
-        <v>115800</v>
+        <v>37300</v>
       </c>
       <c r="G27" s="3">
-        <v>104900</v>
+        <v>84800</v>
       </c>
       <c r="H27" s="3">
-        <v>75100</v>
+        <v>114800</v>
       </c>
       <c r="I27" s="3">
+        <v>103900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>74400</v>
+      </c>
+      <c r="K27" s="3">
         <v>50800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>61700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-107000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>79700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>111500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>98000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>64500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>152400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>62600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>92900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>25500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>3200</v>
-      </c>
-      <c r="U27" s="3">
-        <v>800</v>
-      </c>
-      <c r="V27" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W27" s="3">
         <v>800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>44200</v>
+        <v>-46600</v>
       </c>
       <c r="E32" s="3">
-        <v>14400</v>
+        <v>-39400</v>
       </c>
       <c r="F32" s="3">
+        <v>43800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>14200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-3300</v>
       </c>
-      <c r="G32" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="H32" s="3">
-        <v>46900</v>
-      </c>
       <c r="I32" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>46500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-15300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>77400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>18900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>17300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-22600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-26100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-41600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-9000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-2300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-7600</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-2100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>37700</v>
+        <v>24100</v>
       </c>
       <c r="E33" s="3">
-        <v>85500</v>
+        <v>11400</v>
       </c>
       <c r="F33" s="3">
-        <v>115800</v>
+        <v>37300</v>
       </c>
       <c r="G33" s="3">
-        <v>104900</v>
+        <v>84800</v>
       </c>
       <c r="H33" s="3">
-        <v>75100</v>
+        <v>114800</v>
       </c>
       <c r="I33" s="3">
+        <v>103900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>74400</v>
+      </c>
+      <c r="K33" s="3">
         <v>50800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>61700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-107000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>79700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>111500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>98000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>64500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>152400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>62600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>92900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>25500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>3200</v>
-      </c>
-      <c r="U33" s="3">
-        <v>800</v>
-      </c>
-      <c r="V33" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W33" s="3">
         <v>800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>37700</v>
+        <v>24100</v>
       </c>
       <c r="E35" s="3">
-        <v>85500</v>
+        <v>11400</v>
       </c>
       <c r="F35" s="3">
-        <v>115800</v>
+        <v>37300</v>
       </c>
       <c r="G35" s="3">
-        <v>104900</v>
+        <v>84800</v>
       </c>
       <c r="H35" s="3">
-        <v>75100</v>
+        <v>114800</v>
       </c>
       <c r="I35" s="3">
+        <v>103900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>74400</v>
+      </c>
+      <c r="K35" s="3">
         <v>50800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>61700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-107000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>79700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>111500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>98000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>64500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>152400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>62600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>92900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>25500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>3200</v>
-      </c>
-      <c r="U35" s="3">
-        <v>800</v>
-      </c>
-      <c r="V35" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W35" s="3">
         <v>800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2919,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>392600</v>
+        <v>300900</v>
       </c>
       <c r="E41" s="3">
-        <v>375100</v>
+        <v>336400</v>
       </c>
       <c r="F41" s="3">
-        <v>351300</v>
+        <v>389000</v>
       </c>
       <c r="G41" s="3">
-        <v>344600</v>
+        <v>371800</v>
       </c>
       <c r="H41" s="3">
-        <v>230400</v>
+        <v>348100</v>
       </c>
       <c r="I41" s="3">
+        <v>341500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>228400</v>
+      </c>
+      <c r="K41" s="3">
         <v>234800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>171600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>204100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>321100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>431100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>165300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>204100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>166800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>61700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>61600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>88000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>167200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>74900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>145700</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,467 +3069,509 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1263200</v>
+        <v>1364900</v>
       </c>
       <c r="E43" s="3">
-        <v>1185200</v>
+        <v>1224900</v>
       </c>
       <c r="F43" s="3">
-        <v>1257500</v>
+        <v>1251800</v>
       </c>
       <c r="G43" s="3">
-        <v>1238300</v>
+        <v>1174500</v>
       </c>
       <c r="H43" s="3">
-        <v>1450700</v>
+        <v>1246100</v>
       </c>
       <c r="I43" s="3">
+        <v>1227100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1437600</v>
+      </c>
+      <c r="K43" s="3">
         <v>1473600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1384300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1357000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1226000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1001000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>900300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>875300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>953400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>957000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1390300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1719200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1509000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1421400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1287700</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F44" s="3">
         <v>7000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>7700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I44" s="3">
+        <v>9900</v>
+      </c>
+      <c r="J44" s="3">
         <v>6900</v>
-      </c>
-      <c r="G44" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H44" s="3">
-        <v>7000</v>
-      </c>
-      <c r="I44" s="3">
-        <v>8700</v>
-      </c>
-      <c r="J44" s="3">
-        <v>8200</v>
       </c>
       <c r="K44" s="3">
         <v>8700</v>
       </c>
       <c r="L44" s="3">
+        <v>8200</v>
+      </c>
+      <c r="M44" s="3">
+        <v>8700</v>
+      </c>
+      <c r="N44" s="3">
         <v>16400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>21400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>15800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>8500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>8300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>13300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>10600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>13600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>15100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>18900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>18500</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X44" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Y44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>791500</v>
+        <v>824400</v>
       </c>
       <c r="E45" s="3">
-        <v>831500</v>
+        <v>864300</v>
       </c>
       <c r="F45" s="3">
-        <v>745000</v>
+        <v>784300</v>
       </c>
       <c r="G45" s="3">
-        <v>727700</v>
+        <v>824000</v>
       </c>
       <c r="H45" s="3">
-        <v>731300</v>
+        <v>738300</v>
       </c>
       <c r="I45" s="3">
+        <v>721100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>724700</v>
+      </c>
+      <c r="K45" s="3">
         <v>1001300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1110800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1018200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>978100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>710400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>581500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>421600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>368100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>409800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>286300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>266700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>199200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>111500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>70400</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2454300</v>
+        <v>2500100</v>
       </c>
       <c r="E46" s="3">
-        <v>2399600</v>
+        <v>2433900</v>
       </c>
       <c r="F46" s="3">
-        <v>2360600</v>
+        <v>2432200</v>
       </c>
       <c r="G46" s="3">
-        <v>2320500</v>
+        <v>2378000</v>
       </c>
       <c r="H46" s="3">
-        <v>2419400</v>
+        <v>2339300</v>
       </c>
       <c r="I46" s="3">
+        <v>2299600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>2397500</v>
+      </c>
+      <c r="K46" s="3">
         <v>2718400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2675000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2588000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2541600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2163900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1662800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1509400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1496600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1441900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1748800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2087400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1890500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1626700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1522300</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>155700</v>
+        <v>195200</v>
       </c>
       <c r="E47" s="3">
-        <v>175000</v>
+        <v>152200</v>
       </c>
       <c r="F47" s="3">
-        <v>190400</v>
+        <v>154300</v>
       </c>
       <c r="G47" s="3">
-        <v>199500</v>
+        <v>173500</v>
       </c>
       <c r="H47" s="3">
-        <v>210300</v>
+        <v>188700</v>
       </c>
       <c r="I47" s="3">
+        <v>197700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>208400</v>
+      </c>
+      <c r="K47" s="3">
         <v>197200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>212500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>249100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>297900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>310000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>258300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>248900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>272600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>253800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>314900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>349900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>268400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>218800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>194900</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Y47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>28800</v>
+        <v>31700</v>
       </c>
       <c r="E48" s="3">
-        <v>23100</v>
+        <v>31300</v>
       </c>
       <c r="F48" s="3">
-        <v>19500</v>
+        <v>28500</v>
       </c>
       <c r="G48" s="3">
-        <v>18300</v>
+        <v>22900</v>
       </c>
       <c r="H48" s="3">
-        <v>18500</v>
+        <v>19300</v>
       </c>
       <c r="I48" s="3">
+        <v>18100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>18400</v>
+      </c>
+      <c r="K48" s="3">
         <v>15300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>15600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>15900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>14300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>13800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>14400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>14100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>12000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>11000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>10700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>10200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>9400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>8600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>8700</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>142400</v>
+        <v>138600</v>
       </c>
       <c r="E49" s="3">
+        <v>139800</v>
+      </c>
+      <c r="F49" s="3">
+        <v>141100</v>
+      </c>
+      <c r="G49" s="3">
+        <v>142300</v>
+      </c>
+      <c r="H49" s="3">
         <v>143600</v>
       </c>
-      <c r="F49" s="3">
-        <v>144900</v>
-      </c>
-      <c r="G49" s="3">
-        <v>146200</v>
-      </c>
-      <c r="H49" s="3">
-        <v>147400</v>
-      </c>
       <c r="I49" s="3">
+        <v>144800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>146100</v>
+      </c>
+      <c r="K49" s="3">
         <v>148700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>150000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>161900</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>10</v>
       </c>
@@ -3359,11 +3581,11 @@
       <c r="P49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3762,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>317300</v>
+        <v>356400</v>
       </c>
       <c r="E52" s="3">
-        <v>289900</v>
+        <v>336800</v>
       </c>
       <c r="F52" s="3">
-        <v>250200</v>
+        <v>314400</v>
       </c>
       <c r="G52" s="3">
-        <v>208200</v>
+        <v>287300</v>
       </c>
       <c r="H52" s="3">
-        <v>202400</v>
+        <v>248000</v>
       </c>
       <c r="I52" s="3">
+        <v>206300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>200600</v>
+      </c>
+      <c r="K52" s="3">
         <v>183300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>176700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>177400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>108200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>98300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>67800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>54000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>29900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>42900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>38800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>18600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>17700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>12400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>8400</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3098400</v>
+        <v>3221900</v>
       </c>
       <c r="E54" s="3">
-        <v>3031300</v>
+        <v>3094100</v>
       </c>
       <c r="F54" s="3">
-        <v>2965600</v>
+        <v>3070500</v>
       </c>
       <c r="G54" s="3">
-        <v>2892600</v>
+        <v>3004000</v>
       </c>
       <c r="H54" s="3">
-        <v>2998100</v>
+        <v>2938800</v>
       </c>
       <c r="I54" s="3">
+        <v>2866500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>2971000</v>
+      </c>
+      <c r="K54" s="3">
         <v>3262900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3229800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3192300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2962000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2586100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2003200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1826400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1811100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1749600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2113200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2466200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2186000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1866600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1734300</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,411 +4055,443 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>5500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>6200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>6300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>9700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>8700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>14800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>31100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>31800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>38800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>21900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>19700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>29800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>27100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>18600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>29400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>9700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>11700</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Y57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>722200</v>
+        <v>681300</v>
       </c>
       <c r="E58" s="3">
-        <v>725300</v>
+        <v>600400</v>
       </c>
       <c r="F58" s="3">
-        <v>783500</v>
+        <v>715700</v>
       </c>
       <c r="G58" s="3">
-        <v>936500</v>
+        <v>718700</v>
       </c>
       <c r="H58" s="3">
-        <v>959800</v>
+        <v>776500</v>
       </c>
       <c r="I58" s="3">
+        <v>928000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>951100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1003500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1045300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1007500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>882800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>701900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>657800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>605900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>738400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>951600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1402200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1893600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1587100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1618800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1541700</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Y58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>776600</v>
+        <v>699200</v>
       </c>
       <c r="E59" s="3">
-        <v>747800</v>
+        <v>731500</v>
       </c>
       <c r="F59" s="3">
-        <v>745600</v>
+        <v>769600</v>
       </c>
       <c r="G59" s="3">
-        <v>698700</v>
+        <v>741000</v>
       </c>
       <c r="H59" s="3">
-        <v>805100</v>
+        <v>738900</v>
       </c>
       <c r="I59" s="3">
+        <v>692400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>797900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1045100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1055700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1077900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>595500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>535200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>442300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>415200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>406500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>321700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>293700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>242300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>292200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>186800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>158000</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1501200</v>
+        <v>1389300</v>
       </c>
       <c r="E60" s="3">
-        <v>1475800</v>
+        <v>1335600</v>
       </c>
       <c r="F60" s="3">
-        <v>1534700</v>
+        <v>1487600</v>
       </c>
       <c r="G60" s="3">
-        <v>1641400</v>
+        <v>1462500</v>
       </c>
       <c r="H60" s="3">
-        <v>1771200</v>
+        <v>1520800</v>
       </c>
       <c r="I60" s="3">
+        <v>1626600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1755200</v>
+      </c>
+      <c r="K60" s="3">
         <v>2058300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2109800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2100300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1509400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1269000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1138900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1043000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1164600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1303200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1723000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2154400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1908700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1815300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1711400</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>380100</v>
+        <v>607800</v>
       </c>
       <c r="E61" s="3">
-        <v>385300</v>
+        <v>533300</v>
       </c>
       <c r="F61" s="3">
-        <v>371700</v>
+        <v>376700</v>
       </c>
       <c r="G61" s="3">
-        <v>316500</v>
+        <v>381800</v>
       </c>
       <c r="H61" s="3">
-        <v>404700</v>
+        <v>368300</v>
       </c>
       <c r="I61" s="3">
+        <v>313600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>401000</v>
+      </c>
+      <c r="K61" s="3">
         <v>469300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>440800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>441600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>384400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>338000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>32100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>22900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>52200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>47300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>35300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>24800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>19900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>5000</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>28300</v>
+        <v>31000</v>
       </c>
       <c r="E62" s="3">
-        <v>27000</v>
+        <v>30800</v>
       </c>
       <c r="F62" s="3">
-        <v>8500</v>
+        <v>28000</v>
       </c>
       <c r="G62" s="3">
+        <v>26800</v>
+      </c>
+      <c r="H62" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I62" s="3">
         <v>7600</v>
       </c>
-      <c r="H62" s="3">
-        <v>7200</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K62" s="3">
         <v>10300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>11700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>10000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>52000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>51700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>42600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>33400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>27200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>10</v>
       </c>
@@ -4212,17 +4504,23 @@
       <c r="V62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1915500</v>
+        <v>2034100</v>
       </c>
       <c r="E66" s="3">
-        <v>1894100</v>
+        <v>1908800</v>
       </c>
       <c r="F66" s="3">
-        <v>1920800</v>
+        <v>1898200</v>
       </c>
       <c r="G66" s="3">
-        <v>1971300</v>
+        <v>1877000</v>
       </c>
       <c r="H66" s="3">
-        <v>2188900</v>
+        <v>1903500</v>
       </c>
       <c r="I66" s="3">
+        <v>1953500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2169200</v>
+      </c>
+      <c r="K66" s="3">
         <v>2537800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2562200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2551900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1945800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1658700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1185500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1108400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1214700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1355400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1770300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2189700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1933500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1835100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1716400</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4731,22 +5067,28 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
         <v>100100</v>
       </c>
-      <c r="V70" s="3">
+      <c r="X70" s="3">
         <v>97600</v>
       </c>
-      <c r="W70" s="3">
-        <v>0</v>
-      </c>
-      <c r="X70" s="3">
-        <v>0</v>
-      </c>
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>751100</v>
+        <v>779800</v>
       </c>
       <c r="E72" s="3">
-        <v>713400</v>
+        <v>755700</v>
       </c>
       <c r="F72" s="3">
-        <v>627800</v>
+        <v>744300</v>
       </c>
       <c r="G72" s="3">
-        <v>512000</v>
+        <v>706900</v>
       </c>
       <c r="H72" s="3">
-        <v>407200</v>
+        <v>622200</v>
       </c>
       <c r="I72" s="3">
+        <v>507400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>403500</v>
+      </c>
+      <c r="K72" s="3">
         <v>332100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>281300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>235000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>629300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>549500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>443800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>361300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>260300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>74600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>30400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-35600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-58600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-72800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-82900</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1182900</v>
+        <v>1187800</v>
       </c>
       <c r="E76" s="3">
-        <v>1137200</v>
+        <v>1185300</v>
       </c>
       <c r="F76" s="3">
-        <v>1044800</v>
+        <v>1172300</v>
       </c>
       <c r="G76" s="3">
-        <v>921400</v>
+        <v>1126900</v>
       </c>
       <c r="H76" s="3">
-        <v>809100</v>
+        <v>1035400</v>
       </c>
       <c r="I76" s="3">
+        <v>913000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>801800</v>
+      </c>
+      <c r="K76" s="3">
         <v>725000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>667500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>640500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1016200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>927400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>817700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>718000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>596400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>394200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>342900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>276500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>252500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-68600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-79700</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>37700</v>
+        <v>24100</v>
       </c>
       <c r="E81" s="3">
-        <v>85500</v>
+        <v>11400</v>
       </c>
       <c r="F81" s="3">
-        <v>115800</v>
+        <v>37300</v>
       </c>
       <c r="G81" s="3">
-        <v>104900</v>
+        <v>84800</v>
       </c>
       <c r="H81" s="3">
-        <v>75100</v>
+        <v>114800</v>
       </c>
       <c r="I81" s="3">
+        <v>103900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>74400</v>
+      </c>
+      <c r="K81" s="3">
         <v>50800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>61700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-107000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>79700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>111500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>98000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>64500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>152400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>62600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>92900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>25500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>3200</v>
-      </c>
-      <c r="U81" s="3">
-        <v>800</v>
-      </c>
-      <c r="V81" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W81" s="3">
         <v>800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5470,14 +5868,14 @@
         <v>0</v>
       </c>
       <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
         <v>800</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>10</v>
       </c>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6270,14 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5896,14 +6330,14 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>99300</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V89" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>10</v>
       </c>
@@ -5913,8 +6347,14 @@
       <c r="Y89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5994,14 +6436,14 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-800</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>10</v>
       </c>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6207,14 +6667,14 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-187300</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>10</v>
       </c>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +7021,14 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6589,14 +7081,14 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>180500</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>10</v>
       </c>
@@ -6606,8 +7098,14 @@
       <c r="Y100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6660,14 +7158,14 @@
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V101" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="W101" s="3" t="s">
         <v>10</v>
       </c>
@@ -6677,8 +7175,14 @@
       <c r="Y101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6731,14 +7235,14 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>92300</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V102" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="W102" s="3" t="s">
         <v>10</v>
       </c>
@@ -6746,6 +7250,12 @@
         <v>10</v>
       </c>
       <c r="Y102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LX_QTR_FIN.xlsx
@@ -778,25 +778,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>352300</v>
+        <v>335900</v>
       </c>
       <c r="E8" s="3">
-        <v>250100</v>
+        <v>238400</v>
       </c>
       <c r="F8" s="3">
-        <v>321100</v>
+        <v>306100</v>
       </c>
       <c r="G8" s="3">
-        <v>433500</v>
+        <v>413300</v>
       </c>
       <c r="H8" s="3">
-        <v>477300</v>
+        <v>455000</v>
       </c>
       <c r="I8" s="3">
-        <v>429900</v>
+        <v>409800</v>
       </c>
       <c r="J8" s="3">
-        <v>442900</v>
+        <v>422200</v>
       </c>
       <c r="K8" s="3">
         <v>464800</v>
@@ -855,25 +855,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>259900</v>
+        <v>247700</v>
       </c>
       <c r="E9" s="3">
-        <v>182800</v>
+        <v>174200</v>
       </c>
       <c r="F9" s="3">
-        <v>144100</v>
+        <v>137400</v>
       </c>
       <c r="G9" s="3">
-        <v>213500</v>
+        <v>203500</v>
       </c>
       <c r="H9" s="3">
-        <v>234700</v>
+        <v>223700</v>
       </c>
       <c r="I9" s="3">
-        <v>229900</v>
+        <v>219200</v>
       </c>
       <c r="J9" s="3">
-        <v>221000</v>
+        <v>210600</v>
       </c>
       <c r="K9" s="3">
         <v>320600</v>
@@ -932,25 +932,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>92500</v>
+        <v>88100</v>
       </c>
       <c r="E10" s="3">
-        <v>67300</v>
+        <v>64100</v>
       </c>
       <c r="F10" s="3">
-        <v>177000</v>
+        <v>168700</v>
       </c>
       <c r="G10" s="3">
-        <v>220000</v>
+        <v>209700</v>
       </c>
       <c r="H10" s="3">
-        <v>242600</v>
+        <v>231300</v>
       </c>
       <c r="I10" s="3">
-        <v>199900</v>
+        <v>190600</v>
       </c>
       <c r="J10" s="3">
-        <v>222000</v>
+        <v>211600</v>
       </c>
       <c r="K10" s="3">
         <v>144100</v>
@@ -1038,25 +1038,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>22600</v>
+        <v>21500</v>
       </c>
       <c r="E12" s="3">
-        <v>22300</v>
+        <v>21200</v>
       </c>
       <c r="F12" s="3">
-        <v>23900</v>
+        <v>22800</v>
       </c>
       <c r="G12" s="3">
-        <v>19100</v>
+        <v>18200</v>
       </c>
       <c r="H12" s="3">
-        <v>19000</v>
+        <v>18200</v>
       </c>
       <c r="I12" s="3">
-        <v>18100</v>
+        <v>17300</v>
       </c>
       <c r="J12" s="3">
-        <v>13900</v>
+        <v>13200</v>
       </c>
       <c r="K12" s="3">
         <v>17400</v>
@@ -1210,7 +1210,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="K14" s="3">
         <v>5200</v>
@@ -1372,25 +1372,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>368700</v>
+        <v>351400</v>
       </c>
       <c r="E17" s="3">
-        <v>274800</v>
+        <v>261900</v>
       </c>
       <c r="F17" s="3">
-        <v>233100</v>
+        <v>222200</v>
       </c>
       <c r="G17" s="3">
-        <v>319000</v>
+        <v>304100</v>
       </c>
       <c r="H17" s="3">
-        <v>343700</v>
+        <v>327600</v>
       </c>
       <c r="I17" s="3">
-        <v>317700</v>
+        <v>302800</v>
       </c>
       <c r="J17" s="3">
-        <v>308200</v>
+        <v>293800</v>
       </c>
       <c r="K17" s="3">
         <v>411400</v>
@@ -1449,25 +1449,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-16300</v>
+        <v>-15600</v>
       </c>
       <c r="E18" s="3">
-        <v>-24700</v>
+        <v>-23500</v>
       </c>
       <c r="F18" s="3">
-        <v>88000</v>
+        <v>83900</v>
       </c>
       <c r="G18" s="3">
-        <v>114500</v>
+        <v>109200</v>
       </c>
       <c r="H18" s="3">
-        <v>133700</v>
+        <v>127400</v>
       </c>
       <c r="I18" s="3">
-        <v>112200</v>
+        <v>106900</v>
       </c>
       <c r="J18" s="3">
-        <v>134700</v>
+        <v>128400</v>
       </c>
       <c r="K18" s="3">
         <v>53400</v>
@@ -1555,25 +1555,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>46600</v>
+        <v>44500</v>
       </c>
       <c r="E20" s="3">
-        <v>39400</v>
+        <v>37600</v>
       </c>
       <c r="F20" s="3">
-        <v>-43800</v>
+        <v>-41800</v>
       </c>
       <c r="G20" s="3">
-        <v>-14200</v>
+        <v>-13600</v>
       </c>
       <c r="H20" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="I20" s="3">
-        <v>10800</v>
+        <v>10300</v>
       </c>
       <c r="J20" s="3">
-        <v>-46500</v>
+        <v>-44300</v>
       </c>
       <c r="K20" s="3">
         <v>4000</v>
@@ -1786,25 +1786,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>30300</v>
+        <v>28900</v>
       </c>
       <c r="E23" s="3">
-        <v>14700</v>
+        <v>14000</v>
       </c>
       <c r="F23" s="3">
-        <v>44200</v>
+        <v>42100</v>
       </c>
       <c r="G23" s="3">
-        <v>100300</v>
+        <v>95600</v>
       </c>
       <c r="H23" s="3">
-        <v>136900</v>
+        <v>130500</v>
       </c>
       <c r="I23" s="3">
-        <v>123000</v>
+        <v>117300</v>
       </c>
       <c r="J23" s="3">
-        <v>88200</v>
+        <v>84100</v>
       </c>
       <c r="K23" s="3">
         <v>57400</v>
@@ -1863,25 +1863,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="E24" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="F24" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="G24" s="3">
-        <v>15500</v>
+        <v>14800</v>
       </c>
       <c r="H24" s="3">
-        <v>22100</v>
+        <v>21000</v>
       </c>
       <c r="I24" s="3">
-        <v>19200</v>
+        <v>18300</v>
       </c>
       <c r="J24" s="3">
-        <v>13800</v>
+        <v>13100</v>
       </c>
       <c r="K24" s="3">
         <v>6600</v>
@@ -2017,25 +2017,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>24500</v>
+        <v>23300</v>
       </c>
       <c r="E26" s="3">
-        <v>11900</v>
+        <v>11300</v>
       </c>
       <c r="F26" s="3">
-        <v>37300</v>
+        <v>35600</v>
       </c>
       <c r="G26" s="3">
-        <v>84800</v>
+        <v>80800</v>
       </c>
       <c r="H26" s="3">
-        <v>114900</v>
+        <v>109500</v>
       </c>
       <c r="I26" s="3">
-        <v>103800</v>
+        <v>99000</v>
       </c>
       <c r="J26" s="3">
-        <v>74400</v>
+        <v>70900</v>
       </c>
       <c r="K26" s="3">
         <v>50800</v>
@@ -2094,25 +2094,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>24100</v>
+        <v>22900</v>
       </c>
       <c r="E27" s="3">
-        <v>11400</v>
+        <v>10900</v>
       </c>
       <c r="F27" s="3">
-        <v>37300</v>
+        <v>35600</v>
       </c>
       <c r="G27" s="3">
-        <v>84800</v>
+        <v>80800</v>
       </c>
       <c r="H27" s="3">
-        <v>114800</v>
+        <v>109400</v>
       </c>
       <c r="I27" s="3">
-        <v>103900</v>
+        <v>99000</v>
       </c>
       <c r="J27" s="3">
-        <v>74400</v>
+        <v>70900</v>
       </c>
       <c r="K27" s="3">
         <v>50800</v>
@@ -2479,25 +2479,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-46600</v>
+        <v>-44500</v>
       </c>
       <c r="E32" s="3">
-        <v>-39400</v>
+        <v>-37600</v>
       </c>
       <c r="F32" s="3">
-        <v>43800</v>
+        <v>41800</v>
       </c>
       <c r="G32" s="3">
-        <v>14200</v>
+        <v>13600</v>
       </c>
       <c r="H32" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="I32" s="3">
-        <v>-10800</v>
+        <v>-10300</v>
       </c>
       <c r="J32" s="3">
-        <v>46500</v>
+        <v>44300</v>
       </c>
       <c r="K32" s="3">
         <v>-4000</v>
@@ -2556,25 +2556,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>24100</v>
+        <v>22900</v>
       </c>
       <c r="E33" s="3">
-        <v>11400</v>
+        <v>10900</v>
       </c>
       <c r="F33" s="3">
-        <v>37300</v>
+        <v>35600</v>
       </c>
       <c r="G33" s="3">
-        <v>84800</v>
+        <v>80800</v>
       </c>
       <c r="H33" s="3">
-        <v>114800</v>
+        <v>109400</v>
       </c>
       <c r="I33" s="3">
-        <v>103900</v>
+        <v>99000</v>
       </c>
       <c r="J33" s="3">
-        <v>74400</v>
+        <v>70900</v>
       </c>
       <c r="K33" s="3">
         <v>50800</v>
@@ -2710,25 +2710,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>24100</v>
+        <v>22900</v>
       </c>
       <c r="E35" s="3">
-        <v>11400</v>
+        <v>10900</v>
       </c>
       <c r="F35" s="3">
-        <v>37300</v>
+        <v>35600</v>
       </c>
       <c r="G35" s="3">
-        <v>84800</v>
+        <v>80800</v>
       </c>
       <c r="H35" s="3">
-        <v>114800</v>
+        <v>109400</v>
       </c>
       <c r="I35" s="3">
-        <v>103900</v>
+        <v>99000</v>
       </c>
       <c r="J35" s="3">
-        <v>74400</v>
+        <v>70900</v>
       </c>
       <c r="K35" s="3">
         <v>50800</v>
@@ -2927,25 +2927,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>300900</v>
+        <v>286800</v>
       </c>
       <c r="E41" s="3">
-        <v>336400</v>
+        <v>320600</v>
       </c>
       <c r="F41" s="3">
-        <v>389000</v>
+        <v>370800</v>
       </c>
       <c r="G41" s="3">
-        <v>371800</v>
+        <v>354400</v>
       </c>
       <c r="H41" s="3">
-        <v>348100</v>
+        <v>331800</v>
       </c>
       <c r="I41" s="3">
-        <v>341500</v>
+        <v>325500</v>
       </c>
       <c r="J41" s="3">
-        <v>228400</v>
+        <v>217700</v>
       </c>
       <c r="K41" s="3">
         <v>234800</v>
@@ -3081,25 +3081,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1364900</v>
+        <v>1301100</v>
       </c>
       <c r="E43" s="3">
-        <v>1224900</v>
+        <v>1167700</v>
       </c>
       <c r="F43" s="3">
-        <v>1251800</v>
+        <v>1193300</v>
       </c>
       <c r="G43" s="3">
-        <v>1174500</v>
+        <v>1119600</v>
       </c>
       <c r="H43" s="3">
-        <v>1246100</v>
+        <v>1187800</v>
       </c>
       <c r="I43" s="3">
-        <v>1227100</v>
+        <v>1169700</v>
       </c>
       <c r="J43" s="3">
-        <v>1437600</v>
+        <v>1370400</v>
       </c>
       <c r="K43" s="3">
         <v>1473600</v>
@@ -3158,25 +3158,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9800</v>
+        <v>9400</v>
       </c>
       <c r="E44" s="3">
-        <v>8300</v>
+        <v>7900</v>
       </c>
       <c r="F44" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="G44" s="3">
-        <v>7700</v>
+        <v>7300</v>
       </c>
       <c r="H44" s="3">
-        <v>6800</v>
+        <v>6500</v>
       </c>
       <c r="I44" s="3">
-        <v>9900</v>
+        <v>9400</v>
       </c>
       <c r="J44" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="K44" s="3">
         <v>8700</v>
@@ -3235,25 +3235,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>824400</v>
+        <v>785900</v>
       </c>
       <c r="E45" s="3">
-        <v>864300</v>
+        <v>823900</v>
       </c>
       <c r="F45" s="3">
-        <v>784300</v>
+        <v>747600</v>
       </c>
       <c r="G45" s="3">
-        <v>824000</v>
+        <v>785500</v>
       </c>
       <c r="H45" s="3">
-        <v>738300</v>
+        <v>703800</v>
       </c>
       <c r="I45" s="3">
-        <v>721100</v>
+        <v>687400</v>
       </c>
       <c r="J45" s="3">
-        <v>724700</v>
+        <v>690800</v>
       </c>
       <c r="K45" s="3">
         <v>1001300</v>
@@ -3312,25 +3312,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2500100</v>
+        <v>2383100</v>
       </c>
       <c r="E46" s="3">
-        <v>2433900</v>
+        <v>2320100</v>
       </c>
       <c r="F46" s="3">
-        <v>2432200</v>
+        <v>2318400</v>
       </c>
       <c r="G46" s="3">
-        <v>2378000</v>
+        <v>2266800</v>
       </c>
       <c r="H46" s="3">
-        <v>2339300</v>
+        <v>2229900</v>
       </c>
       <c r="I46" s="3">
-        <v>2299600</v>
+        <v>2192000</v>
       </c>
       <c r="J46" s="3">
-        <v>2397500</v>
+        <v>2285400</v>
       </c>
       <c r="K46" s="3">
         <v>2718400</v>
@@ -3389,25 +3389,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>195200</v>
+        <v>186100</v>
       </c>
       <c r="E47" s="3">
-        <v>152200</v>
+        <v>145100</v>
       </c>
       <c r="F47" s="3">
-        <v>154300</v>
+        <v>147100</v>
       </c>
       <c r="G47" s="3">
-        <v>173500</v>
+        <v>165400</v>
       </c>
       <c r="H47" s="3">
-        <v>188700</v>
+        <v>179900</v>
       </c>
       <c r="I47" s="3">
-        <v>197700</v>
+        <v>188500</v>
       </c>
       <c r="J47" s="3">
-        <v>208400</v>
+        <v>198700</v>
       </c>
       <c r="K47" s="3">
         <v>197200</v>
@@ -3466,25 +3466,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31700</v>
+        <v>30200</v>
       </c>
       <c r="E48" s="3">
-        <v>31300</v>
+        <v>29900</v>
       </c>
       <c r="F48" s="3">
-        <v>28500</v>
+        <v>27200</v>
       </c>
       <c r="G48" s="3">
-        <v>22900</v>
+        <v>21800</v>
       </c>
       <c r="H48" s="3">
-        <v>19300</v>
+        <v>18400</v>
       </c>
       <c r="I48" s="3">
-        <v>18100</v>
+        <v>17200</v>
       </c>
       <c r="J48" s="3">
-        <v>18400</v>
+        <v>17500</v>
       </c>
       <c r="K48" s="3">
         <v>15300</v>
@@ -3543,25 +3543,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>138600</v>
+        <v>132100</v>
       </c>
       <c r="E49" s="3">
-        <v>139800</v>
+        <v>133300</v>
       </c>
       <c r="F49" s="3">
-        <v>141100</v>
+        <v>134500</v>
       </c>
       <c r="G49" s="3">
-        <v>142300</v>
+        <v>135700</v>
       </c>
       <c r="H49" s="3">
-        <v>143600</v>
+        <v>136900</v>
       </c>
       <c r="I49" s="3">
-        <v>144800</v>
+        <v>138100</v>
       </c>
       <c r="J49" s="3">
-        <v>146100</v>
+        <v>139300</v>
       </c>
       <c r="K49" s="3">
         <v>148700</v>
@@ -3774,25 +3774,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>356400</v>
+        <v>339700</v>
       </c>
       <c r="E52" s="3">
-        <v>336800</v>
+        <v>321000</v>
       </c>
       <c r="F52" s="3">
-        <v>314400</v>
+        <v>299700</v>
       </c>
       <c r="G52" s="3">
-        <v>287300</v>
+        <v>273800</v>
       </c>
       <c r="H52" s="3">
-        <v>248000</v>
+        <v>236400</v>
       </c>
       <c r="I52" s="3">
-        <v>206300</v>
+        <v>196700</v>
       </c>
       <c r="J52" s="3">
-        <v>200600</v>
+        <v>191200</v>
       </c>
       <c r="K52" s="3">
         <v>183300</v>
@@ -3928,25 +3928,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3221900</v>
+        <v>3071200</v>
       </c>
       <c r="E54" s="3">
-        <v>3094100</v>
+        <v>2949400</v>
       </c>
       <c r="F54" s="3">
-        <v>3070500</v>
+        <v>2926800</v>
       </c>
       <c r="G54" s="3">
-        <v>3004000</v>
+        <v>2863500</v>
       </c>
       <c r="H54" s="3">
-        <v>2938800</v>
+        <v>2801400</v>
       </c>
       <c r="I54" s="3">
-        <v>2866500</v>
+        <v>2732500</v>
       </c>
       <c r="J54" s="3">
-        <v>2971000</v>
+        <v>2832000</v>
       </c>
       <c r="K54" s="3">
         <v>3262900</v>
@@ -4063,25 +4063,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8800</v>
+        <v>8400</v>
       </c>
       <c r="E57" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="F57" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G57" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="H57" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="I57" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="J57" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="K57" s="3">
         <v>9700</v>
@@ -4140,25 +4140,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>681300</v>
+        <v>649400</v>
       </c>
       <c r="E58" s="3">
-        <v>600400</v>
+        <v>572300</v>
       </c>
       <c r="F58" s="3">
-        <v>715700</v>
+        <v>682200</v>
       </c>
       <c r="G58" s="3">
-        <v>718700</v>
+        <v>685100</v>
       </c>
       <c r="H58" s="3">
-        <v>776500</v>
+        <v>740200</v>
       </c>
       <c r="I58" s="3">
-        <v>928000</v>
+        <v>884600</v>
       </c>
       <c r="J58" s="3">
-        <v>951100</v>
+        <v>906600</v>
       </c>
       <c r="K58" s="3">
         <v>1003500</v>
@@ -4217,25 +4217,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>699200</v>
+        <v>666500</v>
       </c>
       <c r="E59" s="3">
-        <v>731500</v>
+        <v>697300</v>
       </c>
       <c r="F59" s="3">
-        <v>769600</v>
+        <v>733600</v>
       </c>
       <c r="G59" s="3">
-        <v>741000</v>
+        <v>706300</v>
       </c>
       <c r="H59" s="3">
-        <v>738900</v>
+        <v>704300</v>
       </c>
       <c r="I59" s="3">
-        <v>692400</v>
+        <v>660000</v>
       </c>
       <c r="J59" s="3">
-        <v>797900</v>
+        <v>760500</v>
       </c>
       <c r="K59" s="3">
         <v>1045100</v>
@@ -4294,25 +4294,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1389300</v>
+        <v>1324300</v>
       </c>
       <c r="E60" s="3">
-        <v>1335600</v>
+        <v>1273100</v>
       </c>
       <c r="F60" s="3">
-        <v>1487600</v>
+        <v>1418000</v>
       </c>
       <c r="G60" s="3">
-        <v>1462500</v>
+        <v>1394100</v>
       </c>
       <c r="H60" s="3">
-        <v>1520800</v>
+        <v>1449700</v>
       </c>
       <c r="I60" s="3">
-        <v>1626600</v>
+        <v>1550500</v>
       </c>
       <c r="J60" s="3">
-        <v>1755200</v>
+        <v>1673100</v>
       </c>
       <c r="K60" s="3">
         <v>2058300</v>
@@ -4371,25 +4371,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>607800</v>
+        <v>579400</v>
       </c>
       <c r="E61" s="3">
-        <v>533300</v>
+        <v>508400</v>
       </c>
       <c r="F61" s="3">
-        <v>376700</v>
+        <v>359100</v>
       </c>
       <c r="G61" s="3">
-        <v>381800</v>
+        <v>364000</v>
       </c>
       <c r="H61" s="3">
-        <v>368300</v>
+        <v>351100</v>
       </c>
       <c r="I61" s="3">
-        <v>313600</v>
+        <v>298900</v>
       </c>
       <c r="J61" s="3">
-        <v>401000</v>
+        <v>382200</v>
       </c>
       <c r="K61" s="3">
         <v>469300</v>
@@ -4448,25 +4448,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>31000</v>
+        <v>29600</v>
       </c>
       <c r="E62" s="3">
-        <v>30800</v>
+        <v>29300</v>
       </c>
       <c r="F62" s="3">
-        <v>28000</v>
+        <v>26700</v>
       </c>
       <c r="G62" s="3">
-        <v>26800</v>
+        <v>25500</v>
       </c>
       <c r="H62" s="3">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="I62" s="3">
-        <v>7600</v>
+        <v>7200</v>
       </c>
       <c r="J62" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="K62" s="3">
         <v>10300</v>
@@ -4756,25 +4756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2034100</v>
+        <v>1939000</v>
       </c>
       <c r="E66" s="3">
-        <v>1908800</v>
+        <v>1819500</v>
       </c>
       <c r="F66" s="3">
-        <v>1898200</v>
+        <v>1809400</v>
       </c>
       <c r="G66" s="3">
-        <v>1877000</v>
+        <v>1789200</v>
       </c>
       <c r="H66" s="3">
-        <v>1903500</v>
+        <v>1814500</v>
       </c>
       <c r="I66" s="3">
-        <v>1953500</v>
+        <v>1862100</v>
       </c>
       <c r="J66" s="3">
-        <v>2169200</v>
+        <v>2067700</v>
       </c>
       <c r="K66" s="3">
         <v>2537800</v>
@@ -5170,25 +5170,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>779800</v>
+        <v>743300</v>
       </c>
       <c r="E72" s="3">
-        <v>755700</v>
+        <v>720400</v>
       </c>
       <c r="F72" s="3">
-        <v>744300</v>
+        <v>709500</v>
       </c>
       <c r="G72" s="3">
-        <v>706900</v>
+        <v>673900</v>
       </c>
       <c r="H72" s="3">
-        <v>622200</v>
+        <v>593100</v>
       </c>
       <c r="I72" s="3">
-        <v>507400</v>
+        <v>483700</v>
       </c>
       <c r="J72" s="3">
-        <v>403500</v>
+        <v>384600</v>
       </c>
       <c r="K72" s="3">
         <v>332100</v>
@@ -5478,25 +5478,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1187800</v>
+        <v>1132300</v>
       </c>
       <c r="E76" s="3">
-        <v>1185300</v>
+        <v>1129900</v>
       </c>
       <c r="F76" s="3">
-        <v>1172300</v>
+        <v>1117400</v>
       </c>
       <c r="G76" s="3">
-        <v>1126900</v>
+        <v>1074200</v>
       </c>
       <c r="H76" s="3">
-        <v>1035400</v>
+        <v>986900</v>
       </c>
       <c r="I76" s="3">
-        <v>913000</v>
+        <v>870300</v>
       </c>
       <c r="J76" s="3">
-        <v>801800</v>
+        <v>764300</v>
       </c>
       <c r="K76" s="3">
         <v>725000</v>
@@ -5714,25 +5714,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>24100</v>
+        <v>22900</v>
       </c>
       <c r="E81" s="3">
-        <v>11400</v>
+        <v>10900</v>
       </c>
       <c r="F81" s="3">
-        <v>37300</v>
+        <v>35600</v>
       </c>
       <c r="G81" s="3">
-        <v>84800</v>
+        <v>80800</v>
       </c>
       <c r="H81" s="3">
-        <v>114800</v>
+        <v>109400</v>
       </c>
       <c r="I81" s="3">
-        <v>103900</v>
+        <v>99000</v>
       </c>
       <c r="J81" s="3">
-        <v>74400</v>
+        <v>70900</v>
       </c>
       <c r="K81" s="3">
         <v>50800</v>

--- a/AAII_Financials/Quarterly/LX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>LX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>335900</v>
+        <v>386400</v>
       </c>
       <c r="E8" s="3">
-        <v>238400</v>
+        <v>346500</v>
       </c>
       <c r="F8" s="3">
-        <v>306100</v>
+        <v>245900</v>
       </c>
       <c r="G8" s="3">
-        <v>413300</v>
+        <v>315800</v>
       </c>
       <c r="H8" s="3">
-        <v>455000</v>
+        <v>426400</v>
       </c>
       <c r="I8" s="3">
-        <v>409800</v>
+        <v>469500</v>
       </c>
       <c r="J8" s="3">
+        <v>422800</v>
+      </c>
+      <c r="K8" s="3">
         <v>422200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>464800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>435900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>394400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>484700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>490900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>388900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>269900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>370200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>258900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>285400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>231500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>236500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>215600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>195500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>177200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>202100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>155000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>247700</v>
+        <v>257500</v>
       </c>
       <c r="E9" s="3">
-        <v>174200</v>
+        <v>255600</v>
       </c>
       <c r="F9" s="3">
-        <v>137400</v>
+        <v>179700</v>
       </c>
       <c r="G9" s="3">
-        <v>203500</v>
+        <v>141700</v>
       </c>
       <c r="H9" s="3">
-        <v>223700</v>
+        <v>210000</v>
       </c>
       <c r="I9" s="3">
-        <v>219200</v>
+        <v>230800</v>
       </c>
       <c r="J9" s="3">
+        <v>226200</v>
+      </c>
+      <c r="K9" s="3">
         <v>210600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>320600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>293300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>368100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>257200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>229000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>217500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>160900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>173000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>151500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>164000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>166700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>182200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>165500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>154200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>137800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>167000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>125700</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>88100</v>
+        <v>128900</v>
       </c>
       <c r="E10" s="3">
-        <v>64100</v>
+        <v>90900</v>
       </c>
       <c r="F10" s="3">
-        <v>168700</v>
+        <v>66200</v>
       </c>
       <c r="G10" s="3">
-        <v>209700</v>
+        <v>174100</v>
       </c>
       <c r="H10" s="3">
-        <v>231300</v>
+        <v>216400</v>
       </c>
       <c r="I10" s="3">
-        <v>190600</v>
+        <v>238600</v>
       </c>
       <c r="J10" s="3">
+        <v>196600</v>
+      </c>
+      <c r="K10" s="3">
         <v>211600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>144100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>142600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>26300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>227500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>261900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>171400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>109000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>197200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>107400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>121500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>64800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>54300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>50100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>41200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>39400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>35200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>21500</v>
+        <v>20200</v>
       </c>
       <c r="E12" s="3">
-        <v>21200</v>
+        <v>22200</v>
       </c>
       <c r="F12" s="3">
-        <v>22800</v>
+        <v>21900</v>
       </c>
       <c r="G12" s="3">
-        <v>18200</v>
+        <v>23500</v>
       </c>
       <c r="H12" s="3">
-        <v>18200</v>
+        <v>18800</v>
       </c>
       <c r="I12" s="3">
-        <v>17300</v>
+        <v>18700</v>
       </c>
       <c r="J12" s="3">
+        <v>17800</v>
+      </c>
+      <c r="K12" s="3">
         <v>13200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>17400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>19800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>19900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>15600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>18600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>15600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>14300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>13100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>11000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>9800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>19900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>10000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>8500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>6400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>6600</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1197,32 +1217,32 @@
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
         <v>4700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5200</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1234,23 +1254,23 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>1500</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>700</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="3">
         <v>100</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
@@ -1258,13 +1278,16 @@
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>800</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>351400</v>
+        <v>353700</v>
       </c>
       <c r="E17" s="3">
-        <v>261900</v>
+        <v>362600</v>
       </c>
       <c r="F17" s="3">
-        <v>222200</v>
+        <v>270200</v>
       </c>
       <c r="G17" s="3">
-        <v>304100</v>
+        <v>229300</v>
       </c>
       <c r="H17" s="3">
-        <v>327600</v>
+        <v>313800</v>
       </c>
       <c r="I17" s="3">
-        <v>302800</v>
+        <v>338000</v>
       </c>
       <c r="J17" s="3">
+        <v>312400</v>
+      </c>
+      <c r="K17" s="3">
         <v>293800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>411400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>378100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>443700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>371300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>343000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>296900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>218100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>227900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>193700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>205600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>199500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>206600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>199300</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z17" s="3">
         <v>163100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>195600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>147300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-15600</v>
+        <v>32700</v>
       </c>
       <c r="E18" s="3">
-        <v>-23500</v>
+        <v>-16100</v>
       </c>
       <c r="F18" s="3">
-        <v>83900</v>
+        <v>-24300</v>
       </c>
       <c r="G18" s="3">
-        <v>109200</v>
+        <v>86600</v>
       </c>
       <c r="H18" s="3">
-        <v>127400</v>
+        <v>112600</v>
       </c>
       <c r="I18" s="3">
-        <v>106900</v>
+        <v>131500</v>
       </c>
       <c r="J18" s="3">
+        <v>110300</v>
+      </c>
+      <c r="K18" s="3">
         <v>128400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>53400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>57800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-49300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>113400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>147900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>92000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>51800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>142200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>65200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>79800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>32000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>29900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>16300</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z18" s="3">
         <v>14100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>6500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,85 +1582,89 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>44500</v>
+        <v>17100</v>
       </c>
       <c r="E20" s="3">
-        <v>37600</v>
+        <v>45900</v>
       </c>
       <c r="F20" s="3">
-        <v>-41800</v>
+        <v>38800</v>
       </c>
       <c r="G20" s="3">
-        <v>-13600</v>
+        <v>-43100</v>
       </c>
       <c r="H20" s="3">
-        <v>3100</v>
+        <v>-14000</v>
       </c>
       <c r="I20" s="3">
-        <v>10300</v>
+        <v>3200</v>
       </c>
       <c r="J20" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-44300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>15300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-77400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-18900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-17300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>22600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>26100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>41600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>9000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>7600</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z20" s="3">
         <v>2100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1685,26 +1722,29 @@
       <c r="U21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W21" s="3">
         <v>33000</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="Y21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA21" s="3">
         <v>6600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1729,8 +1769,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>10</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>10</v>
@@ -1747,195 +1787,204 @@
       <c r="P22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>3600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>3300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>3200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>3000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>28900</v>
+        <v>49800</v>
       </c>
       <c r="E23" s="3">
-        <v>14000</v>
+        <v>29800</v>
       </c>
       <c r="F23" s="3">
-        <v>42100</v>
+        <v>14500</v>
       </c>
       <c r="G23" s="3">
-        <v>95600</v>
+        <v>43500</v>
       </c>
       <c r="H23" s="3">
-        <v>130500</v>
+        <v>98600</v>
       </c>
       <c r="I23" s="3">
-        <v>117300</v>
+        <v>134700</v>
       </c>
       <c r="J23" s="3">
+        <v>121000</v>
+      </c>
+      <c r="K23" s="3">
         <v>84100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>57400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>73000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-126700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>94500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>130600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>114600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>77600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>183200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>73000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>78200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>31500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>31100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>20400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>5600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>13100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5600</v>
+        <v>10200</v>
       </c>
       <c r="E24" s="3">
-        <v>2700</v>
+        <v>5800</v>
       </c>
       <c r="F24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G24" s="3">
+        <v>6800</v>
+      </c>
+      <c r="H24" s="3">
+        <v>15200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>21700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K24" s="3">
+        <v>13100</v>
+      </c>
+      <c r="L24" s="3">
         <v>6600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="M24" s="3">
+        <v>11300</v>
+      </c>
+      <c r="N24" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="O24" s="3">
         <v>14800</v>
       </c>
-      <c r="H24" s="3">
-        <v>21000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>18300</v>
-      </c>
-      <c r="J24" s="3">
-        <v>13100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>6600</v>
-      </c>
-      <c r="L24" s="3">
-        <v>11300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-19700</v>
-      </c>
-      <c r="N24" s="3">
-        <v>14800</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>19100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>16600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>30700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-14700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>16200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>10300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>4900</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>4700</v>
       </c>
       <c r="AA24" s="3">
         <v>4700</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>23300</v>
+        <v>39600</v>
       </c>
       <c r="E26" s="3">
-        <v>11300</v>
+        <v>24000</v>
       </c>
       <c r="F26" s="3">
-        <v>35600</v>
+        <v>11700</v>
       </c>
       <c r="G26" s="3">
-        <v>80800</v>
+        <v>36700</v>
       </c>
       <c r="H26" s="3">
-        <v>109500</v>
+        <v>83400</v>
       </c>
       <c r="I26" s="3">
-        <v>99000</v>
+        <v>113000</v>
       </c>
       <c r="J26" s="3">
+        <v>102100</v>
+      </c>
+      <c r="K26" s="3">
         <v>70900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>50800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>61700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-107000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>79700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>111500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>98000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>64500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>152400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>62600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>92900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>25500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>14900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>10100</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Y26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z26" s="3">
         <v>8200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>22900</v>
+        <v>39600</v>
       </c>
       <c r="E27" s="3">
-        <v>10900</v>
+        <v>23700</v>
       </c>
       <c r="F27" s="3">
-        <v>35600</v>
+        <v>11200</v>
       </c>
       <c r="G27" s="3">
-        <v>80800</v>
+        <v>36700</v>
       </c>
       <c r="H27" s="3">
-        <v>109400</v>
+        <v>83400</v>
       </c>
       <c r="I27" s="3">
-        <v>99000</v>
+        <v>112900</v>
       </c>
       <c r="J27" s="3">
+        <v>102200</v>
+      </c>
+      <c r="K27" s="3">
         <v>70900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>50800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>61700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-107000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>79700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>111500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>98000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>64500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>152400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>62600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>92900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>25500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>800</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Y27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z27" s="3">
         <v>800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-4200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-44500</v>
+        <v>-17100</v>
       </c>
       <c r="E32" s="3">
-        <v>-37600</v>
+        <v>-45900</v>
       </c>
       <c r="F32" s="3">
-        <v>41800</v>
+        <v>-38800</v>
       </c>
       <c r="G32" s="3">
-        <v>13600</v>
+        <v>43100</v>
       </c>
       <c r="H32" s="3">
-        <v>-3100</v>
+        <v>14000</v>
       </c>
       <c r="I32" s="3">
-        <v>-10300</v>
+        <v>-3200</v>
       </c>
       <c r="J32" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="K32" s="3">
         <v>44300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-15300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>77400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>18900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>17300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-22600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-26100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-41600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-9000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-7600</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>22900</v>
+        <v>39600</v>
       </c>
       <c r="E33" s="3">
-        <v>10900</v>
+        <v>23700</v>
       </c>
       <c r="F33" s="3">
-        <v>35600</v>
+        <v>11200</v>
       </c>
       <c r="G33" s="3">
-        <v>80800</v>
+        <v>36700</v>
       </c>
       <c r="H33" s="3">
-        <v>109400</v>
+        <v>83400</v>
       </c>
       <c r="I33" s="3">
-        <v>99000</v>
+        <v>112900</v>
       </c>
       <c r="J33" s="3">
+        <v>102200</v>
+      </c>
+      <c r="K33" s="3">
         <v>70900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>50800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>61700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-107000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>79700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>111500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>98000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>64500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>152400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>62600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>92900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>25500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>800</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z33" s="3">
         <v>800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-4200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>22900</v>
+        <v>39600</v>
       </c>
       <c r="E35" s="3">
-        <v>10900</v>
+        <v>23700</v>
       </c>
       <c r="F35" s="3">
-        <v>35600</v>
+        <v>11200</v>
       </c>
       <c r="G35" s="3">
-        <v>80800</v>
+        <v>36700</v>
       </c>
       <c r="H35" s="3">
-        <v>109400</v>
+        <v>83400</v>
       </c>
       <c r="I35" s="3">
-        <v>99000</v>
+        <v>112900</v>
       </c>
       <c r="J35" s="3">
+        <v>102200</v>
+      </c>
+      <c r="K35" s="3">
         <v>70900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>50800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>61700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-107000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>79700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>111500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>98000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>64500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>152400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>62600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>92900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>25500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>800</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Y35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z35" s="3">
         <v>800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-4200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>286800</v>
+        <v>302800</v>
       </c>
       <c r="E41" s="3">
-        <v>320600</v>
+        <v>296000</v>
       </c>
       <c r="F41" s="3">
-        <v>370800</v>
+        <v>330800</v>
       </c>
       <c r="G41" s="3">
-        <v>354400</v>
+        <v>382600</v>
       </c>
       <c r="H41" s="3">
-        <v>331800</v>
+        <v>365600</v>
       </c>
       <c r="I41" s="3">
-        <v>325500</v>
+        <v>342400</v>
       </c>
       <c r="J41" s="3">
+        <v>335900</v>
+      </c>
+      <c r="K41" s="3">
         <v>217700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>234800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>171600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>204100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>321100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>431100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>165300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>204100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>166800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>61700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>61600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>88000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>167200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>74900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>145700</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AA41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,506 +3165,527 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1301100</v>
+        <v>1462100</v>
       </c>
       <c r="E43" s="3">
-        <v>1167700</v>
+        <v>1342400</v>
       </c>
       <c r="F43" s="3">
-        <v>1193300</v>
+        <v>1204700</v>
       </c>
       <c r="G43" s="3">
-        <v>1119600</v>
+        <v>1231200</v>
       </c>
       <c r="H43" s="3">
-        <v>1187800</v>
+        <v>1155200</v>
       </c>
       <c r="I43" s="3">
-        <v>1169700</v>
+        <v>1225500</v>
       </c>
       <c r="J43" s="3">
+        <v>1206900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1370400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1473600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1384300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1357000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1226000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1001000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>900300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>875300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>953400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>957000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1390300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1719200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1509000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1421400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1287700</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Z43" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AA43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9400</v>
+        <v>12500</v>
       </c>
       <c r="E44" s="3">
-        <v>7900</v>
+        <v>9700</v>
       </c>
       <c r="F44" s="3">
+        <v>8100</v>
+      </c>
+      <c r="G44" s="3">
+        <v>6900</v>
+      </c>
+      <c r="H44" s="3">
+        <v>7500</v>
+      </c>
+      <c r="I44" s="3">
         <v>6700</v>
       </c>
-      <c r="G44" s="3">
-        <v>7300</v>
-      </c>
-      <c r="H44" s="3">
-        <v>6500</v>
-      </c>
-      <c r="I44" s="3">
-        <v>9400</v>
-      </c>
       <c r="J44" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K44" s="3">
         <v>6600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>16400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>21400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>15800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>8500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>8300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>13300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>10600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>13600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>15100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>18900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>18500</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Z44" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>785900</v>
+        <v>776900</v>
       </c>
       <c r="E45" s="3">
-        <v>823900</v>
+        <v>810800</v>
       </c>
       <c r="F45" s="3">
-        <v>747600</v>
+        <v>850100</v>
       </c>
       <c r="G45" s="3">
-        <v>785500</v>
+        <v>771400</v>
       </c>
       <c r="H45" s="3">
-        <v>703800</v>
+        <v>810400</v>
       </c>
       <c r="I45" s="3">
-        <v>687400</v>
+        <v>726100</v>
       </c>
       <c r="J45" s="3">
+        <v>709200</v>
+      </c>
+      <c r="K45" s="3">
         <v>690800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1001300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1110800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1018200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>978100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>710400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>581500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>421600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>368100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>409800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>286300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>266700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>199200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>111500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>70400</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Z45" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AA45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2383100</v>
+        <v>2554200</v>
       </c>
       <c r="E46" s="3">
-        <v>2320100</v>
+        <v>2458800</v>
       </c>
       <c r="F46" s="3">
-        <v>2318400</v>
+        <v>2393700</v>
       </c>
       <c r="G46" s="3">
-        <v>2266800</v>
+        <v>2392000</v>
       </c>
       <c r="H46" s="3">
-        <v>2229900</v>
+        <v>2338700</v>
       </c>
       <c r="I46" s="3">
-        <v>2192000</v>
+        <v>2300700</v>
       </c>
       <c r="J46" s="3">
+        <v>2261600</v>
+      </c>
+      <c r="K46" s="3">
         <v>2285400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2718400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2675000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2588000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2541600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2163900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1662800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1509400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1496600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1441900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1748800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2087400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1890500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1626700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1522300</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AA46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>186100</v>
+        <v>203300</v>
       </c>
       <c r="E47" s="3">
-        <v>145100</v>
+        <v>192000</v>
       </c>
       <c r="F47" s="3">
-        <v>147100</v>
+        <v>149700</v>
       </c>
       <c r="G47" s="3">
-        <v>165400</v>
+        <v>151700</v>
       </c>
       <c r="H47" s="3">
-        <v>179900</v>
+        <v>170600</v>
       </c>
       <c r="I47" s="3">
-        <v>188500</v>
+        <v>185600</v>
       </c>
       <c r="J47" s="3">
+        <v>194400</v>
+      </c>
+      <c r="K47" s="3">
         <v>198700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>197200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>212500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>249100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>297900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>310000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>258300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>248900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>272600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>253800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>314900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>349900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>268400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>218800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>194900</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Z47" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AA47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>30200</v>
+        <v>34900</v>
       </c>
       <c r="E48" s="3">
-        <v>29900</v>
+        <v>31100</v>
       </c>
       <c r="F48" s="3">
-        <v>27200</v>
+        <v>30800</v>
       </c>
       <c r="G48" s="3">
-        <v>21800</v>
+        <v>28100</v>
       </c>
       <c r="H48" s="3">
-        <v>18400</v>
+        <v>22500</v>
       </c>
       <c r="I48" s="3">
-        <v>17200</v>
+        <v>19000</v>
       </c>
       <c r="J48" s="3">
+        <v>17800</v>
+      </c>
+      <c r="K48" s="3">
         <v>17500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>11000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>10700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>10200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>9400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>8600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>8700</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>132100</v>
+        <v>135000</v>
       </c>
       <c r="E49" s="3">
-        <v>133300</v>
+        <v>136300</v>
       </c>
       <c r="F49" s="3">
-        <v>134500</v>
+        <v>137500</v>
       </c>
       <c r="G49" s="3">
-        <v>135700</v>
+        <v>138700</v>
       </c>
       <c r="H49" s="3">
-        <v>136900</v>
+        <v>140000</v>
       </c>
       <c r="I49" s="3">
-        <v>138100</v>
+        <v>141200</v>
       </c>
       <c r="J49" s="3">
+        <v>142500</v>
+      </c>
+      <c r="K49" s="3">
         <v>139300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>148700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>150000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>161900</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>10</v>
       </c>
@@ -3587,8 +3698,8 @@
       <c r="R49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>339700</v>
+        <v>346800</v>
       </c>
       <c r="E52" s="3">
-        <v>321000</v>
+        <v>350500</v>
       </c>
       <c r="F52" s="3">
-        <v>299700</v>
+        <v>331200</v>
       </c>
       <c r="G52" s="3">
-        <v>273800</v>
+        <v>309200</v>
       </c>
       <c r="H52" s="3">
-        <v>236400</v>
+        <v>282500</v>
       </c>
       <c r="I52" s="3">
-        <v>196700</v>
+        <v>243900</v>
       </c>
       <c r="J52" s="3">
+        <v>202900</v>
+      </c>
+      <c r="K52" s="3">
         <v>191200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>183300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>176700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>177400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>108200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>98300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>67800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>54000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>29900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>42900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>38800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>18600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>17700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>12400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8400</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3071200</v>
+        <v>3274300</v>
       </c>
       <c r="E54" s="3">
-        <v>2949400</v>
+        <v>3168800</v>
       </c>
       <c r="F54" s="3">
-        <v>2926800</v>
+        <v>3043000</v>
       </c>
       <c r="G54" s="3">
-        <v>2863500</v>
+        <v>3019800</v>
       </c>
       <c r="H54" s="3">
-        <v>2801400</v>
+        <v>2954400</v>
       </c>
       <c r="I54" s="3">
-        <v>2732500</v>
+        <v>2890300</v>
       </c>
       <c r="J54" s="3">
+        <v>2819200</v>
+      </c>
+      <c r="K54" s="3">
         <v>2832000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3262900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3229800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3192300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2962000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2586100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2003200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1826400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1811100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1749600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2113200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2466200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2186000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1866600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1734300</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AA54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,444 +4187,460 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8400</v>
+        <v>4800</v>
       </c>
       <c r="E57" s="3">
-        <v>3500</v>
+        <v>8700</v>
       </c>
       <c r="F57" s="3">
-        <v>2200</v>
+        <v>3600</v>
       </c>
       <c r="G57" s="3">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="H57" s="3">
-        <v>5200</v>
+        <v>2700</v>
       </c>
       <c r="I57" s="3">
-        <v>5900</v>
+        <v>5400</v>
       </c>
       <c r="J57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K57" s="3">
         <v>6000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>31100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>31800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>38800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>21900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>19700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>29800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>27100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>18600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>29400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>11700</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Z57" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AA57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>649400</v>
+        <v>1042200</v>
       </c>
       <c r="E58" s="3">
-        <v>572300</v>
+        <v>670000</v>
       </c>
       <c r="F58" s="3">
-        <v>682200</v>
+        <v>590400</v>
       </c>
       <c r="G58" s="3">
-        <v>685100</v>
+        <v>703900</v>
       </c>
       <c r="H58" s="3">
-        <v>740200</v>
+        <v>706900</v>
       </c>
       <c r="I58" s="3">
-        <v>884600</v>
+        <v>763700</v>
       </c>
       <c r="J58" s="3">
+        <v>912700</v>
+      </c>
+      <c r="K58" s="3">
         <v>906600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1003500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1045300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1007500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>882800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>701900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>657800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>605900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>738400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>951600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1402200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1893600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1587100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1618800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1541700</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Z58" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>666500</v>
+        <v>692600</v>
       </c>
       <c r="E59" s="3">
-        <v>697300</v>
+        <v>687700</v>
       </c>
       <c r="F59" s="3">
-        <v>733600</v>
+        <v>719400</v>
       </c>
       <c r="G59" s="3">
-        <v>706300</v>
+        <v>756900</v>
       </c>
       <c r="H59" s="3">
-        <v>704300</v>
+        <v>728800</v>
       </c>
       <c r="I59" s="3">
-        <v>660000</v>
+        <v>726700</v>
       </c>
       <c r="J59" s="3">
+        <v>680900</v>
+      </c>
+      <c r="K59" s="3">
         <v>760500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1045100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1055700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1077900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>595500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>535200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>442300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>415200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>406500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>321700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>293700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>242300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>292200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>186800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>158000</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AA59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1324300</v>
+        <v>1739500</v>
       </c>
       <c r="E60" s="3">
-        <v>1273100</v>
+        <v>1366400</v>
       </c>
       <c r="F60" s="3">
-        <v>1418000</v>
+        <v>1313500</v>
       </c>
       <c r="G60" s="3">
-        <v>1394100</v>
+        <v>1463100</v>
       </c>
       <c r="H60" s="3">
-        <v>1449700</v>
+        <v>1438400</v>
       </c>
       <c r="I60" s="3">
-        <v>1550500</v>
+        <v>1495700</v>
       </c>
       <c r="J60" s="3">
+        <v>1599700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1673100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2058300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2109800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2100300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1509400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1269000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1138900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1043000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1164600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1303200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1723000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2154400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1908700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1815300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1711400</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AA60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>579400</v>
+        <v>311400</v>
       </c>
       <c r="E61" s="3">
-        <v>508400</v>
+        <v>597800</v>
       </c>
       <c r="F61" s="3">
-        <v>359100</v>
+        <v>524500</v>
       </c>
       <c r="G61" s="3">
-        <v>364000</v>
+        <v>370500</v>
       </c>
       <c r="H61" s="3">
-        <v>351100</v>
+        <v>375500</v>
       </c>
       <c r="I61" s="3">
-        <v>298900</v>
+        <v>362200</v>
       </c>
       <c r="J61" s="3">
+        <v>308400</v>
+      </c>
+      <c r="K61" s="3">
         <v>382200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>469300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>440800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>441600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>384400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>338000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>32100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>22900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>52200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>47300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>35300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>24800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>19900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5000</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>29600</v>
+        <v>23000</v>
       </c>
       <c r="E62" s="3">
-        <v>29300</v>
+        <v>30500</v>
       </c>
       <c r="F62" s="3">
-        <v>26700</v>
+        <v>30300</v>
       </c>
       <c r="G62" s="3">
-        <v>25500</v>
+        <v>27500</v>
       </c>
       <c r="H62" s="3">
-        <v>8000</v>
+        <v>26300</v>
       </c>
       <c r="I62" s="3">
-        <v>7200</v>
+        <v>8300</v>
       </c>
       <c r="J62" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K62" s="3">
         <v>6800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>52000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>51700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>42600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>33400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>27200</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>10</v>
       </c>
@@ -4510,8 +4656,8 @@
       <c r="X62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1939000</v>
+        <v>2079900</v>
       </c>
       <c r="E66" s="3">
-        <v>1819500</v>
+        <v>2000500</v>
       </c>
       <c r="F66" s="3">
-        <v>1809400</v>
+        <v>1877300</v>
       </c>
       <c r="G66" s="3">
-        <v>1789200</v>
+        <v>1866900</v>
       </c>
       <c r="H66" s="3">
-        <v>1814500</v>
+        <v>1846000</v>
       </c>
       <c r="I66" s="3">
-        <v>1862100</v>
+        <v>1872100</v>
       </c>
       <c r="J66" s="3">
+        <v>1921300</v>
+      </c>
+      <c r="K66" s="3">
         <v>2067700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2537800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2562200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2551900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1945800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1658700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1185500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1108400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1214700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1355400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1770300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2189700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1933500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1835100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1716400</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AA66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5073,22 +5241,25 @@
         <v>0</v>
       </c>
       <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
         <v>100100</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>97600</v>
       </c>
-      <c r="Y70" s="3">
-        <v>0</v>
-      </c>
       <c r="Z70" s="3">
         <v>0</v>
       </c>
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>806500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>766900</v>
+      </c>
+      <c r="F72" s="3">
         <v>743300</v>
       </c>
-      <c r="E72" s="3">
-        <v>720400</v>
-      </c>
-      <c r="F72" s="3">
-        <v>709500</v>
-      </c>
       <c r="G72" s="3">
-        <v>673900</v>
+        <v>732000</v>
       </c>
       <c r="H72" s="3">
-        <v>593100</v>
+        <v>695300</v>
       </c>
       <c r="I72" s="3">
-        <v>483700</v>
+        <v>611900</v>
       </c>
       <c r="J72" s="3">
+        <v>499000</v>
+      </c>
+      <c r="K72" s="3">
         <v>384600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>332100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>281300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>235000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>629300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>549500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>443800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>361300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>260300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>74600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>30400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-35600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-58600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-72800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-82900</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AA72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1132300</v>
+        <v>1194500</v>
       </c>
       <c r="E76" s="3">
-        <v>1129900</v>
+        <v>1168200</v>
       </c>
       <c r="F76" s="3">
-        <v>1117400</v>
+        <v>1165800</v>
       </c>
       <c r="G76" s="3">
-        <v>1074200</v>
+        <v>1152900</v>
       </c>
       <c r="H76" s="3">
-        <v>986900</v>
+        <v>1108400</v>
       </c>
       <c r="I76" s="3">
-        <v>870300</v>
+        <v>1018300</v>
       </c>
       <c r="J76" s="3">
+        <v>898000</v>
+      </c>
+      <c r="K76" s="3">
         <v>764300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>725000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>667500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>640500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1016200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>927400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>817700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>718000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>596400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>394200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>342900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>276500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>252500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-68600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-79700</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AA76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>22900</v>
+        <v>39600</v>
       </c>
       <c r="E81" s="3">
-        <v>10900</v>
+        <v>23700</v>
       </c>
       <c r="F81" s="3">
-        <v>35600</v>
+        <v>11200</v>
       </c>
       <c r="G81" s="3">
-        <v>80800</v>
+        <v>36700</v>
       </c>
       <c r="H81" s="3">
-        <v>109400</v>
+        <v>83400</v>
       </c>
       <c r="I81" s="3">
-        <v>99000</v>
+        <v>112900</v>
       </c>
       <c r="J81" s="3">
+        <v>102200</v>
+      </c>
+      <c r="K81" s="3">
         <v>70900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>50800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>61700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-107000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>79700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>111500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>98000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>64500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>152400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>62600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>92900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>25500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>800</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Y81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z81" s="3">
         <v>800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-4200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5874,11 +6073,11 @@
         <v>0</v>
       </c>
       <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
         <v>800</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="X83" s="3" t="s">
         <v>10</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6336,11 +6553,11 @@
         <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>99300</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>10</v>
       </c>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6442,11 +6663,11 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-800</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>10</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6673,11 +6903,11 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-187300</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>10</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7087,11 +7333,11 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>180500</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>10</v>
       </c>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7164,11 +7413,11 @@
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-200</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="X101" s="3" t="s">
         <v>10</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7241,11 +7493,11 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>92300</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="X102" s="3" t="s">
         <v>10</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>10</v>
       </c>
       <c r="AA102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
   <si>
     <t>LX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>386400</v>
+        <v>433600</v>
       </c>
       <c r="E8" s="3">
-        <v>346500</v>
+        <v>382400</v>
       </c>
       <c r="F8" s="3">
-        <v>245900</v>
+        <v>343000</v>
       </c>
       <c r="G8" s="3">
-        <v>315800</v>
+        <v>243400</v>
       </c>
       <c r="H8" s="3">
-        <v>426400</v>
+        <v>312600</v>
       </c>
       <c r="I8" s="3">
-        <v>469500</v>
+        <v>422000</v>
       </c>
       <c r="J8" s="3">
+        <v>464700</v>
+      </c>
+      <c r="K8" s="3">
         <v>422800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>422200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>464800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>435900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>394400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>484700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>490900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>388900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>269900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>370200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>258900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>285400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>231500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>236500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>215600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>195500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>177200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>202100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>155000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>257500</v>
+        <v>285300</v>
       </c>
       <c r="E9" s="3">
-        <v>255600</v>
+        <v>254900</v>
       </c>
       <c r="F9" s="3">
-        <v>179700</v>
+        <v>253000</v>
       </c>
       <c r="G9" s="3">
-        <v>141700</v>
+        <v>177900</v>
       </c>
       <c r="H9" s="3">
-        <v>210000</v>
+        <v>140300</v>
       </c>
       <c r="I9" s="3">
-        <v>230800</v>
+        <v>207900</v>
       </c>
       <c r="J9" s="3">
+        <v>228500</v>
+      </c>
+      <c r="K9" s="3">
         <v>226200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>210600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>320600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>293300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>368100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>257200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>229000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>217500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>160900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>173000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>151500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>164000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>166700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>182200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>165500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>154200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>137800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>167000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>125700</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>128900</v>
+        <v>148300</v>
       </c>
       <c r="E10" s="3">
-        <v>90900</v>
+        <v>127500</v>
       </c>
       <c r="F10" s="3">
-        <v>66200</v>
+        <v>90000</v>
       </c>
       <c r="G10" s="3">
-        <v>174100</v>
+        <v>65500</v>
       </c>
       <c r="H10" s="3">
-        <v>216400</v>
+        <v>172300</v>
       </c>
       <c r="I10" s="3">
-        <v>238600</v>
+        <v>214200</v>
       </c>
       <c r="J10" s="3">
+        <v>236200</v>
+      </c>
+      <c r="K10" s="3">
         <v>196600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>211600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>144100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>142600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>26300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>227500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>261900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>171400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>109000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>197200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>107400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>121500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>64800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>54300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>50100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>41200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>39400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>35200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,88 +1058,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>20200</v>
+        <v>19300</v>
       </c>
       <c r="E12" s="3">
-        <v>22200</v>
+        <v>20000</v>
       </c>
       <c r="F12" s="3">
-        <v>21900</v>
+        <v>22000</v>
       </c>
       <c r="G12" s="3">
-        <v>23500</v>
+        <v>21700</v>
       </c>
       <c r="H12" s="3">
-        <v>18800</v>
+        <v>23300</v>
       </c>
       <c r="I12" s="3">
-        <v>18700</v>
+        <v>18600</v>
       </c>
       <c r="J12" s="3">
+        <v>18500</v>
+      </c>
+      <c r="K12" s="3">
         <v>17800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>17400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>19800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>19900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>15600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>18600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>15600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>14300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>11600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>13100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>11000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>9800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>19900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>10000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>8500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>6400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>6600</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1220,32 +1239,32 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3">
         <v>4700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1257,23 +1276,23 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>1500</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>700</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X14" s="3">
         <v>100</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
@@ -1281,13 +1300,16 @@
         <v>0</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>800</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>353700</v>
+        <v>378500</v>
       </c>
       <c r="E17" s="3">
-        <v>362600</v>
+        <v>350100</v>
       </c>
       <c r="F17" s="3">
-        <v>270200</v>
+        <v>358900</v>
       </c>
       <c r="G17" s="3">
-        <v>229300</v>
+        <v>267500</v>
       </c>
       <c r="H17" s="3">
-        <v>313800</v>
+        <v>226900</v>
       </c>
       <c r="I17" s="3">
-        <v>338000</v>
+        <v>310600</v>
       </c>
       <c r="J17" s="3">
+        <v>334500</v>
+      </c>
+      <c r="K17" s="3">
         <v>312400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>293800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>411400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>378100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>443700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>371300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>343000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>296900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>218100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>227900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>193700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>205600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>199500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>206600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>199300</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z17" s="3">
+      <c r="Z17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA17" s="3">
         <v>163100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>195600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>147300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>32700</v>
+        <v>55100</v>
       </c>
       <c r="E18" s="3">
-        <v>-16100</v>
+        <v>32400</v>
       </c>
       <c r="F18" s="3">
-        <v>-24300</v>
+        <v>-15900</v>
       </c>
       <c r="G18" s="3">
-        <v>86600</v>
+        <v>-24000</v>
       </c>
       <c r="H18" s="3">
-        <v>112600</v>
+        <v>85700</v>
       </c>
       <c r="I18" s="3">
-        <v>131500</v>
+        <v>111500</v>
       </c>
       <c r="J18" s="3">
+        <v>130100</v>
+      </c>
+      <c r="K18" s="3">
         <v>110300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>128400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>53400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>57800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-49300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>113400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>147900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>92000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>51800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>142200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>65200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>79800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>32000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>29900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>16300</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA18" s="3">
         <v>14100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>6500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,88 +1615,92 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>17100</v>
+        <v>-2000</v>
       </c>
       <c r="E20" s="3">
-        <v>45900</v>
+        <v>16900</v>
       </c>
       <c r="F20" s="3">
-        <v>38800</v>
+        <v>45400</v>
       </c>
       <c r="G20" s="3">
-        <v>-43100</v>
+        <v>38400</v>
       </c>
       <c r="H20" s="3">
-        <v>-14000</v>
+        <v>-42600</v>
       </c>
       <c r="I20" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="J20" s="3">
         <v>3200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>10600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-44300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>15300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-77400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-18900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>22600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>26100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>41600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>9000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>7600</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA20" s="3">
         <v>2100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1725,26 +1761,29 @@
       <c r="V21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X21" s="3">
         <v>33000</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="Z21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB21" s="3">
         <v>6600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1772,8 +1811,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>10</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>10</v>
@@ -1790,201 +1829,210 @@
       <c r="Q22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>3600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>3300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>3200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>3000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>49800</v>
+        <v>53100</v>
       </c>
       <c r="E23" s="3">
-        <v>29800</v>
+        <v>49300</v>
       </c>
       <c r="F23" s="3">
-        <v>14500</v>
+        <v>29500</v>
       </c>
       <c r="G23" s="3">
-        <v>43500</v>
+        <v>14300</v>
       </c>
       <c r="H23" s="3">
-        <v>98600</v>
+        <v>43000</v>
       </c>
       <c r="I23" s="3">
-        <v>134700</v>
+        <v>97600</v>
       </c>
       <c r="J23" s="3">
+        <v>133300</v>
+      </c>
+      <c r="K23" s="3">
         <v>121000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>84100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>57400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>73000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-126700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>94500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>130600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>114600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>77600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>183200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>73000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>78200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>31500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>31100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>20400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>5600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>13100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="E24" s="3">
-        <v>5800</v>
+        <v>10100</v>
       </c>
       <c r="F24" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G24" s="3">
         <v>2800</v>
       </c>
-      <c r="G24" s="3">
-        <v>6800</v>
-      </c>
       <c r="H24" s="3">
-        <v>15200</v>
+        <v>6700</v>
       </c>
       <c r="I24" s="3">
-        <v>21700</v>
+        <v>15100</v>
       </c>
       <c r="J24" s="3">
+        <v>21500</v>
+      </c>
+      <c r="K24" s="3">
         <v>18900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-19700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>19100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>16600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>30700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>10500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-14700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>16200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>10300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>3300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>4900</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>4700</v>
       </c>
       <c r="AB24" s="3">
         <v>4700</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>39600</v>
+        <v>42800</v>
       </c>
       <c r="E26" s="3">
-        <v>24000</v>
+        <v>39200</v>
       </c>
       <c r="F26" s="3">
-        <v>11700</v>
+        <v>23800</v>
       </c>
       <c r="G26" s="3">
-        <v>36700</v>
+        <v>11600</v>
       </c>
       <c r="H26" s="3">
-        <v>83400</v>
+        <v>36300</v>
       </c>
       <c r="I26" s="3">
-        <v>113000</v>
+        <v>82600</v>
       </c>
       <c r="J26" s="3">
+        <v>111800</v>
+      </c>
+      <c r="K26" s="3">
         <v>102100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>70900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>50800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>61700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-107000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>79700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>111500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>98000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>64500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>152400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>62600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>92900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>25500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>14900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>10100</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z26" s="3">
+      <c r="Z26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA26" s="3">
         <v>8200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>39600</v>
+        <v>42800</v>
       </c>
       <c r="E27" s="3">
-        <v>23700</v>
+        <v>39200</v>
       </c>
       <c r="F27" s="3">
-        <v>11200</v>
+        <v>23400</v>
       </c>
       <c r="G27" s="3">
-        <v>36700</v>
+        <v>11100</v>
       </c>
       <c r="H27" s="3">
-        <v>83400</v>
+        <v>36400</v>
       </c>
       <c r="I27" s="3">
-        <v>112900</v>
+        <v>82500</v>
       </c>
       <c r="J27" s="3">
+        <v>111800</v>
+      </c>
+      <c r="K27" s="3">
         <v>102200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>70900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>50800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>61700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-107000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>79700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>111500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>98000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>64500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>152400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>62600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>92900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>25500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>800</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z27" s="3">
+      <c r="Z27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA27" s="3">
         <v>800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-17100</v>
+        <v>2000</v>
       </c>
       <c r="E32" s="3">
-        <v>-45900</v>
+        <v>-16900</v>
       </c>
       <c r="F32" s="3">
-        <v>-38800</v>
+        <v>-45400</v>
       </c>
       <c r="G32" s="3">
-        <v>43100</v>
+        <v>-38400</v>
       </c>
       <c r="H32" s="3">
-        <v>14000</v>
+        <v>42600</v>
       </c>
       <c r="I32" s="3">
+        <v>13800</v>
+      </c>
+      <c r="J32" s="3">
         <v>-3200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-10600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>44300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-15300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>77400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>18900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>17300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-22600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-26100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-41600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-9000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z32" s="3">
+      <c r="Z32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>39600</v>
+        <v>42800</v>
       </c>
       <c r="E33" s="3">
-        <v>23700</v>
+        <v>39200</v>
       </c>
       <c r="F33" s="3">
-        <v>11200</v>
+        <v>23400</v>
       </c>
       <c r="G33" s="3">
-        <v>36700</v>
+        <v>11100</v>
       </c>
       <c r="H33" s="3">
-        <v>83400</v>
+        <v>36400</v>
       </c>
       <c r="I33" s="3">
-        <v>112900</v>
+        <v>82500</v>
       </c>
       <c r="J33" s="3">
+        <v>111800</v>
+      </c>
+      <c r="K33" s="3">
         <v>102200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>70900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>50800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>61700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-107000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>79700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>111500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>98000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>64500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>152400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>62600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>92900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>25500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>800</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z33" s="3">
+      <c r="Z33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA33" s="3">
         <v>800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>39600</v>
+        <v>42800</v>
       </c>
       <c r="E35" s="3">
-        <v>23700</v>
+        <v>39200</v>
       </c>
       <c r="F35" s="3">
-        <v>11200</v>
+        <v>23400</v>
       </c>
       <c r="G35" s="3">
-        <v>36700</v>
+        <v>11100</v>
       </c>
       <c r="H35" s="3">
-        <v>83400</v>
+        <v>36400</v>
       </c>
       <c r="I35" s="3">
-        <v>112900</v>
+        <v>82500</v>
       </c>
       <c r="J35" s="3">
+        <v>111800</v>
+      </c>
+      <c r="K35" s="3">
         <v>102200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>70900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>50800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>61700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-107000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>79700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>111500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>98000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>64500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>152400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>62600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>92900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>25500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>800</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z35" s="3">
+      <c r="Z35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA35" s="3">
         <v>800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,111 +3093,115 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>302800</v>
+        <v>212400</v>
       </c>
       <c r="E41" s="3">
-        <v>296000</v>
+        <v>299700</v>
       </c>
       <c r="F41" s="3">
-        <v>330800</v>
+        <v>292900</v>
       </c>
       <c r="G41" s="3">
-        <v>382600</v>
+        <v>327400</v>
       </c>
       <c r="H41" s="3">
-        <v>365600</v>
+        <v>378700</v>
       </c>
       <c r="I41" s="3">
-        <v>342400</v>
+        <v>361900</v>
       </c>
       <c r="J41" s="3">
+        <v>338900</v>
+      </c>
+      <c r="K41" s="3">
         <v>335900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>217700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>234800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>171600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>204100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>321100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>431100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>165300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>204100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>166800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>61700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>61600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>88000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>167200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>74900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>145700</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AA41" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AB41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>38400</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -3168,527 +3257,548 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1462100</v>
+        <v>1464000</v>
       </c>
       <c r="E43" s="3">
-        <v>1342400</v>
+        <v>1447100</v>
       </c>
       <c r="F43" s="3">
-        <v>1204700</v>
+        <v>1328600</v>
       </c>
       <c r="G43" s="3">
-        <v>1231200</v>
+        <v>1192400</v>
       </c>
       <c r="H43" s="3">
-        <v>1155200</v>
+        <v>1218600</v>
       </c>
       <c r="I43" s="3">
-        <v>1225500</v>
+        <v>1143300</v>
       </c>
       <c r="J43" s="3">
+        <v>1213000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1206900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1370400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1473600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1384300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1357000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1226000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1001000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>900300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>875300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>953400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>957000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1390300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1719200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1509000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1421400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1287700</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AA43" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AB43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>12500</v>
+        <v>7700</v>
       </c>
       <c r="E44" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F44" s="3">
+        <v>9600</v>
+      </c>
+      <c r="G44" s="3">
+        <v>8000</v>
+      </c>
+      <c r="H44" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I44" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K44" s="3">
         <v>9700</v>
       </c>
-      <c r="F44" s="3">
-        <v>8100</v>
-      </c>
-      <c r="G44" s="3">
-        <v>6900</v>
-      </c>
-      <c r="H44" s="3">
-        <v>7500</v>
-      </c>
-      <c r="I44" s="3">
-        <v>6700</v>
-      </c>
-      <c r="J44" s="3">
-        <v>9700</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>16400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>21400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>15800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>8500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>8300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>13300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>10600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>13600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>15100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>18900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>18500</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AA44" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AB44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>776900</v>
+        <v>805300</v>
       </c>
       <c r="E45" s="3">
-        <v>810800</v>
+        <v>768900</v>
       </c>
       <c r="F45" s="3">
-        <v>850100</v>
+        <v>802500</v>
       </c>
       <c r="G45" s="3">
-        <v>771400</v>
+        <v>841400</v>
       </c>
       <c r="H45" s="3">
-        <v>810400</v>
+        <v>763500</v>
       </c>
       <c r="I45" s="3">
-        <v>726100</v>
+        <v>802100</v>
       </c>
       <c r="J45" s="3">
+        <v>718700</v>
+      </c>
+      <c r="K45" s="3">
         <v>709200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>690800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1001300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1110800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1018200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>978100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>710400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>581500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>421600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>368100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>409800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>286300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>266700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>199200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>111500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>70400</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AA45" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AB45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2554200</v>
+        <v>2527700</v>
       </c>
       <c r="E46" s="3">
-        <v>2458800</v>
+        <v>2528100</v>
       </c>
       <c r="F46" s="3">
-        <v>2393700</v>
+        <v>2433600</v>
       </c>
       <c r="G46" s="3">
-        <v>2392000</v>
+        <v>2369200</v>
       </c>
       <c r="H46" s="3">
-        <v>2338700</v>
+        <v>2367600</v>
       </c>
       <c r="I46" s="3">
-        <v>2300700</v>
+        <v>2314800</v>
       </c>
       <c r="J46" s="3">
+        <v>2277100</v>
+      </c>
+      <c r="K46" s="3">
         <v>2261600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2285400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2718400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2675000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2588000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2541600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2163900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1662800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1509400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1496600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1441900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1748800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2087400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1890500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1626700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1522300</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AA46" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AB46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>203300</v>
+        <v>201000</v>
       </c>
       <c r="E47" s="3">
-        <v>192000</v>
+        <v>201300</v>
       </c>
       <c r="F47" s="3">
-        <v>149700</v>
+        <v>190100</v>
       </c>
       <c r="G47" s="3">
-        <v>151700</v>
+        <v>148200</v>
       </c>
       <c r="H47" s="3">
-        <v>170600</v>
+        <v>150200</v>
       </c>
       <c r="I47" s="3">
-        <v>185600</v>
+        <v>168900</v>
       </c>
       <c r="J47" s="3">
+        <v>183700</v>
+      </c>
+      <c r="K47" s="3">
         <v>194400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>198700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>197200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>212500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>249100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>297900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>310000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>258300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>248900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>272600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>253800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>314900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>349900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>268400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>218800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>194900</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AA47" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AB47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>34900</v>
+        <v>40500</v>
       </c>
       <c r="E48" s="3">
-        <v>31100</v>
+        <v>34500</v>
       </c>
       <c r="F48" s="3">
         <v>30800</v>
       </c>
       <c r="G48" s="3">
-        <v>28100</v>
+        <v>30500</v>
       </c>
       <c r="H48" s="3">
-        <v>22500</v>
+        <v>27800</v>
       </c>
       <c r="I48" s="3">
-        <v>19000</v>
+        <v>22300</v>
       </c>
       <c r="J48" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K48" s="3">
         <v>17800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>11000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>10700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>10200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>9400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>8600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>8700</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AA48" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AB48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>135000</v>
+        <v>132400</v>
       </c>
       <c r="E49" s="3">
-        <v>136300</v>
+        <v>133700</v>
       </c>
       <c r="F49" s="3">
-        <v>137500</v>
+        <v>134900</v>
       </c>
       <c r="G49" s="3">
-        <v>138700</v>
+        <v>136100</v>
       </c>
       <c r="H49" s="3">
-        <v>140000</v>
+        <v>137300</v>
       </c>
       <c r="I49" s="3">
-        <v>141200</v>
+        <v>138500</v>
       </c>
       <c r="J49" s="3">
+        <v>139800</v>
+      </c>
+      <c r="K49" s="3">
         <v>142500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>139300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>148700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>150000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>161900</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>10</v>
       </c>
@@ -3701,8 +3811,8 @@
       <c r="S49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>346800</v>
+        <v>335300</v>
       </c>
       <c r="E52" s="3">
-        <v>350500</v>
+        <v>343300</v>
       </c>
       <c r="F52" s="3">
-        <v>331200</v>
+        <v>346900</v>
       </c>
       <c r="G52" s="3">
-        <v>309200</v>
+        <v>327900</v>
       </c>
       <c r="H52" s="3">
-        <v>282500</v>
+        <v>306100</v>
       </c>
       <c r="I52" s="3">
-        <v>243900</v>
+        <v>279600</v>
       </c>
       <c r="J52" s="3">
+        <v>241400</v>
+      </c>
+      <c r="K52" s="3">
         <v>202900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>191200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>183300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>176700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>177400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>108200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>98300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>67800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>54000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>29900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>42900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>38800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>18600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>17700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>12400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>8400</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AA52" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AB52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3274300</v>
+        <v>3236900</v>
       </c>
       <c r="E54" s="3">
-        <v>3168800</v>
+        <v>3240800</v>
       </c>
       <c r="F54" s="3">
-        <v>3043000</v>
+        <v>3136300</v>
       </c>
       <c r="G54" s="3">
-        <v>3019800</v>
+        <v>3011900</v>
       </c>
       <c r="H54" s="3">
-        <v>2954400</v>
+        <v>2988900</v>
       </c>
       <c r="I54" s="3">
-        <v>2890300</v>
+        <v>2924100</v>
       </c>
       <c r="J54" s="3">
+        <v>2860800</v>
+      </c>
+      <c r="K54" s="3">
         <v>2819200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2832000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3262900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3229800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3192300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2962000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2586100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2003200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1826400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1811100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1749600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2113200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2466200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2186000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1866600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1734300</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AA54" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AB54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,462 +4317,478 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E57" s="3">
         <v>4800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>8600</v>
+      </c>
+      <c r="G57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="L57" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M57" s="3">
+        <v>9700</v>
+      </c>
+      <c r="N57" s="3">
         <v>8700</v>
       </c>
-      <c r="F57" s="3">
-        <v>3600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I57" s="3">
-        <v>5400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>6100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>6000</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
+        <v>14800</v>
+      </c>
+      <c r="P57" s="3">
+        <v>31100</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>31800</v>
+      </c>
+      <c r="R57" s="3">
+        <v>38800</v>
+      </c>
+      <c r="S57" s="3">
+        <v>21900</v>
+      </c>
+      <c r="T57" s="3">
+        <v>19700</v>
+      </c>
+      <c r="U57" s="3">
+        <v>29800</v>
+      </c>
+      <c r="V57" s="3">
+        <v>27100</v>
+      </c>
+      <c r="W57" s="3">
+        <v>18600</v>
+      </c>
+      <c r="X57" s="3">
+        <v>29400</v>
+      </c>
+      <c r="Y57" s="3">
         <v>9700</v>
       </c>
-      <c r="M57" s="3">
-        <v>8700</v>
-      </c>
-      <c r="N57" s="3">
-        <v>14800</v>
-      </c>
-      <c r="O57" s="3">
-        <v>31100</v>
-      </c>
-      <c r="P57" s="3">
-        <v>31800</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>38800</v>
-      </c>
-      <c r="R57" s="3">
-        <v>21900</v>
-      </c>
-      <c r="S57" s="3">
-        <v>19700</v>
-      </c>
-      <c r="T57" s="3">
-        <v>29800</v>
-      </c>
-      <c r="U57" s="3">
-        <v>27100</v>
-      </c>
-      <c r="V57" s="3">
-        <v>18600</v>
-      </c>
-      <c r="W57" s="3">
-        <v>29400</v>
-      </c>
-      <c r="X57" s="3">
-        <v>9700</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>11700</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AA57" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AB57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1042200</v>
+        <v>1082700</v>
       </c>
       <c r="E58" s="3">
-        <v>670000</v>
+        <v>1031500</v>
       </c>
       <c r="F58" s="3">
-        <v>590400</v>
+        <v>663200</v>
       </c>
       <c r="G58" s="3">
-        <v>703900</v>
+        <v>584400</v>
       </c>
       <c r="H58" s="3">
-        <v>706900</v>
+        <v>696700</v>
       </c>
       <c r="I58" s="3">
-        <v>763700</v>
+        <v>699600</v>
       </c>
       <c r="J58" s="3">
+        <v>755800</v>
+      </c>
+      <c r="K58" s="3">
         <v>912700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>906600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1003500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1045300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1007500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>882800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>701900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>657800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>605900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>738400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>951600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1402200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1893600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1587100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1618800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1541700</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AA58" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AB58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>692600</v>
+        <v>687900</v>
       </c>
       <c r="E59" s="3">
-        <v>687700</v>
+        <v>685500</v>
       </c>
       <c r="F59" s="3">
-        <v>719400</v>
+        <v>680600</v>
       </c>
       <c r="G59" s="3">
-        <v>756900</v>
+        <v>712100</v>
       </c>
       <c r="H59" s="3">
-        <v>728800</v>
+        <v>749200</v>
       </c>
       <c r="I59" s="3">
-        <v>726700</v>
+        <v>721300</v>
       </c>
       <c r="J59" s="3">
+        <v>719300</v>
+      </c>
+      <c r="K59" s="3">
         <v>680900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>760500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1045100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1055700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1077900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>595500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>535200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>442300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>415200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>406500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>321700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>293700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>242300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>292200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>186800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>158000</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AA59" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AB59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1739500</v>
+        <v>1774300</v>
       </c>
       <c r="E60" s="3">
-        <v>1366400</v>
+        <v>1721700</v>
       </c>
       <c r="F60" s="3">
-        <v>1313500</v>
+        <v>1352400</v>
       </c>
       <c r="G60" s="3">
-        <v>1463100</v>
+        <v>1300100</v>
       </c>
       <c r="H60" s="3">
-        <v>1438400</v>
+        <v>1448100</v>
       </c>
       <c r="I60" s="3">
-        <v>1495700</v>
+        <v>1423600</v>
       </c>
       <c r="J60" s="3">
+        <v>1480400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1599700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1673100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2058300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2109800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2100300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1509400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1269000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1138900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1043000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1164600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1303200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1723000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2154400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1908700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1815300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1711400</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AA60" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AB60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>311400</v>
+        <v>211000</v>
       </c>
       <c r="E61" s="3">
-        <v>597800</v>
+        <v>308200</v>
       </c>
       <c r="F61" s="3">
-        <v>524500</v>
+        <v>591700</v>
       </c>
       <c r="G61" s="3">
-        <v>370500</v>
+        <v>519200</v>
       </c>
       <c r="H61" s="3">
-        <v>375500</v>
+        <v>366700</v>
       </c>
       <c r="I61" s="3">
-        <v>362200</v>
+        <v>371700</v>
       </c>
       <c r="J61" s="3">
+        <v>358500</v>
+      </c>
+      <c r="K61" s="3">
         <v>308400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>382200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>469300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>440800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>441600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>384400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>338000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>32100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>22900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>52200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>47300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>35300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>24800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>19900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5000</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23000</v>
+        <v>22100</v>
       </c>
       <c r="E62" s="3">
-        <v>30500</v>
+        <v>22800</v>
       </c>
       <c r="F62" s="3">
-        <v>30300</v>
+        <v>30200</v>
       </c>
       <c r="G62" s="3">
-        <v>27500</v>
+        <v>29900</v>
       </c>
       <c r="H62" s="3">
-        <v>26300</v>
+        <v>27300</v>
       </c>
       <c r="I62" s="3">
-        <v>8300</v>
+        <v>26000</v>
       </c>
       <c r="J62" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K62" s="3">
         <v>7400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>52000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>51700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>42600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>33400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>27200</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>10</v>
       </c>
@@ -4659,8 +4804,8 @@
       <c r="Y62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z62" s="3">
-        <v>0</v>
+      <c r="Z62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AA62" s="3">
         <v>0</v>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2079900</v>
+        <v>2007400</v>
       </c>
       <c r="E66" s="3">
-        <v>2000500</v>
+        <v>2058600</v>
       </c>
       <c r="F66" s="3">
-        <v>1877300</v>
+        <v>1980100</v>
       </c>
       <c r="G66" s="3">
-        <v>1866900</v>
+        <v>1858100</v>
       </c>
       <c r="H66" s="3">
-        <v>1846000</v>
+        <v>1847700</v>
       </c>
       <c r="I66" s="3">
-        <v>1872100</v>
+        <v>1827100</v>
       </c>
       <c r="J66" s="3">
+        <v>1852900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1921300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2067700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2537800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2562200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2551900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1945800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1658700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1185500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1108400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1214700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1355400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1770300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2189700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1933500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1835100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1716400</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AA66" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AB66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5244,22 +5411,25 @@
         <v>0</v>
       </c>
       <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
         <v>100100</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="Z70" s="3">
         <v>97600</v>
       </c>
-      <c r="Z70" s="3">
-        <v>0</v>
-      </c>
       <c r="AA70" s="3">
         <v>0</v>
       </c>
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>806500</v>
+        <v>841100</v>
       </c>
       <c r="E72" s="3">
-        <v>766900</v>
+        <v>798200</v>
       </c>
       <c r="F72" s="3">
-        <v>743300</v>
+        <v>759100</v>
       </c>
       <c r="G72" s="3">
-        <v>732000</v>
+        <v>735700</v>
       </c>
       <c r="H72" s="3">
-        <v>695300</v>
+        <v>724600</v>
       </c>
       <c r="I72" s="3">
-        <v>611900</v>
+        <v>688200</v>
       </c>
       <c r="J72" s="3">
+        <v>605600</v>
+      </c>
+      <c r="K72" s="3">
         <v>499000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>384600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>332100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>281300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>235000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>629300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>549500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>443800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>361300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>260300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>74600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>30400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-35600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-58600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-72800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-82900</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AA72" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AB72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1194500</v>
+        <v>1229400</v>
       </c>
       <c r="E76" s="3">
-        <v>1168200</v>
+        <v>1182200</v>
       </c>
       <c r="F76" s="3">
-        <v>1165800</v>
+        <v>1156300</v>
       </c>
       <c r="G76" s="3">
-        <v>1152900</v>
+        <v>1153800</v>
       </c>
       <c r="H76" s="3">
-        <v>1108400</v>
+        <v>1141100</v>
       </c>
       <c r="I76" s="3">
-        <v>1018300</v>
+        <v>1097000</v>
       </c>
       <c r="J76" s="3">
+        <v>1007800</v>
+      </c>
+      <c r="K76" s="3">
         <v>898000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>764300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>725000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>667500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>640500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1016200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>927400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>817700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>718000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>596400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>394200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>342900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>276500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>252500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-68600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-79700</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AA76" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AB76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>39600</v>
+        <v>42800</v>
       </c>
       <c r="E81" s="3">
-        <v>23700</v>
+        <v>39200</v>
       </c>
       <c r="F81" s="3">
-        <v>11200</v>
+        <v>23400</v>
       </c>
       <c r="G81" s="3">
-        <v>36700</v>
+        <v>11100</v>
       </c>
       <c r="H81" s="3">
-        <v>83400</v>
+        <v>36400</v>
       </c>
       <c r="I81" s="3">
-        <v>112900</v>
+        <v>82500</v>
       </c>
       <c r="J81" s="3">
+        <v>111800</v>
+      </c>
+      <c r="K81" s="3">
         <v>102200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>70900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>50800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>61700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-107000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>79700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>111500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>98000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>64500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>152400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>62600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>92900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>25500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>800</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z81" s="3">
+      <c r="Z81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA81" s="3">
         <v>800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6076,11 +6274,11 @@
         <v>0</v>
       </c>
       <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
         <v>800</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Y83" s="3" t="s">
         <v>10</v>
       </c>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6706,11 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6556,11 +6772,11 @@
         <v>0</v>
       </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>99300</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Y89" s="3" t="s">
         <v>10</v>
       </c>
@@ -6573,8 +6789,11 @@
       <c r="AB89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6822,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6666,11 +6886,11 @@
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-800</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>10</v>
       </c>
@@ -6683,8 +6903,11 @@
       <c r="AB91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7069,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6906,11 +7135,11 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-187300</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Y94" s="3" t="s">
         <v>10</v>
       </c>
@@ -6923,8 +7152,11 @@
       <c r="AB94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7515,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7336,11 +7581,11 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>180500</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Y100" s="3" t="s">
         <v>10</v>
       </c>
@@ -7353,8 +7598,11 @@
       <c r="AB100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7416,11 +7664,11 @@
         <v>0</v>
       </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-200</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Y101" s="3" t="s">
         <v>10</v>
       </c>
@@ -7433,8 +7681,11 @@
       <c r="AB101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7496,11 +7747,11 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>92300</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Y102" s="3" t="s">
         <v>10</v>
       </c>
@@ -7511,6 +7762,9 @@
         <v>10</v>
       </c>
       <c r="AB102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
   <si>
     <t>LX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,397 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>433600</v>
+        <v>421000</v>
       </c>
       <c r="E8" s="3">
-        <v>382400</v>
+        <v>411000</v>
       </c>
       <c r="F8" s="3">
-        <v>343000</v>
+        <v>420300</v>
       </c>
       <c r="G8" s="3">
-        <v>243400</v>
+        <v>370700</v>
       </c>
       <c r="H8" s="3">
-        <v>312600</v>
+        <v>332400</v>
       </c>
       <c r="I8" s="3">
+        <v>235900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>303000</v>
+      </c>
+      <c r="K8" s="3">
         <v>422000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>464700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>422800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>422200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>464800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>435900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>394400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>484700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>490900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>388900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>269900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>370200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>258900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>285400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>231500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>236500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>215600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>195500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>177200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>202100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>155000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>285300</v>
+        <v>283900</v>
       </c>
       <c r="E9" s="3">
-        <v>254900</v>
+        <v>286500</v>
       </c>
       <c r="F9" s="3">
-        <v>253000</v>
+        <v>276500</v>
       </c>
       <c r="G9" s="3">
-        <v>177900</v>
+        <v>247100</v>
       </c>
       <c r="H9" s="3">
-        <v>140300</v>
+        <v>245200</v>
       </c>
       <c r="I9" s="3">
+        <v>172400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>136000</v>
+      </c>
+      <c r="K9" s="3">
         <v>207900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>228500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>226200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>210600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>320600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>293300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>368100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>257200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>229000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>217500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>160900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>173000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>151500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>164000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>166700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>182200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>165500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>154200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>137800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>167000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>125700</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>148300</v>
+        <v>137100</v>
       </c>
       <c r="E10" s="3">
-        <v>127500</v>
+        <v>124400</v>
       </c>
       <c r="F10" s="3">
-        <v>90000</v>
+        <v>143800</v>
       </c>
       <c r="G10" s="3">
-        <v>65500</v>
+        <v>123600</v>
       </c>
       <c r="H10" s="3">
-        <v>172300</v>
+        <v>87200</v>
       </c>
       <c r="I10" s="3">
+        <v>63500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>167000</v>
+      </c>
+      <c r="K10" s="3">
         <v>214200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>236200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>196600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>211600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>144100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>142600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>26300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>227500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>261900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>171400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>109000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>197200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>107400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>121500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>64800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>54300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>50100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>41200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>39400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>35200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,91 +1085,99 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>19300</v>
+        <v>16700</v>
       </c>
       <c r="E12" s="3">
-        <v>20000</v>
+        <v>17800</v>
       </c>
       <c r="F12" s="3">
-        <v>22000</v>
+        <v>18700</v>
       </c>
       <c r="G12" s="3">
-        <v>21700</v>
+        <v>19400</v>
       </c>
       <c r="H12" s="3">
-        <v>23300</v>
+        <v>21300</v>
       </c>
       <c r="I12" s="3">
+        <v>21000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>22500</v>
+      </c>
+      <c r="K12" s="3">
         <v>18600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>18500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>17800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>13200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>17400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>19800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>19900</v>
-      </c>
-      <c r="P12" s="3">
-        <v>15600</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>18600</v>
       </c>
       <c r="R12" s="3">
         <v>15600</v>
       </c>
       <c r="S12" s="3">
+        <v>18600</v>
+      </c>
+      <c r="T12" s="3">
+        <v>15600</v>
+      </c>
+      <c r="U12" s="3">
         <v>14300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>11600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>13100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>11000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>9800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>19900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>10000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>8500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>6400</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>6600</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AE12" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,8 +1259,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1242,35 +1282,35 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
         <v>4700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>5200</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1279,37 +1319,43 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>1500</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>700</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="3">
         <v>100</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>800</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>378500</v>
+        <v>376300</v>
       </c>
       <c r="E17" s="3">
-        <v>350100</v>
+        <v>378400</v>
       </c>
       <c r="F17" s="3">
-        <v>358900</v>
+        <v>366900</v>
       </c>
       <c r="G17" s="3">
-        <v>267500</v>
+        <v>339300</v>
       </c>
       <c r="H17" s="3">
-        <v>226900</v>
+        <v>347800</v>
       </c>
       <c r="I17" s="3">
+        <v>259200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>220000</v>
+      </c>
+      <c r="K17" s="3">
         <v>310600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>334500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>312400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>293800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>411400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>378100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>443700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>371300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>343000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>296900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>218100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>227900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>193700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>205600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>199500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>206600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>199300</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC17" s="3">
         <v>163100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>195600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>147300</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>55100</v>
+        <v>44700</v>
       </c>
       <c r="E18" s="3">
-        <v>32400</v>
+        <v>32600</v>
       </c>
       <c r="F18" s="3">
-        <v>-15900</v>
+        <v>53400</v>
       </c>
       <c r="G18" s="3">
-        <v>-24000</v>
+        <v>31400</v>
       </c>
       <c r="H18" s="3">
-        <v>85700</v>
+        <v>-15400</v>
       </c>
       <c r="I18" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>83000</v>
+      </c>
+      <c r="K18" s="3">
         <v>111500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>130100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>110300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>128400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>53400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>57800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-49300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>113400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>147900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>92000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>51800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>142200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>65200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>79800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>32000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>29900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>16300</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC18" s="3">
         <v>14100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>6500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,91 +1682,99 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2000</v>
+        <v>15400</v>
       </c>
       <c r="E20" s="3">
-        <v>16900</v>
+        <v>22700</v>
       </c>
       <c r="F20" s="3">
-        <v>45400</v>
+        <v>-1900</v>
       </c>
       <c r="G20" s="3">
-        <v>38400</v>
+        <v>16400</v>
       </c>
       <c r="H20" s="3">
-        <v>-42600</v>
+        <v>44000</v>
       </c>
       <c r="I20" s="3">
+        <v>37200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-13800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>3200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>10600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-44300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>4000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>15300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-77400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-17300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>22600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>26100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>41600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>9000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>2300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>7600</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC20" s="3">
         <v>2100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1764,26 +1838,32 @@
       <c r="W21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z21" s="3">
         <v>33000</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD21" s="3">
         <v>6600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1814,11 +1894,11 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>10</v>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>10</v>
@@ -1832,207 +1912,225 @@
       <c r="R22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>1200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>1000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>1100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>3600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>3300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>3200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>3000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>53100</v>
+        <v>60100</v>
       </c>
       <c r="E23" s="3">
-        <v>49300</v>
+        <v>55400</v>
       </c>
       <c r="F23" s="3">
-        <v>29500</v>
+        <v>51500</v>
       </c>
       <c r="G23" s="3">
-        <v>14300</v>
+        <v>47700</v>
       </c>
       <c r="H23" s="3">
-        <v>43000</v>
+        <v>28600</v>
       </c>
       <c r="I23" s="3">
+        <v>13900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>41700</v>
+      </c>
+      <c r="K23" s="3">
         <v>97600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>133300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>121000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>84100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>57400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>73000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-126700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>94500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>130600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>114600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>77600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>183200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>73000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>78200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>31500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>31100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>20400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>5600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>13100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>2900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G24" s="3">
+        <v>9800</v>
+      </c>
+      <c r="H24" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K24" s="3">
+        <v>15100</v>
+      </c>
+      <c r="L24" s="3">
+        <v>21500</v>
+      </c>
+      <c r="M24" s="3">
+        <v>18900</v>
+      </c>
+      <c r="N24" s="3">
+        <v>13100</v>
+      </c>
+      <c r="O24" s="3">
+        <v>6600</v>
+      </c>
+      <c r="P24" s="3">
+        <v>11300</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="R24" s="3">
+        <v>14800</v>
+      </c>
+      <c r="S24" s="3">
+        <v>19100</v>
+      </c>
+      <c r="T24" s="3">
+        <v>16600</v>
+      </c>
+      <c r="U24" s="3">
+        <v>13000</v>
+      </c>
+      <c r="V24" s="3">
+        <v>30700</v>
+      </c>
+      <c r="W24" s="3">
+        <v>10500</v>
+      </c>
+      <c r="X24" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>5900</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>16200</v>
+      </c>
+      <c r="AA24" s="3">
         <v>10300</v>
       </c>
-      <c r="E24" s="3">
-        <v>10100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>5700</v>
-      </c>
-      <c r="G24" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H24" s="3">
-        <v>6700</v>
-      </c>
-      <c r="I24" s="3">
-        <v>15100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>21500</v>
-      </c>
-      <c r="K24" s="3">
-        <v>18900</v>
-      </c>
-      <c r="L24" s="3">
-        <v>13100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>6600</v>
-      </c>
-      <c r="N24" s="3">
-        <v>11300</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-19700</v>
-      </c>
-      <c r="P24" s="3">
-        <v>14800</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>19100</v>
-      </c>
-      <c r="R24" s="3">
-        <v>16600</v>
-      </c>
-      <c r="S24" s="3">
-        <v>13000</v>
-      </c>
-      <c r="T24" s="3">
-        <v>30700</v>
-      </c>
-      <c r="U24" s="3">
-        <v>10500</v>
-      </c>
-      <c r="V24" s="3">
-        <v>-14700</v>
-      </c>
-      <c r="W24" s="3">
-        <v>5900</v>
-      </c>
-      <c r="X24" s="3">
-        <v>16200</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>10300</v>
-      </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>3300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>4900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>4700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>42800</v>
+        <v>49000</v>
       </c>
       <c r="E26" s="3">
-        <v>39200</v>
+        <v>45100</v>
       </c>
       <c r="F26" s="3">
-        <v>23800</v>
+        <v>41500</v>
       </c>
       <c r="G26" s="3">
-        <v>11600</v>
+        <v>38000</v>
       </c>
       <c r="H26" s="3">
-        <v>36300</v>
+        <v>23100</v>
       </c>
       <c r="I26" s="3">
+        <v>11200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>35200</v>
+      </c>
+      <c r="K26" s="3">
         <v>82600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>111800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>102100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>70900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>50800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>61700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-107000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>79700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>111500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>98000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>64500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>152400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>62600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>92900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>25500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>14900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>10100</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC26" s="3">
         <v>8200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>42800</v>
+        <v>49000</v>
       </c>
       <c r="E27" s="3">
-        <v>39200</v>
+        <v>45100</v>
       </c>
       <c r="F27" s="3">
-        <v>23400</v>
+        <v>41500</v>
       </c>
       <c r="G27" s="3">
-        <v>11100</v>
+        <v>38000</v>
       </c>
       <c r="H27" s="3">
-        <v>36400</v>
+        <v>22700</v>
       </c>
       <c r="I27" s="3">
+        <v>10800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>35200</v>
+      </c>
+      <c r="K27" s="3">
         <v>82500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>111800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>102200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>70900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>50800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>61700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-107000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>79700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>111500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>98000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>64500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>152400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>62600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>92900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>25500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>3200</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>800</v>
-      </c>
-      <c r="Z27" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AA27" s="3">
         <v>800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AB27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>800</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-4200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2746,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2000</v>
+        <v>-15400</v>
       </c>
       <c r="E32" s="3">
-        <v>-16900</v>
+        <v>-22700</v>
       </c>
       <c r="F32" s="3">
-        <v>-45400</v>
+        <v>1900</v>
       </c>
       <c r="G32" s="3">
-        <v>-38400</v>
+        <v>-16400</v>
       </c>
       <c r="H32" s="3">
-        <v>42600</v>
+        <v>-44000</v>
       </c>
       <c r="I32" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>41300</v>
+      </c>
+      <c r="K32" s="3">
         <v>13800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-3200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-10600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>44300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-4000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-15300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>77400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>18900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>17300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-22600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-26100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-41600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-9000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-7600</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>42800</v>
+        <v>49000</v>
       </c>
       <c r="E33" s="3">
-        <v>39200</v>
+        <v>45100</v>
       </c>
       <c r="F33" s="3">
-        <v>23400</v>
+        <v>41500</v>
       </c>
       <c r="G33" s="3">
-        <v>11100</v>
+        <v>38000</v>
       </c>
       <c r="H33" s="3">
-        <v>36400</v>
+        <v>22700</v>
       </c>
       <c r="I33" s="3">
+        <v>10800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>35200</v>
+      </c>
+      <c r="K33" s="3">
         <v>82500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>111800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>102200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>70900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>50800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>61700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-107000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>79700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>111500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>98000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>64500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>152400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>62600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>92900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>25500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>3200</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>800</v>
-      </c>
-      <c r="Z33" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AA33" s="3">
         <v>800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AB33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>800</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-4200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>42800</v>
+        <v>49000</v>
       </c>
       <c r="E35" s="3">
-        <v>39200</v>
+        <v>45100</v>
       </c>
       <c r="F35" s="3">
-        <v>23400</v>
+        <v>41500</v>
       </c>
       <c r="G35" s="3">
-        <v>11100</v>
+        <v>38000</v>
       </c>
       <c r="H35" s="3">
-        <v>36400</v>
+        <v>22700</v>
       </c>
       <c r="I35" s="3">
+        <v>10800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>35200</v>
+      </c>
+      <c r="K35" s="3">
         <v>82500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>111800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>102200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>70900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>50800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>61700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-107000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>79700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>111500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>98000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>64500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>152400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>62600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>92900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>25500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>3200</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>800</v>
-      </c>
-      <c r="Z35" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AA35" s="3">
         <v>800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AB35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>800</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-4200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,102 +3266,110 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>212400</v>
+        <v>362000</v>
       </c>
       <c r="E41" s="3">
-        <v>299700</v>
+        <v>315800</v>
       </c>
       <c r="F41" s="3">
-        <v>292900</v>
+        <v>205900</v>
       </c>
       <c r="G41" s="3">
-        <v>327400</v>
+        <v>290500</v>
       </c>
       <c r="H41" s="3">
-        <v>378700</v>
+        <v>283900</v>
       </c>
       <c r="I41" s="3">
+        <v>317400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>367100</v>
+      </c>
+      <c r="K41" s="3">
         <v>361900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>338900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>335900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>217700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>234800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>171600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>204100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>321100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>431100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>165300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>204100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>166800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>61700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>61600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>88000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>167200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>74900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>145700</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AC41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>38400</v>
+      <c r="D42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>10</v>
+      <c r="F42" s="3">
+        <v>37200</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>10</v>
@@ -3203,11 +3383,11 @@
       <c r="J42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -3260,551 +3440,593 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1464000</v>
+        <v>1340400</v>
       </c>
       <c r="E43" s="3">
-        <v>1447100</v>
+        <v>1345000</v>
       </c>
       <c r="F43" s="3">
-        <v>1328600</v>
+        <v>1419000</v>
       </c>
       <c r="G43" s="3">
-        <v>1192400</v>
+        <v>1402700</v>
       </c>
       <c r="H43" s="3">
-        <v>1218600</v>
+        <v>1287800</v>
       </c>
       <c r="I43" s="3">
+        <v>1155700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1181100</v>
+      </c>
+      <c r="K43" s="3">
         <v>1143300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1213000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1206900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1370400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1473600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1384300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1357000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1226000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1001000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>900300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>875300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>953400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>957000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1390300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1719200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>1509000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>1421400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>1287700</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AC43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="E44" s="3">
-        <v>12300</v>
+        <v>7000</v>
       </c>
       <c r="F44" s="3">
-        <v>9600</v>
+        <v>7400</v>
       </c>
       <c r="G44" s="3">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="H44" s="3">
-        <v>6800</v>
+        <v>9300</v>
       </c>
       <c r="I44" s="3">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="J44" s="3">
         <v>6600</v>
       </c>
       <c r="K44" s="3">
-        <v>9700</v>
+        <v>7500</v>
       </c>
       <c r="L44" s="3">
         <v>6600</v>
       </c>
       <c r="M44" s="3">
-        <v>8700</v>
+        <v>9700</v>
       </c>
       <c r="N44" s="3">
-        <v>8200</v>
+        <v>6600</v>
       </c>
       <c r="O44" s="3">
         <v>8700</v>
       </c>
       <c r="P44" s="3">
+        <v>8200</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>8700</v>
+      </c>
+      <c r="R44" s="3">
         <v>16400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>21400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>15800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>8500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>8300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>13300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>10600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>13600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>15100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>18900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>18500</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB44" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AC44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>805300</v>
+        <v>857200</v>
       </c>
       <c r="E45" s="3">
-        <v>768900</v>
+        <v>1017800</v>
       </c>
       <c r="F45" s="3">
-        <v>802500</v>
+        <v>780600</v>
       </c>
       <c r="G45" s="3">
-        <v>841400</v>
+        <v>745300</v>
       </c>
       <c r="H45" s="3">
-        <v>763500</v>
+        <v>777900</v>
       </c>
       <c r="I45" s="3">
+        <v>815500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>740000</v>
+      </c>
+      <c r="K45" s="3">
         <v>802100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>718700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>709200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>690800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1001300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1110800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1018200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>978100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>710400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>581500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>421600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>368100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>409800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>286300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>266700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>199200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>111500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>70400</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AC45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2527700</v>
+        <v>2567200</v>
       </c>
       <c r="E46" s="3">
-        <v>2528100</v>
+        <v>2685600</v>
       </c>
       <c r="F46" s="3">
-        <v>2433600</v>
+        <v>2450000</v>
       </c>
       <c r="G46" s="3">
-        <v>2369200</v>
+        <v>2450400</v>
       </c>
       <c r="H46" s="3">
-        <v>2367600</v>
+        <v>2358800</v>
       </c>
       <c r="I46" s="3">
+        <v>2296400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>2294800</v>
+      </c>
+      <c r="K46" s="3">
         <v>2314800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2277100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2261600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2285400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2718400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2675000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2588000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2541600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2163900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1662800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1509400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1496600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1441900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1748800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>2087400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1890500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1626700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1522300</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AC46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>201000</v>
+        <v>204300</v>
       </c>
       <c r="E47" s="3">
-        <v>201300</v>
+        <v>196200</v>
       </c>
       <c r="F47" s="3">
-        <v>190100</v>
+        <v>194800</v>
       </c>
       <c r="G47" s="3">
-        <v>148200</v>
+        <v>195100</v>
       </c>
       <c r="H47" s="3">
-        <v>150200</v>
+        <v>184200</v>
       </c>
       <c r="I47" s="3">
+        <v>143600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>145600</v>
+      </c>
+      <c r="K47" s="3">
         <v>168900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>183700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>194400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>198700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>197200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>212500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>249100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>297900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>310000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>258300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>248900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>272600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>253800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>314900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>349900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>268400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>218800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>194900</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AC47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>40500</v>
+        <v>53100</v>
       </c>
       <c r="E48" s="3">
-        <v>34500</v>
+        <v>45100</v>
       </c>
       <c r="F48" s="3">
-        <v>30800</v>
+        <v>39200</v>
       </c>
       <c r="G48" s="3">
-        <v>30500</v>
+        <v>33400</v>
       </c>
       <c r="H48" s="3">
-        <v>27800</v>
+        <v>29900</v>
       </c>
       <c r="I48" s="3">
+        <v>29600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>26900</v>
+      </c>
+      <c r="K48" s="3">
         <v>22300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>18800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>17800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>17500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>15300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>15600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>15900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>14300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>13800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>14400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>14100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>12000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>11000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>10700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>10200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>9400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>8600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>8700</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AC48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>132400</v>
+        <v>126000</v>
       </c>
       <c r="E49" s="3">
-        <v>133700</v>
+        <v>127200</v>
       </c>
       <c r="F49" s="3">
-        <v>134900</v>
+        <v>128400</v>
       </c>
       <c r="G49" s="3">
-        <v>136100</v>
+        <v>129500</v>
       </c>
       <c r="H49" s="3">
-        <v>137300</v>
+        <v>130700</v>
       </c>
       <c r="I49" s="3">
+        <v>131900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>133100</v>
+      </c>
+      <c r="K49" s="3">
         <v>138500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>139800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>142500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>139300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>148700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>150000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>161900</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>10</v>
       </c>
@@ -3814,11 +4036,11 @@
       <c r="T49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
-      </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="U49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
@@ -3841,8 +4063,14 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4241,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>335300</v>
+        <v>341200</v>
       </c>
       <c r="E52" s="3">
-        <v>343300</v>
+        <v>334900</v>
       </c>
       <c r="F52" s="3">
-        <v>346900</v>
+        <v>325000</v>
       </c>
       <c r="G52" s="3">
-        <v>327900</v>
+        <v>332700</v>
       </c>
       <c r="H52" s="3">
-        <v>306100</v>
+        <v>336300</v>
       </c>
       <c r="I52" s="3">
+        <v>317800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>296600</v>
+      </c>
+      <c r="K52" s="3">
         <v>279600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>241400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>202900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>191200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>183300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>176700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>177400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>108200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>98300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>67800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>54000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>29900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>42900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>38800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>18600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>17700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>12400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>8400</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AC52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3236900</v>
+        <v>3291800</v>
       </c>
       <c r="E54" s="3">
-        <v>3240800</v>
+        <v>3389000</v>
       </c>
       <c r="F54" s="3">
-        <v>3136300</v>
+        <v>3137300</v>
       </c>
       <c r="G54" s="3">
-        <v>3011900</v>
+        <v>3141200</v>
       </c>
       <c r="H54" s="3">
-        <v>2988900</v>
+        <v>3039900</v>
       </c>
       <c r="I54" s="3">
+        <v>2919300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>2897000</v>
+      </c>
+      <c r="K54" s="3">
         <v>2924100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2860800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2819200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2832000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3262900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3229800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3192300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2962000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2586100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2003200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1826400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1811100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1749600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2113200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>2466200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>2186000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1866600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>1734300</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AC54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,483 +4578,515 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3700</v>
+        <v>5500</v>
       </c>
       <c r="E57" s="3">
-        <v>4800</v>
+        <v>5100</v>
       </c>
       <c r="F57" s="3">
-        <v>8600</v>
+        <v>3600</v>
       </c>
       <c r="G57" s="3">
-        <v>3600</v>
+        <v>4600</v>
       </c>
       <c r="H57" s="3">
+        <v>8300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>5300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>6100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>6000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>9700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>8700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>14800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>31100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>31800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>38800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>21900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>19700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>29800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>27100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>18600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>29400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>9700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>11700</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AC57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1082700</v>
+        <v>798800</v>
       </c>
       <c r="E58" s="3">
-        <v>1031500</v>
+        <v>1076900</v>
       </c>
       <c r="F58" s="3">
-        <v>663200</v>
+        <v>1049400</v>
       </c>
       <c r="G58" s="3">
-        <v>584400</v>
+        <v>999800</v>
       </c>
       <c r="H58" s="3">
-        <v>696700</v>
+        <v>642800</v>
       </c>
       <c r="I58" s="3">
+        <v>566400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>675300</v>
+      </c>
+      <c r="K58" s="3">
         <v>699600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>755800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>912700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>906600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1003500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1045300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1007500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>882800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>701900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>657800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>605900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>738400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>951600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1402200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1893600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1587100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>1618800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>1541700</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AC58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>687900</v>
+        <v>827100</v>
       </c>
       <c r="E59" s="3">
-        <v>685500</v>
+        <v>741600</v>
       </c>
       <c r="F59" s="3">
-        <v>680600</v>
+        <v>666700</v>
       </c>
       <c r="G59" s="3">
-        <v>712100</v>
+        <v>664400</v>
       </c>
       <c r="H59" s="3">
-        <v>749200</v>
+        <v>659700</v>
       </c>
       <c r="I59" s="3">
+        <v>690200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>726100</v>
+      </c>
+      <c r="K59" s="3">
         <v>721300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>719300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>680900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>760500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1045100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1055700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1077900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>595500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>535200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>442300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>415200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>406500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>321700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>293700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>242300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>292200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>186800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>158000</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AC59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1774300</v>
+        <v>1631400</v>
       </c>
       <c r="E60" s="3">
-        <v>1721700</v>
+        <v>1823500</v>
       </c>
       <c r="F60" s="3">
-        <v>1352400</v>
+        <v>1719800</v>
       </c>
       <c r="G60" s="3">
-        <v>1300100</v>
+        <v>1668800</v>
       </c>
       <c r="H60" s="3">
-        <v>1448100</v>
+        <v>1310800</v>
       </c>
       <c r="I60" s="3">
+        <v>1260100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1403600</v>
+      </c>
+      <c r="K60" s="3">
         <v>1423600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1480400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1599700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1673100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2058300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2109800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2100300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1509400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1269000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1138900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1043000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1164600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1303200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1723000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2154400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1908700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1815300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>1711400</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AC60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>211000</v>
+        <v>354300</v>
       </c>
       <c r="E61" s="3">
-        <v>308200</v>
+        <v>303800</v>
       </c>
       <c r="F61" s="3">
-        <v>591700</v>
+        <v>204500</v>
       </c>
       <c r="G61" s="3">
-        <v>519200</v>
+        <v>298800</v>
       </c>
       <c r="H61" s="3">
-        <v>366700</v>
+        <v>573500</v>
       </c>
       <c r="I61" s="3">
+        <v>503200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>355400</v>
+      </c>
+      <c r="K61" s="3">
         <v>371700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>358500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>308400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>382200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>469300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>440800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>441600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>384400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>338000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>4000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>32100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>22900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>52200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>47300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>35300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>24800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>19900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>5000</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F62" s="3">
+        <v>21400</v>
+      </c>
+      <c r="G62" s="3">
         <v>22100</v>
       </c>
-      <c r="E62" s="3">
-        <v>22800</v>
-      </c>
-      <c r="F62" s="3">
-        <v>30200</v>
-      </c>
-      <c r="G62" s="3">
-        <v>29900</v>
-      </c>
       <c r="H62" s="3">
-        <v>27300</v>
+        <v>29300</v>
       </c>
       <c r="I62" s="3">
+        <v>29000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>26400</v>
+      </c>
+      <c r="K62" s="3">
         <v>26000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>8200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>7400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>6800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>10300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>11700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>10000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>52000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>51700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>42600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>33400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>27200</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>10</v>
       </c>
@@ -4807,17 +5099,23 @@
       <c r="Z62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA62" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="3">
-        <v>0</v>
+      <c r="AA62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2007400</v>
+        <v>2000300</v>
       </c>
       <c r="E66" s="3">
-        <v>2058600</v>
+        <v>2147100</v>
       </c>
       <c r="F66" s="3">
-        <v>1980100</v>
+        <v>1945700</v>
       </c>
       <c r="G66" s="3">
-        <v>1858100</v>
+        <v>1995300</v>
       </c>
       <c r="H66" s="3">
-        <v>1847700</v>
+        <v>1919200</v>
       </c>
       <c r="I66" s="3">
+        <v>1800900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1790900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1827100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1852900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1921300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2067700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2537800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2562200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2551900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1945800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1658700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1185500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1108400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1214700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1355400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1770300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2189700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1933500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1835100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1716400</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AC66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5414,22 +5750,28 @@
         <v>0</v>
       </c>
       <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
         <v>100100</v>
       </c>
-      <c r="Z70" s="3">
+      <c r="AB70" s="3">
         <v>97600</v>
       </c>
-      <c r="AA70" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB70" s="3">
-        <v>0</v>
-      </c>
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>841100</v>
+        <v>909400</v>
       </c>
       <c r="E72" s="3">
-        <v>798200</v>
+        <v>860300</v>
       </c>
       <c r="F72" s="3">
-        <v>759100</v>
+        <v>815200</v>
       </c>
       <c r="G72" s="3">
+        <v>773700</v>
+      </c>
+      <c r="H72" s="3">
         <v>735700</v>
       </c>
-      <c r="H72" s="3">
-        <v>724600</v>
-      </c>
       <c r="I72" s="3">
+        <v>713000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>702300</v>
+      </c>
+      <c r="K72" s="3">
         <v>688200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>605600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>499000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>384600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>332100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>281300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>235000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>629300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>549500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>443800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>361300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>260300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>74600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>30400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-35600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-58600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-72800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-82900</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AC72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1229400</v>
+        <v>1291500</v>
       </c>
       <c r="E76" s="3">
-        <v>1182200</v>
+        <v>1241900</v>
       </c>
       <c r="F76" s="3">
-        <v>1156300</v>
+        <v>1191600</v>
       </c>
       <c r="G76" s="3">
-        <v>1153800</v>
+        <v>1145900</v>
       </c>
       <c r="H76" s="3">
-        <v>1141100</v>
+        <v>1120700</v>
       </c>
       <c r="I76" s="3">
+        <v>1118400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1106000</v>
+      </c>
+      <c r="K76" s="3">
         <v>1097000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1007800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>898000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>764300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>725000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>667500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>640500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1016200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>927400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>817700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>718000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>596400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>394200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>342900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>276500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>252500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-68600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-79700</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AC76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>42800</v>
+        <v>49000</v>
       </c>
       <c r="E81" s="3">
-        <v>39200</v>
+        <v>45100</v>
       </c>
       <c r="F81" s="3">
-        <v>23400</v>
+        <v>41500</v>
       </c>
       <c r="G81" s="3">
-        <v>11100</v>
+        <v>38000</v>
       </c>
       <c r="H81" s="3">
-        <v>36400</v>
+        <v>22700</v>
       </c>
       <c r="I81" s="3">
+        <v>10800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>35200</v>
+      </c>
+      <c r="K81" s="3">
         <v>82500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>111800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>102200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>70900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>50800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>61700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-107000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>79700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>111500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>98000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>64500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>152400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>62600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>92900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>25500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>3200</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>800</v>
-      </c>
-      <c r="Z81" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AA81" s="3">
         <v>800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AB81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>800</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-4200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6277,14 +6675,14 @@
         <v>0</v>
       </c>
       <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
         <v>800</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z83" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AA83" s="3" t="s">
         <v>10</v>
       </c>
@@ -6294,8 +6692,14 @@
       <c r="AC83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,8 +7137,14 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6775,14 +7209,14 @@
         <v>0</v>
       </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>99300</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z89" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AA89" s="3" t="s">
         <v>10</v>
       </c>
@@ -6792,8 +7226,14 @@
       <c r="AC89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6889,14 +7331,14 @@
         <v>0</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-800</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AA91" s="3" t="s">
         <v>10</v>
       </c>
@@ -6906,8 +7348,14 @@
       <c r="AC91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7526,14 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7138,14 +7598,14 @@
         <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-187300</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z94" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AA94" s="3" t="s">
         <v>10</v>
       </c>
@@ -7155,8 +7615,14 @@
       <c r="AC94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +8004,14 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7584,14 +8076,14 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>180500</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AA100" s="3" t="s">
         <v>10</v>
       </c>
@@ -7601,8 +8093,14 @@
       <c r="AC100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7667,14 +8165,14 @@
         <v>0</v>
       </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-200</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z101" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AA101" s="3" t="s">
         <v>10</v>
       </c>
@@ -7684,8 +8182,14 @@
       <c r="AC101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7750,14 +8254,14 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>92300</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z102" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AA102" s="3" t="s">
         <v>10</v>
       </c>
@@ -7765,6 +8269,12 @@
         <v>10</v>
       </c>
       <c r="AC102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LX_QTR_FIN.xlsx
@@ -793,25 +793,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>421000</v>
+        <v>421900</v>
       </c>
       <c r="E8" s="3">
-        <v>411000</v>
+        <v>411900</v>
       </c>
       <c r="F8" s="3">
-        <v>420300</v>
+        <v>421200</v>
       </c>
       <c r="G8" s="3">
-        <v>370700</v>
+        <v>371500</v>
       </c>
       <c r="H8" s="3">
-        <v>332400</v>
+        <v>333200</v>
       </c>
       <c r="I8" s="3">
-        <v>235900</v>
+        <v>236400</v>
       </c>
       <c r="J8" s="3">
-        <v>303000</v>
+        <v>303700</v>
       </c>
       <c r="K8" s="3">
         <v>422000</v>
@@ -882,25 +882,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>283900</v>
+        <v>284500</v>
       </c>
       <c r="E9" s="3">
-        <v>286500</v>
+        <v>287200</v>
       </c>
       <c r="F9" s="3">
-        <v>276500</v>
+        <v>277100</v>
       </c>
       <c r="G9" s="3">
-        <v>247100</v>
+        <v>247600</v>
       </c>
       <c r="H9" s="3">
-        <v>245200</v>
+        <v>245700</v>
       </c>
       <c r="I9" s="3">
-        <v>172400</v>
+        <v>172800</v>
       </c>
       <c r="J9" s="3">
-        <v>136000</v>
+        <v>136300</v>
       </c>
       <c r="K9" s="3">
         <v>207900</v>
@@ -971,25 +971,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>137100</v>
+        <v>137400</v>
       </c>
       <c r="E10" s="3">
-        <v>124400</v>
+        <v>124700</v>
       </c>
       <c r="F10" s="3">
-        <v>143800</v>
+        <v>144100</v>
       </c>
       <c r="G10" s="3">
-        <v>123600</v>
+        <v>123900</v>
       </c>
       <c r="H10" s="3">
-        <v>87200</v>
+        <v>87400</v>
       </c>
       <c r="I10" s="3">
-        <v>63500</v>
+        <v>63600</v>
       </c>
       <c r="J10" s="3">
-        <v>167000</v>
+        <v>167400</v>
       </c>
       <c r="K10" s="3">
         <v>214200</v>
@@ -1093,10 +1093,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>16700</v>
+        <v>16800</v>
       </c>
       <c r="E12" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="F12" s="3">
         <v>18700</v>
@@ -1108,10 +1108,10 @@
         <v>21300</v>
       </c>
       <c r="I12" s="3">
-        <v>21000</v>
+        <v>21100</v>
       </c>
       <c r="J12" s="3">
-        <v>22500</v>
+        <v>22600</v>
       </c>
       <c r="K12" s="3">
         <v>18600</v>
@@ -1479,25 +1479,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>376300</v>
+        <v>377100</v>
       </c>
       <c r="E17" s="3">
-        <v>378400</v>
+        <v>379200</v>
       </c>
       <c r="F17" s="3">
-        <v>366900</v>
+        <v>367700</v>
       </c>
       <c r="G17" s="3">
-        <v>339300</v>
+        <v>340000</v>
       </c>
       <c r="H17" s="3">
-        <v>347800</v>
+        <v>348600</v>
       </c>
       <c r="I17" s="3">
-        <v>259200</v>
+        <v>259800</v>
       </c>
       <c r="J17" s="3">
-        <v>220000</v>
+        <v>220400</v>
       </c>
       <c r="K17" s="3">
         <v>310600</v>
@@ -1568,13 +1568,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>44700</v>
+        <v>44800</v>
       </c>
       <c r="E18" s="3">
-        <v>32600</v>
+        <v>32700</v>
       </c>
       <c r="F18" s="3">
-        <v>53400</v>
+        <v>53500</v>
       </c>
       <c r="G18" s="3">
         <v>31400</v>
@@ -1586,7 +1586,7 @@
         <v>-23300</v>
       </c>
       <c r="J18" s="3">
-        <v>83000</v>
+        <v>83200</v>
       </c>
       <c r="K18" s="3">
         <v>111500</v>
@@ -1690,10 +1690,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15400</v>
+        <v>15500</v>
       </c>
       <c r="E20" s="3">
-        <v>22700</v>
+        <v>22800</v>
       </c>
       <c r="F20" s="3">
         <v>-1900</v>
@@ -1702,13 +1702,13 @@
         <v>16400</v>
       </c>
       <c r="H20" s="3">
-        <v>44000</v>
+        <v>44100</v>
       </c>
       <c r="I20" s="3">
-        <v>37200</v>
+        <v>37300</v>
       </c>
       <c r="J20" s="3">
-        <v>-41300</v>
+        <v>-41400</v>
       </c>
       <c r="K20" s="3">
         <v>-13800</v>
@@ -1957,25 +1957,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>60100</v>
+        <v>60300</v>
       </c>
       <c r="E23" s="3">
-        <v>55400</v>
+        <v>55500</v>
       </c>
       <c r="F23" s="3">
-        <v>51500</v>
+        <v>51600</v>
       </c>
       <c r="G23" s="3">
-        <v>47700</v>
+        <v>47800</v>
       </c>
       <c r="H23" s="3">
-        <v>28600</v>
+        <v>28700</v>
       </c>
       <c r="I23" s="3">
         <v>13900</v>
       </c>
       <c r="J23" s="3">
-        <v>41700</v>
+        <v>41800</v>
       </c>
       <c r="K23" s="3">
         <v>97600</v>
@@ -2046,10 +2046,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="E24" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="F24" s="3">
         <v>10000</v>
@@ -2224,25 +2224,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>49000</v>
+        <v>49100</v>
       </c>
       <c r="E26" s="3">
-        <v>45100</v>
+        <v>45200</v>
       </c>
       <c r="F26" s="3">
-        <v>41500</v>
+        <v>41600</v>
       </c>
       <c r="G26" s="3">
-        <v>38000</v>
+        <v>38100</v>
       </c>
       <c r="H26" s="3">
         <v>23100</v>
       </c>
       <c r="I26" s="3">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="J26" s="3">
-        <v>35200</v>
+        <v>35300</v>
       </c>
       <c r="K26" s="3">
         <v>82600</v>
@@ -2313,25 +2313,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>49000</v>
+        <v>49100</v>
       </c>
       <c r="E27" s="3">
-        <v>45100</v>
+        <v>45200</v>
       </c>
       <c r="F27" s="3">
-        <v>41500</v>
+        <v>41600</v>
       </c>
       <c r="G27" s="3">
         <v>38000</v>
       </c>
       <c r="H27" s="3">
-        <v>22700</v>
+        <v>22800</v>
       </c>
       <c r="I27" s="3">
         <v>10800</v>
       </c>
       <c r="J27" s="3">
-        <v>35200</v>
+        <v>35300</v>
       </c>
       <c r="K27" s="3">
         <v>82500</v>
@@ -2758,10 +2758,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15400</v>
+        <v>-15500</v>
       </c>
       <c r="E32" s="3">
-        <v>-22700</v>
+        <v>-22800</v>
       </c>
       <c r="F32" s="3">
         <v>1900</v>
@@ -2770,13 +2770,13 @@
         <v>-16400</v>
       </c>
       <c r="H32" s="3">
-        <v>-44000</v>
+        <v>-44100</v>
       </c>
       <c r="I32" s="3">
-        <v>-37200</v>
+        <v>-37300</v>
       </c>
       <c r="J32" s="3">
-        <v>41300</v>
+        <v>41400</v>
       </c>
       <c r="K32" s="3">
         <v>13800</v>
@@ -2847,25 +2847,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>49000</v>
+        <v>49100</v>
       </c>
       <c r="E33" s="3">
-        <v>45100</v>
+        <v>45200</v>
       </c>
       <c r="F33" s="3">
-        <v>41500</v>
+        <v>41600</v>
       </c>
       <c r="G33" s="3">
         <v>38000</v>
       </c>
       <c r="H33" s="3">
-        <v>22700</v>
+        <v>22800</v>
       </c>
       <c r="I33" s="3">
         <v>10800</v>
       </c>
       <c r="J33" s="3">
-        <v>35200</v>
+        <v>35300</v>
       </c>
       <c r="K33" s="3">
         <v>82500</v>
@@ -3025,25 +3025,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>49000</v>
+        <v>49100</v>
       </c>
       <c r="E35" s="3">
-        <v>45100</v>
+        <v>45200</v>
       </c>
       <c r="F35" s="3">
-        <v>41500</v>
+        <v>41600</v>
       </c>
       <c r="G35" s="3">
         <v>38000</v>
       </c>
       <c r="H35" s="3">
-        <v>22700</v>
+        <v>22800</v>
       </c>
       <c r="I35" s="3">
         <v>10800</v>
       </c>
       <c r="J35" s="3">
-        <v>35200</v>
+        <v>35300</v>
       </c>
       <c r="K35" s="3">
         <v>82500</v>
@@ -3274,25 +3274,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>362000</v>
+        <v>362800</v>
       </c>
       <c r="E41" s="3">
-        <v>315800</v>
+        <v>316500</v>
       </c>
       <c r="F41" s="3">
-        <v>205900</v>
+        <v>206300</v>
       </c>
       <c r="G41" s="3">
-        <v>290500</v>
+        <v>291100</v>
       </c>
       <c r="H41" s="3">
-        <v>283900</v>
+        <v>284500</v>
       </c>
       <c r="I41" s="3">
-        <v>317400</v>
+        <v>318100</v>
       </c>
       <c r="J41" s="3">
-        <v>367100</v>
+        <v>367900</v>
       </c>
       <c r="K41" s="3">
         <v>361900</v>
@@ -3369,7 +3369,7 @@
         <v>10</v>
       </c>
       <c r="F42" s="3">
-        <v>37200</v>
+        <v>37300</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>10</v>
@@ -3452,25 +3452,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1340400</v>
+        <v>1343300</v>
       </c>
       <c r="E43" s="3">
-        <v>1345000</v>
+        <v>1347900</v>
       </c>
       <c r="F43" s="3">
-        <v>1419000</v>
+        <v>1422000</v>
       </c>
       <c r="G43" s="3">
-        <v>1402700</v>
+        <v>1405700</v>
       </c>
       <c r="H43" s="3">
-        <v>1287800</v>
+        <v>1290600</v>
       </c>
       <c r="I43" s="3">
-        <v>1155700</v>
+        <v>1158300</v>
       </c>
       <c r="J43" s="3">
-        <v>1181100</v>
+        <v>1183700</v>
       </c>
       <c r="K43" s="3">
         <v>1143300</v>
@@ -3630,25 +3630,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>857200</v>
+        <v>859100</v>
       </c>
       <c r="E45" s="3">
-        <v>1017800</v>
+        <v>1020000</v>
       </c>
       <c r="F45" s="3">
-        <v>780600</v>
+        <v>782300</v>
       </c>
       <c r="G45" s="3">
-        <v>745300</v>
+        <v>746900</v>
       </c>
       <c r="H45" s="3">
-        <v>777900</v>
+        <v>779500</v>
       </c>
       <c r="I45" s="3">
-        <v>815500</v>
+        <v>817300</v>
       </c>
       <c r="J45" s="3">
-        <v>740000</v>
+        <v>741600</v>
       </c>
       <c r="K45" s="3">
         <v>802100</v>
@@ -3719,25 +3719,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2567200</v>
+        <v>2572700</v>
       </c>
       <c r="E46" s="3">
-        <v>2685600</v>
+        <v>2691500</v>
       </c>
       <c r="F46" s="3">
-        <v>2450000</v>
+        <v>2455400</v>
       </c>
       <c r="G46" s="3">
-        <v>2450400</v>
+        <v>2455700</v>
       </c>
       <c r="H46" s="3">
-        <v>2358800</v>
+        <v>2364000</v>
       </c>
       <c r="I46" s="3">
-        <v>2296400</v>
+        <v>2301400</v>
       </c>
       <c r="J46" s="3">
-        <v>2294800</v>
+        <v>2299800</v>
       </c>
       <c r="K46" s="3">
         <v>2314800</v>
@@ -3808,25 +3808,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>204300</v>
+        <v>204700</v>
       </c>
       <c r="E47" s="3">
-        <v>196200</v>
+        <v>196600</v>
       </c>
       <c r="F47" s="3">
-        <v>194800</v>
+        <v>195200</v>
       </c>
       <c r="G47" s="3">
-        <v>195100</v>
+        <v>195500</v>
       </c>
       <c r="H47" s="3">
-        <v>184200</v>
+        <v>184600</v>
       </c>
       <c r="I47" s="3">
-        <v>143600</v>
+        <v>143900</v>
       </c>
       <c r="J47" s="3">
-        <v>145600</v>
+        <v>145900</v>
       </c>
       <c r="K47" s="3">
         <v>168900</v>
@@ -3897,16 +3897,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>53100</v>
+        <v>53200</v>
       </c>
       <c r="E48" s="3">
-        <v>45100</v>
+        <v>45200</v>
       </c>
       <c r="F48" s="3">
-        <v>39200</v>
+        <v>39300</v>
       </c>
       <c r="G48" s="3">
-        <v>33400</v>
+        <v>33500</v>
       </c>
       <c r="H48" s="3">
         <v>29900</v>
@@ -3915,7 +3915,7 @@
         <v>29600</v>
       </c>
       <c r="J48" s="3">
-        <v>26900</v>
+        <v>27000</v>
       </c>
       <c r="K48" s="3">
         <v>22300</v>
@@ -3986,25 +3986,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>126000</v>
+        <v>126300</v>
       </c>
       <c r="E49" s="3">
-        <v>127200</v>
+        <v>127500</v>
       </c>
       <c r="F49" s="3">
-        <v>128400</v>
+        <v>128600</v>
       </c>
       <c r="G49" s="3">
-        <v>129500</v>
+        <v>129800</v>
       </c>
       <c r="H49" s="3">
-        <v>130700</v>
+        <v>131000</v>
       </c>
       <c r="I49" s="3">
-        <v>131900</v>
+        <v>132200</v>
       </c>
       <c r="J49" s="3">
-        <v>133100</v>
+        <v>133400</v>
       </c>
       <c r="K49" s="3">
         <v>138500</v>
@@ -4253,25 +4253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>341200</v>
+        <v>342000</v>
       </c>
       <c r="E52" s="3">
-        <v>334900</v>
+        <v>335700</v>
       </c>
       <c r="F52" s="3">
-        <v>325000</v>
+        <v>325700</v>
       </c>
       <c r="G52" s="3">
-        <v>332700</v>
+        <v>333400</v>
       </c>
       <c r="H52" s="3">
-        <v>336300</v>
+        <v>337000</v>
       </c>
       <c r="I52" s="3">
-        <v>317800</v>
+        <v>318500</v>
       </c>
       <c r="J52" s="3">
-        <v>296600</v>
+        <v>297300</v>
       </c>
       <c r="K52" s="3">
         <v>279600</v>
@@ -4431,25 +4431,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3291800</v>
+        <v>3298900</v>
       </c>
       <c r="E54" s="3">
-        <v>3389000</v>
+        <v>3396400</v>
       </c>
       <c r="F54" s="3">
-        <v>3137300</v>
+        <v>3144200</v>
       </c>
       <c r="G54" s="3">
-        <v>3141200</v>
+        <v>3148000</v>
       </c>
       <c r="H54" s="3">
-        <v>3039900</v>
+        <v>3046500</v>
       </c>
       <c r="I54" s="3">
-        <v>2919300</v>
+        <v>2925600</v>
       </c>
       <c r="J54" s="3">
-        <v>2897000</v>
+        <v>2903300</v>
       </c>
       <c r="K54" s="3">
         <v>2924100</v>
@@ -4675,25 +4675,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>798800</v>
+        <v>800500</v>
       </c>
       <c r="E58" s="3">
-        <v>1076900</v>
+        <v>1079200</v>
       </c>
       <c r="F58" s="3">
-        <v>1049400</v>
+        <v>1051700</v>
       </c>
       <c r="G58" s="3">
-        <v>999800</v>
+        <v>1002000</v>
       </c>
       <c r="H58" s="3">
-        <v>642800</v>
+        <v>644200</v>
       </c>
       <c r="I58" s="3">
-        <v>566400</v>
+        <v>567700</v>
       </c>
       <c r="J58" s="3">
-        <v>675300</v>
+        <v>676700</v>
       </c>
       <c r="K58" s="3">
         <v>699600</v>
@@ -4764,25 +4764,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>827100</v>
+        <v>828900</v>
       </c>
       <c r="E59" s="3">
-        <v>741600</v>
+        <v>743200</v>
       </c>
       <c r="F59" s="3">
-        <v>666700</v>
+        <v>668200</v>
       </c>
       <c r="G59" s="3">
-        <v>664400</v>
+        <v>665900</v>
       </c>
       <c r="H59" s="3">
-        <v>659700</v>
+        <v>661200</v>
       </c>
       <c r="I59" s="3">
-        <v>690200</v>
+        <v>691700</v>
       </c>
       <c r="J59" s="3">
-        <v>726100</v>
+        <v>727700</v>
       </c>
       <c r="K59" s="3">
         <v>721300</v>
@@ -4853,25 +4853,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1631400</v>
+        <v>1634900</v>
       </c>
       <c r="E60" s="3">
-        <v>1823500</v>
+        <v>1827500</v>
       </c>
       <c r="F60" s="3">
-        <v>1719800</v>
+        <v>1723500</v>
       </c>
       <c r="G60" s="3">
-        <v>1668800</v>
+        <v>1672400</v>
       </c>
       <c r="H60" s="3">
-        <v>1310800</v>
+        <v>1313700</v>
       </c>
       <c r="I60" s="3">
-        <v>1260100</v>
+        <v>1262800</v>
       </c>
       <c r="J60" s="3">
-        <v>1403600</v>
+        <v>1406600</v>
       </c>
       <c r="K60" s="3">
         <v>1423600</v>
@@ -4942,25 +4942,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>354300</v>
+        <v>355100</v>
       </c>
       <c r="E61" s="3">
-        <v>303800</v>
+        <v>304500</v>
       </c>
       <c r="F61" s="3">
-        <v>204500</v>
+        <v>205000</v>
       </c>
       <c r="G61" s="3">
-        <v>298800</v>
+        <v>299400</v>
       </c>
       <c r="H61" s="3">
-        <v>573500</v>
+        <v>574700</v>
       </c>
       <c r="I61" s="3">
-        <v>503200</v>
+        <v>504300</v>
       </c>
       <c r="J61" s="3">
-        <v>355400</v>
+        <v>356200</v>
       </c>
       <c r="K61" s="3">
         <v>371700</v>
@@ -5037,7 +5037,7 @@
         <v>19800</v>
       </c>
       <c r="F62" s="3">
-        <v>21400</v>
+        <v>21500</v>
       </c>
       <c r="G62" s="3">
         <v>22100</v>
@@ -5046,10 +5046,10 @@
         <v>29300</v>
       </c>
       <c r="I62" s="3">
-        <v>29000</v>
+        <v>29100</v>
       </c>
       <c r="J62" s="3">
-        <v>26400</v>
+        <v>26500</v>
       </c>
       <c r="K62" s="3">
         <v>26000</v>
@@ -5387,25 +5387,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2000300</v>
+        <v>2004600</v>
       </c>
       <c r="E66" s="3">
-        <v>2147100</v>
+        <v>2151800</v>
       </c>
       <c r="F66" s="3">
-        <v>1945700</v>
+        <v>1950000</v>
       </c>
       <c r="G66" s="3">
-        <v>1995300</v>
+        <v>1999600</v>
       </c>
       <c r="H66" s="3">
-        <v>1919200</v>
+        <v>1923400</v>
       </c>
       <c r="I66" s="3">
-        <v>1800900</v>
+        <v>1804900</v>
       </c>
       <c r="J66" s="3">
-        <v>1790900</v>
+        <v>1794800</v>
       </c>
       <c r="K66" s="3">
         <v>1827100</v>
@@ -5865,25 +5865,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>909400</v>
+        <v>911300</v>
       </c>
       <c r="E72" s="3">
-        <v>860300</v>
+        <v>862200</v>
       </c>
       <c r="F72" s="3">
-        <v>815200</v>
+        <v>817000</v>
       </c>
       <c r="G72" s="3">
-        <v>773700</v>
+        <v>775400</v>
       </c>
       <c r="H72" s="3">
-        <v>735700</v>
+        <v>737300</v>
       </c>
       <c r="I72" s="3">
-        <v>713000</v>
+        <v>714600</v>
       </c>
       <c r="J72" s="3">
-        <v>702300</v>
+        <v>703800</v>
       </c>
       <c r="K72" s="3">
         <v>688200</v>
@@ -6221,25 +6221,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1291500</v>
+        <v>1294300</v>
       </c>
       <c r="E76" s="3">
-        <v>1241900</v>
+        <v>1244600</v>
       </c>
       <c r="F76" s="3">
-        <v>1191600</v>
+        <v>1194200</v>
       </c>
       <c r="G76" s="3">
-        <v>1145900</v>
+        <v>1148400</v>
       </c>
       <c r="H76" s="3">
-        <v>1120700</v>
+        <v>1123200</v>
       </c>
       <c r="I76" s="3">
-        <v>1118400</v>
+        <v>1120800</v>
       </c>
       <c r="J76" s="3">
-        <v>1106000</v>
+        <v>1108500</v>
       </c>
       <c r="K76" s="3">
         <v>1097000</v>
@@ -6493,25 +6493,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>49000</v>
+        <v>49100</v>
       </c>
       <c r="E81" s="3">
-        <v>45100</v>
+        <v>45200</v>
       </c>
       <c r="F81" s="3">
-        <v>41500</v>
+        <v>41600</v>
       </c>
       <c r="G81" s="3">
         <v>38000</v>
       </c>
       <c r="H81" s="3">
-        <v>22700</v>
+        <v>22800</v>
       </c>
       <c r="I81" s="3">
         <v>10800</v>
       </c>
       <c r="J81" s="3">
-        <v>35200</v>
+        <v>35300</v>
       </c>
       <c r="K81" s="3">
         <v>82500</v>
